--- a/Code/Results/Cases/Case_3_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_42/res_bus/vm_pu.xlsx
@@ -421,13 +421,13 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.998929934320706</v>
+        <v>0.9989299343207066</v>
       </c>
       <c r="D2">
         <v>1.017660960002048</v>
       </c>
       <c r="E2">
-        <v>1.007357640781277</v>
+        <v>1.007357640781278</v>
       </c>
       <c r="F2">
         <v>1.016011927475562</v>
@@ -436,10 +436,10 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045353910576662</v>
+        <v>1.045353910576663</v>
       </c>
       <c r="J2">
-        <v>1.021142698039739</v>
+        <v>1.02114269803974</v>
       </c>
       <c r="K2">
         <v>1.028879612858604</v>
@@ -448,7 +448,7 @@
         <v>1.018715414906219</v>
       </c>
       <c r="M2">
-        <v>1.027252608238844</v>
+        <v>1.027252608238845</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005018871668215</v>
+        <v>1.005018871668216</v>
       </c>
       <c r="D3">
-        <v>1.02223398850253</v>
+        <v>1.022233988502531</v>
       </c>
       <c r="E3">
         <v>1.012448740701368</v>
       </c>
       <c r="F3">
-        <v>1.022000008663158</v>
+        <v>1.022000008663159</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047500608122406</v>
+        <v>1.047500608122407</v>
       </c>
       <c r="J3">
-        <v>1.025373646005407</v>
+        <v>1.025373646005408</v>
       </c>
       <c r="K3">
-        <v>1.032590070697521</v>
+        <v>1.032590070697522</v>
       </c>
       <c r="L3">
         <v>1.022924777373374</v>
       </c>
       <c r="M3">
-        <v>1.032358925848752</v>
+        <v>1.032358925848753</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008856345016682</v>
+        <v>1.00885634501668</v>
       </c>
       <c r="D4">
-        <v>1.025118073060998</v>
+        <v>1.025118073060997</v>
       </c>
       <c r="E4">
-        <v>1.015663279671786</v>
+        <v>1.015663279671785</v>
       </c>
       <c r="F4">
-        <v>1.02577990704073</v>
+        <v>1.025779907040729</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048840177203518</v>
+        <v>1.048840177203517</v>
       </c>
       <c r="J4">
-        <v>1.028036186016444</v>
+        <v>1.028036186016443</v>
       </c>
       <c r="K4">
-        <v>1.034922509790701</v>
+        <v>1.0349225097907</v>
       </c>
       <c r="L4">
-        <v>1.025576267966369</v>
+        <v>1.025576267966368</v>
       </c>
       <c r="M4">
-        <v>1.035576837573669</v>
+        <v>1.035576837573668</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,31 +535,31 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010446237588547</v>
+        <v>1.010446237588546</v>
       </c>
       <c r="D5">
-        <v>1.026313365014951</v>
+        <v>1.02631336501495</v>
       </c>
       <c r="E5">
-        <v>1.016996443967432</v>
+        <v>1.016996443967431</v>
       </c>
       <c r="F5">
-        <v>1.027347333718964</v>
+        <v>1.027347333718963</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04939190863432</v>
+        <v>1.049391908634319</v>
       </c>
       <c r="J5">
-        <v>1.0291382939418</v>
+        <v>1.029138293941799</v>
       </c>
       <c r="K5">
-        <v>1.035887347155656</v>
+        <v>1.035887347155655</v>
       </c>
       <c r="L5">
-        <v>1.026674406612528</v>
+        <v>1.026674406612527</v>
       </c>
       <c r="M5">
         <v>1.03690991924414</v>
@@ -573,13 +573,13 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010711848474817</v>
+        <v>1.010711848474819</v>
       </c>
       <c r="D6">
-        <v>1.026513073970733</v>
+        <v>1.026513073970734</v>
       </c>
       <c r="E6">
-        <v>1.01721924323832</v>
+        <v>1.017219243238321</v>
       </c>
       <c r="F6">
         <v>1.027609271648279</v>
@@ -588,19 +588,19 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049483888685228</v>
+        <v>1.049483888685229</v>
       </c>
       <c r="J6">
-        <v>1.029322354138703</v>
+        <v>1.029322354138704</v>
       </c>
       <c r="K6">
-        <v>1.036048444486083</v>
+        <v>1.036048444486084</v>
       </c>
       <c r="L6">
-        <v>1.026857839360706</v>
+        <v>1.026857839360708</v>
       </c>
       <c r="M6">
-        <v>1.037132618014528</v>
+        <v>1.037132618014529</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.008877679646265</v>
+        <v>1.008877679646264</v>
       </c>
       <c r="D7">
         <v>1.025134111123047</v>
       </c>
       <c r="E7">
-        <v>1.01568116400255</v>
+        <v>1.015681164002549</v>
       </c>
       <c r="F7">
         <v>1.025800934775901</v>
@@ -635,7 +635,7 @@
         <v>1.034935462906661</v>
       </c>
       <c r="L7">
-        <v>1.025591005418027</v>
+        <v>1.025591005418026</v>
       </c>
       <c r="M7">
         <v>1.035594726633952</v>
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.001009656976834</v>
+        <v>1.001009656976836</v>
       </c>
       <c r="D8">
-        <v>1.019222440563164</v>
+        <v>1.019222440563166</v>
       </c>
       <c r="E8">
-        <v>1.009095251483687</v>
+        <v>1.009095251483688</v>
       </c>
       <c r="F8">
-        <v>1.018055910134051</v>
+        <v>1.018055910134052</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046089908614423</v>
+        <v>1.046089908614424</v>
       </c>
       <c r="J8">
-        <v>1.022588611717525</v>
+        <v>1.022588611717526</v>
       </c>
       <c r="K8">
-        <v>1.030148177846014</v>
+        <v>1.030148177846015</v>
       </c>
       <c r="L8">
-        <v>1.020153415274523</v>
+        <v>1.020153415274524</v>
       </c>
       <c r="M8">
-        <v>1.028996733319914</v>
+        <v>1.028996733319915</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,13 +687,13 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9863040726308785</v>
+        <v>0.986304072630878</v>
       </c>
       <c r="D9">
         <v>1.008193571074668</v>
       </c>
       <c r="E9">
-        <v>0.9968372504460437</v>
+        <v>0.9968372504460432</v>
       </c>
       <c r="F9">
         <v>1.003630981089221</v>
@@ -714,7 +714,7 @@
         <v>1.009981850323341</v>
       </c>
       <c r="M9">
-        <v>1.016665421573452</v>
+        <v>1.016665421573451</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9758482444973148</v>
+        <v>0.9758482444973146</v>
       </c>
       <c r="D10">
-        <v>1.000372086651962</v>
+        <v>1.000372086651963</v>
       </c>
       <c r="E10">
-        <v>0.9881618731126054</v>
+        <v>0.9881618731126056</v>
       </c>
       <c r="F10">
-        <v>0.9934131914607179</v>
+        <v>0.9934131914607177</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -746,7 +746,7 @@
         <v>1.005053982954271</v>
       </c>
       <c r="K10">
-        <v>1.014734626207661</v>
+        <v>1.014734626207662</v>
       </c>
       <c r="L10">
         <v>1.002748209548677</v>
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9711441051481431</v>
+        <v>0.9711441051481444</v>
       </c>
       <c r="D11">
-        <v>0.9968595267613636</v>
+        <v>0.9968595267613649</v>
       </c>
       <c r="E11">
-        <v>0.9842696448479535</v>
+        <v>0.9842696448479549</v>
       </c>
       <c r="F11">
-        <v>0.9888262916719009</v>
+        <v>0.9888262916719022</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035296544102212</v>
+        <v>1.035296544102213</v>
       </c>
       <c r="J11">
-        <v>1.001768622772414</v>
+        <v>1.001768622772415</v>
       </c>
       <c r="K11">
-        <v>1.011840911820813</v>
+        <v>1.011840911820814</v>
       </c>
       <c r="L11">
-        <v>0.9994944373034256</v>
+        <v>0.9994944373034268</v>
       </c>
       <c r="M11">
-        <v>1.003962049596175</v>
+        <v>1.003962049596176</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9693681234535693</v>
+        <v>0.9693681234535685</v>
       </c>
       <c r="D12">
-        <v>0.9955345145104443</v>
+        <v>0.9955345145104432</v>
       </c>
       <c r="E12">
-        <v>0.9828019478339569</v>
+        <v>0.982801947833956</v>
       </c>
       <c r="F12">
-        <v>0.9870961916132264</v>
+        <v>0.9870961916132256</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.034642130975642</v>
       </c>
       <c r="J12">
-        <v>1.000527937366763</v>
+        <v>1.000527937366762</v>
       </c>
       <c r="K12">
         <v>1.010747769157326</v>
       </c>
       <c r="L12">
-        <v>0.9982662228151427</v>
+        <v>0.9982662228151419</v>
       </c>
       <c r="M12">
-        <v>1.002474855303097</v>
+        <v>1.002474855303096</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9697504105689883</v>
+        <v>0.9697504105689864</v>
       </c>
       <c r="D13">
-        <v>0.9958196762478952</v>
+        <v>0.9958196762478941</v>
       </c>
       <c r="E13">
-        <v>0.9831177939006482</v>
+        <v>0.9831177939006461</v>
       </c>
       <c r="F13">
-        <v>0.9874685277766162</v>
+        <v>0.9874685277766148</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034783092355165</v>
+        <v>1.034783092355164</v>
       </c>
       <c r="J13">
-        <v>1.000795013856972</v>
+        <v>1.00079501385697</v>
       </c>
       <c r="K13">
-        <v>1.010983100535332</v>
+        <v>1.010983100535331</v>
       </c>
       <c r="L13">
-        <v>0.9985305900961228</v>
+        <v>0.9985305900961209</v>
       </c>
       <c r="M13">
-        <v>1.002794958661184</v>
+        <v>1.002794958661182</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9709978994891024</v>
+        <v>0.9709978994891034</v>
       </c>
       <c r="D14">
-        <v>0.9967504233166277</v>
+        <v>0.9967504233166282</v>
       </c>
       <c r="E14">
-        <v>0.9841487819130526</v>
+        <v>0.9841487819130531</v>
       </c>
       <c r="F14">
-        <v>0.988683829717258</v>
+        <v>0.9886838297172588</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035242713741612</v>
+        <v>1.035242713741613</v>
       </c>
       <c r="J14">
-        <v>1.001666491211075</v>
+        <v>1.001666491211076</v>
       </c>
       <c r="K14">
-        <v>1.011750932888808</v>
+        <v>1.011750932888809</v>
       </c>
       <c r="L14">
-        <v>0.9993933212667333</v>
+        <v>0.9993933212667341</v>
       </c>
       <c r="M14">
-        <v>1.003839608694429</v>
+        <v>1.00383960869443</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9717626546607837</v>
+        <v>0.9717626546607835</v>
       </c>
       <c r="D15">
-        <v>0.9973211545206501</v>
+        <v>0.9973211545206502</v>
       </c>
       <c r="E15">
-        <v>0.9847810497153012</v>
+        <v>0.9847810497153006</v>
       </c>
       <c r="F15">
-        <v>0.9894290692430483</v>
+        <v>0.989429069243048</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -939,7 +939,7 @@
         <v>1.012221557723321</v>
       </c>
       <c r="L15">
-        <v>0.9999222358090247</v>
+        <v>0.9999222358090243</v>
       </c>
       <c r="M15">
         <v>1.004480076104554</v>
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9761565450069544</v>
+        <v>0.9761565450069541</v>
       </c>
       <c r="D16">
         <v>1.000602437639074</v>
       </c>
       <c r="E16">
-        <v>0.9884171983841331</v>
+        <v>0.988417198384133</v>
       </c>
       <c r="F16">
-        <v>0.9937140265813414</v>
+        <v>0.9937140265813413</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -974,7 +974,7 @@
         <v>1.005269246914017</v>
       </c>
       <c r="K16">
-        <v>1.014924177611995</v>
+        <v>1.014924177611994</v>
       </c>
       <c r="L16">
         <v>1.002961478027627</v>
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9788639895533952</v>
+        <v>0.9788639895533943</v>
       </c>
       <c r="D17">
-        <v>1.002626080213494</v>
+        <v>1.002626080213493</v>
       </c>
       <c r="E17">
-        <v>0.990660668132903</v>
+        <v>0.9906606681329021</v>
       </c>
       <c r="F17">
-        <v>0.9963570701979554</v>
+        <v>0.9963570701979548</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038127076788205</v>
+        <v>1.038127076788204</v>
       </c>
       <c r="J17">
-        <v>1.007159344014659</v>
+        <v>1.007159344014658</v>
       </c>
       <c r="K17">
         <v>1.01658822087352</v>
       </c>
       <c r="L17">
-        <v>1.004834455520305</v>
+        <v>1.004834455520304</v>
       </c>
       <c r="M17">
-        <v>1.010429276094568</v>
+        <v>1.010429276094567</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9804263011541667</v>
+        <v>0.9804263011541655</v>
       </c>
       <c r="D18">
-        <v>1.003794399385913</v>
+        <v>1.003794399385912</v>
       </c>
       <c r="E18">
-        <v>0.9919562631765808</v>
+        <v>0.9919562631765797</v>
       </c>
       <c r="F18">
-        <v>0.9978831695958612</v>
+        <v>0.9978831695958598</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038696910702221</v>
+        <v>1.03869691070222</v>
       </c>
       <c r="J18">
-        <v>1.008249733719862</v>
+        <v>1.008249733719861</v>
       </c>
       <c r="K18">
-        <v>1.017547956413471</v>
+        <v>1.01754795641347</v>
       </c>
       <c r="L18">
-        <v>1.005915301687729</v>
+        <v>1.005915301687728</v>
       </c>
       <c r="M18">
-        <v>1.011738542604138</v>
+        <v>1.011738542604137</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,7 +1067,7 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9809562038029237</v>
+        <v>0.9809562038029238</v>
       </c>
       <c r="D19">
         <v>1.004190764237339</v>
@@ -1076,13 +1076,13 @@
         <v>0.9923958702241185</v>
       </c>
       <c r="F19">
-        <v>0.9984009482885559</v>
+        <v>0.9984009482885561</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038889942352184</v>
+        <v>1.038889942352183</v>
       </c>
       <c r="J19">
         <v>1.008619521013453</v>
@@ -1091,7 +1091,7 @@
         <v>1.017873392257152</v>
       </c>
       <c r="L19">
-        <v>1.006281908595593</v>
+        <v>1.006281908595592</v>
       </c>
       <c r="M19">
         <v>1.012182648674984</v>
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9785752684332845</v>
+        <v>0.9785752684332835</v>
       </c>
       <c r="D20">
-        <v>1.002410217187859</v>
+        <v>1.002410217187858</v>
       </c>
       <c r="E20">
-        <v>0.9904213186941027</v>
+        <v>0.9904213186941014</v>
       </c>
       <c r="F20">
-        <v>0.9960751174683592</v>
+        <v>0.9960751174683582</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03802165357572</v>
+        <v>1.038021653575719</v>
       </c>
       <c r="J20">
-        <v>1.00695781280096</v>
+        <v>1.006957812800958</v>
       </c>
       <c r="K20">
-        <v>1.016410817815945</v>
+        <v>1.016410817815944</v>
       </c>
       <c r="L20">
-        <v>1.00463471505224</v>
+        <v>1.004634715052239</v>
       </c>
       <c r="M20">
-        <v>1.01018733408692</v>
+        <v>1.010187334086919</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9706313541715018</v>
+        <v>0.9706313541715017</v>
       </c>
       <c r="D21">
         <v>0.9964769135226391</v>
       </c>
       <c r="E21">
-        <v>0.983845800893336</v>
+        <v>0.9838458008933361</v>
       </c>
       <c r="F21">
-        <v>0.9883266964628425</v>
+        <v>0.9883266964628423</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1167,7 +1167,7 @@
         <v>1.011525340680494</v>
       </c>
       <c r="L21">
-        <v>0.9991398216082131</v>
+        <v>0.9991398216082129</v>
       </c>
       <c r="M21">
         <v>1.003532650153445</v>
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9654696967710965</v>
+        <v>0.9654696967710953</v>
       </c>
       <c r="D22">
-        <v>0.9926282147110708</v>
+        <v>0.9926282147110699</v>
       </c>
       <c r="E22">
-        <v>0.9795836212534788</v>
+        <v>0.9795836212534774</v>
       </c>
       <c r="F22">
-        <v>0.9833015769171395</v>
+        <v>0.9833015769171383</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033201750971822</v>
+        <v>1.033201750971821</v>
       </c>
       <c r="J22">
-        <v>0.9978040011012366</v>
+        <v>0.9978040011012353</v>
       </c>
       <c r="K22">
-        <v>1.008347136414248</v>
+        <v>1.008347136414247</v>
       </c>
       <c r="L22">
-        <v>0.9955706782242166</v>
+        <v>0.9955706782242154</v>
       </c>
       <c r="M22">
-        <v>0.9992112529613508</v>
+        <v>0.99921125296135</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9682225836525775</v>
+        <v>0.9682225836525784</v>
       </c>
       <c r="D23">
-        <v>0.9946801891861651</v>
+        <v>0.9946801891861656</v>
       </c>
       <c r="E23">
-        <v>0.9818557695744742</v>
+        <v>0.9818557695744752</v>
       </c>
       <c r="F23">
-        <v>0.9859807154975567</v>
+        <v>0.9859807154975577</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.034219423701198</v>
       </c>
       <c r="J23">
-        <v>0.9997275879843133</v>
+        <v>0.9997275879843139</v>
       </c>
       <c r="K23">
         <v>1.010042500219529</v>
       </c>
       <c r="L23">
-        <v>0.99747407246027</v>
+        <v>0.997474072460271</v>
       </c>
       <c r="M23">
-        <v>1.001515723100582</v>
+        <v>1.001515723100583</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9787057811340952</v>
+        <v>0.9787057811340957</v>
       </c>
       <c r="D24">
-        <v>1.002507793493593</v>
+        <v>1.002507793493594</v>
       </c>
       <c r="E24">
-        <v>0.9905295104087828</v>
+        <v>0.9905295104087833</v>
       </c>
       <c r="F24">
-        <v>0.9962025676628644</v>
+        <v>0.9962025676628645</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1295,13 +1295,13 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9902139128697647</v>
+        <v>0.9902139128697652</v>
       </c>
       <c r="D25">
         <v>1.011122903470177</v>
       </c>
       <c r="E25">
-        <v>1.000089874681872</v>
+        <v>1.000089874681873</v>
       </c>
       <c r="F25">
         <v>1.007459926538725</v>
@@ -1313,10 +1313,10 @@
         <v>1.042240866561853</v>
       </c>
       <c r="J25">
-        <v>1.015075166557508</v>
+        <v>1.015075166557509</v>
       </c>
       <c r="K25">
-        <v>1.023550970095908</v>
+        <v>1.023550970095909</v>
       </c>
       <c r="L25">
         <v>1.012686795621823</v>

--- a/Code/Results/Cases/Case_3_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_42/res_bus/vm_pu.xlsx
@@ -421,13 +421,13 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9989299343207066</v>
+        <v>0.998929934320706</v>
       </c>
       <c r="D2">
         <v>1.017660960002048</v>
       </c>
       <c r="E2">
-        <v>1.007357640781278</v>
+        <v>1.007357640781277</v>
       </c>
       <c r="F2">
         <v>1.016011927475562</v>
@@ -436,10 +436,10 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045353910576663</v>
+        <v>1.045353910576662</v>
       </c>
       <c r="J2">
-        <v>1.02114269803974</v>
+        <v>1.021142698039739</v>
       </c>
       <c r="K2">
         <v>1.028879612858604</v>
@@ -448,7 +448,7 @@
         <v>1.018715414906219</v>
       </c>
       <c r="M2">
-        <v>1.027252608238845</v>
+        <v>1.027252608238844</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005018871668216</v>
+        <v>1.005018871668215</v>
       </c>
       <c r="D3">
-        <v>1.022233988502531</v>
+        <v>1.02223398850253</v>
       </c>
       <c r="E3">
         <v>1.012448740701368</v>
       </c>
       <c r="F3">
-        <v>1.022000008663159</v>
+        <v>1.022000008663158</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047500608122407</v>
+        <v>1.047500608122406</v>
       </c>
       <c r="J3">
-        <v>1.025373646005408</v>
+        <v>1.025373646005407</v>
       </c>
       <c r="K3">
-        <v>1.032590070697522</v>
+        <v>1.032590070697521</v>
       </c>
       <c r="L3">
         <v>1.022924777373374</v>
       </c>
       <c r="M3">
-        <v>1.032358925848753</v>
+        <v>1.032358925848752</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00885634501668</v>
+        <v>1.008856345016682</v>
       </c>
       <c r="D4">
-        <v>1.025118073060997</v>
+        <v>1.025118073060998</v>
       </c>
       <c r="E4">
-        <v>1.015663279671785</v>
+        <v>1.015663279671786</v>
       </c>
       <c r="F4">
-        <v>1.025779907040729</v>
+        <v>1.02577990704073</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048840177203517</v>
+        <v>1.048840177203518</v>
       </c>
       <c r="J4">
-        <v>1.028036186016443</v>
+        <v>1.028036186016444</v>
       </c>
       <c r="K4">
-        <v>1.0349225097907</v>
+        <v>1.034922509790701</v>
       </c>
       <c r="L4">
-        <v>1.025576267966368</v>
+        <v>1.025576267966369</v>
       </c>
       <c r="M4">
-        <v>1.035576837573668</v>
+        <v>1.035576837573669</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,31 +535,31 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010446237588546</v>
+        <v>1.010446237588547</v>
       </c>
       <c r="D5">
-        <v>1.02631336501495</v>
+        <v>1.026313365014951</v>
       </c>
       <c r="E5">
-        <v>1.016996443967431</v>
+        <v>1.016996443967432</v>
       </c>
       <c r="F5">
-        <v>1.027347333718963</v>
+        <v>1.027347333718964</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049391908634319</v>
+        <v>1.04939190863432</v>
       </c>
       <c r="J5">
-        <v>1.029138293941799</v>
+        <v>1.0291382939418</v>
       </c>
       <c r="K5">
-        <v>1.035887347155655</v>
+        <v>1.035887347155656</v>
       </c>
       <c r="L5">
-        <v>1.026674406612527</v>
+        <v>1.026674406612528</v>
       </c>
       <c r="M5">
         <v>1.03690991924414</v>
@@ -573,13 +573,13 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010711848474819</v>
+        <v>1.010711848474817</v>
       </c>
       <c r="D6">
-        <v>1.026513073970734</v>
+        <v>1.026513073970733</v>
       </c>
       <c r="E6">
-        <v>1.017219243238321</v>
+        <v>1.01721924323832</v>
       </c>
       <c r="F6">
         <v>1.027609271648279</v>
@@ -588,19 +588,19 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049483888685229</v>
+        <v>1.049483888685228</v>
       </c>
       <c r="J6">
-        <v>1.029322354138704</v>
+        <v>1.029322354138703</v>
       </c>
       <c r="K6">
-        <v>1.036048444486084</v>
+        <v>1.036048444486083</v>
       </c>
       <c r="L6">
-        <v>1.026857839360708</v>
+        <v>1.026857839360706</v>
       </c>
       <c r="M6">
-        <v>1.037132618014529</v>
+        <v>1.037132618014528</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.008877679646264</v>
+        <v>1.008877679646265</v>
       </c>
       <c r="D7">
         <v>1.025134111123047</v>
       </c>
       <c r="E7">
-        <v>1.015681164002549</v>
+        <v>1.01568116400255</v>
       </c>
       <c r="F7">
         <v>1.025800934775901</v>
@@ -635,7 +635,7 @@
         <v>1.034935462906661</v>
       </c>
       <c r="L7">
-        <v>1.025591005418026</v>
+        <v>1.025591005418027</v>
       </c>
       <c r="M7">
         <v>1.035594726633952</v>
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.001009656976836</v>
+        <v>1.001009656976834</v>
       </c>
       <c r="D8">
-        <v>1.019222440563166</v>
+        <v>1.019222440563164</v>
       </c>
       <c r="E8">
-        <v>1.009095251483688</v>
+        <v>1.009095251483687</v>
       </c>
       <c r="F8">
-        <v>1.018055910134052</v>
+        <v>1.018055910134051</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046089908614424</v>
+        <v>1.046089908614423</v>
       </c>
       <c r="J8">
-        <v>1.022588611717526</v>
+        <v>1.022588611717525</v>
       </c>
       <c r="K8">
-        <v>1.030148177846015</v>
+        <v>1.030148177846014</v>
       </c>
       <c r="L8">
-        <v>1.020153415274524</v>
+        <v>1.020153415274523</v>
       </c>
       <c r="M8">
-        <v>1.028996733319915</v>
+        <v>1.028996733319914</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,13 +687,13 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.986304072630878</v>
+        <v>0.9863040726308785</v>
       </c>
       <c r="D9">
         <v>1.008193571074668</v>
       </c>
       <c r="E9">
-        <v>0.9968372504460432</v>
+        <v>0.9968372504460437</v>
       </c>
       <c r="F9">
         <v>1.003630981089221</v>
@@ -714,7 +714,7 @@
         <v>1.009981850323341</v>
       </c>
       <c r="M9">
-        <v>1.016665421573451</v>
+        <v>1.016665421573452</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9758482444973146</v>
+        <v>0.9758482444973148</v>
       </c>
       <c r="D10">
-        <v>1.000372086651963</v>
+        <v>1.000372086651962</v>
       </c>
       <c r="E10">
-        <v>0.9881618731126056</v>
+        <v>0.9881618731126054</v>
       </c>
       <c r="F10">
-        <v>0.9934131914607177</v>
+        <v>0.9934131914607179</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -746,7 +746,7 @@
         <v>1.005053982954271</v>
       </c>
       <c r="K10">
-        <v>1.014734626207662</v>
+        <v>1.014734626207661</v>
       </c>
       <c r="L10">
         <v>1.002748209548677</v>
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9711441051481444</v>
+        <v>0.9711441051481431</v>
       </c>
       <c r="D11">
-        <v>0.9968595267613649</v>
+        <v>0.9968595267613636</v>
       </c>
       <c r="E11">
-        <v>0.9842696448479549</v>
+        <v>0.9842696448479535</v>
       </c>
       <c r="F11">
-        <v>0.9888262916719022</v>
+        <v>0.9888262916719009</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035296544102213</v>
+        <v>1.035296544102212</v>
       </c>
       <c r="J11">
-        <v>1.001768622772415</v>
+        <v>1.001768622772414</v>
       </c>
       <c r="K11">
-        <v>1.011840911820814</v>
+        <v>1.011840911820813</v>
       </c>
       <c r="L11">
-        <v>0.9994944373034268</v>
+        <v>0.9994944373034256</v>
       </c>
       <c r="M11">
-        <v>1.003962049596176</v>
+        <v>1.003962049596175</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9693681234535685</v>
+        <v>0.9693681234535693</v>
       </c>
       <c r="D12">
-        <v>0.9955345145104432</v>
+        <v>0.9955345145104443</v>
       </c>
       <c r="E12">
-        <v>0.982801947833956</v>
+        <v>0.9828019478339569</v>
       </c>
       <c r="F12">
-        <v>0.9870961916132256</v>
+        <v>0.9870961916132264</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.034642130975642</v>
       </c>
       <c r="J12">
-        <v>1.000527937366762</v>
+        <v>1.000527937366763</v>
       </c>
       <c r="K12">
         <v>1.010747769157326</v>
       </c>
       <c r="L12">
-        <v>0.9982662228151419</v>
+        <v>0.9982662228151427</v>
       </c>
       <c r="M12">
-        <v>1.002474855303096</v>
+        <v>1.002474855303097</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9697504105689864</v>
+        <v>0.9697504105689883</v>
       </c>
       <c r="D13">
-        <v>0.9958196762478941</v>
+        <v>0.9958196762478952</v>
       </c>
       <c r="E13">
-        <v>0.9831177939006461</v>
+        <v>0.9831177939006482</v>
       </c>
       <c r="F13">
-        <v>0.9874685277766148</v>
+        <v>0.9874685277766162</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034783092355164</v>
+        <v>1.034783092355165</v>
       </c>
       <c r="J13">
-        <v>1.00079501385697</v>
+        <v>1.000795013856972</v>
       </c>
       <c r="K13">
-        <v>1.010983100535331</v>
+        <v>1.010983100535332</v>
       </c>
       <c r="L13">
-        <v>0.9985305900961209</v>
+        <v>0.9985305900961228</v>
       </c>
       <c r="M13">
-        <v>1.002794958661182</v>
+        <v>1.002794958661184</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9709978994891034</v>
+        <v>0.9709978994891024</v>
       </c>
       <c r="D14">
-        <v>0.9967504233166282</v>
+        <v>0.9967504233166277</v>
       </c>
       <c r="E14">
-        <v>0.9841487819130531</v>
+        <v>0.9841487819130526</v>
       </c>
       <c r="F14">
-        <v>0.9886838297172588</v>
+        <v>0.988683829717258</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035242713741613</v>
+        <v>1.035242713741612</v>
       </c>
       <c r="J14">
-        <v>1.001666491211076</v>
+        <v>1.001666491211075</v>
       </c>
       <c r="K14">
-        <v>1.011750932888809</v>
+        <v>1.011750932888808</v>
       </c>
       <c r="L14">
-        <v>0.9993933212667341</v>
+        <v>0.9993933212667333</v>
       </c>
       <c r="M14">
-        <v>1.00383960869443</v>
+        <v>1.003839608694429</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9717626546607835</v>
+        <v>0.9717626546607837</v>
       </c>
       <c r="D15">
-        <v>0.9973211545206502</v>
+        <v>0.9973211545206501</v>
       </c>
       <c r="E15">
-        <v>0.9847810497153006</v>
+        <v>0.9847810497153012</v>
       </c>
       <c r="F15">
-        <v>0.989429069243048</v>
+        <v>0.9894290692430483</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -939,7 +939,7 @@
         <v>1.012221557723321</v>
       </c>
       <c r="L15">
-        <v>0.9999222358090243</v>
+        <v>0.9999222358090247</v>
       </c>
       <c r="M15">
         <v>1.004480076104554</v>
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9761565450069541</v>
+        <v>0.9761565450069544</v>
       </c>
       <c r="D16">
         <v>1.000602437639074</v>
       </c>
       <c r="E16">
-        <v>0.988417198384133</v>
+        <v>0.9884171983841331</v>
       </c>
       <c r="F16">
-        <v>0.9937140265813413</v>
+        <v>0.9937140265813414</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -974,7 +974,7 @@
         <v>1.005269246914017</v>
       </c>
       <c r="K16">
-        <v>1.014924177611994</v>
+        <v>1.014924177611995</v>
       </c>
       <c r="L16">
         <v>1.002961478027627</v>
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9788639895533943</v>
+        <v>0.9788639895533952</v>
       </c>
       <c r="D17">
-        <v>1.002626080213493</v>
+        <v>1.002626080213494</v>
       </c>
       <c r="E17">
-        <v>0.9906606681329021</v>
+        <v>0.990660668132903</v>
       </c>
       <c r="F17">
-        <v>0.9963570701979548</v>
+        <v>0.9963570701979554</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038127076788204</v>
+        <v>1.038127076788205</v>
       </c>
       <c r="J17">
-        <v>1.007159344014658</v>
+        <v>1.007159344014659</v>
       </c>
       <c r="K17">
         <v>1.01658822087352</v>
       </c>
       <c r="L17">
-        <v>1.004834455520304</v>
+        <v>1.004834455520305</v>
       </c>
       <c r="M17">
-        <v>1.010429276094567</v>
+        <v>1.010429276094568</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9804263011541655</v>
+        <v>0.9804263011541667</v>
       </c>
       <c r="D18">
-        <v>1.003794399385912</v>
+        <v>1.003794399385913</v>
       </c>
       <c r="E18">
-        <v>0.9919562631765797</v>
+        <v>0.9919562631765808</v>
       </c>
       <c r="F18">
-        <v>0.9978831695958598</v>
+        <v>0.9978831695958612</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03869691070222</v>
+        <v>1.038696910702221</v>
       </c>
       <c r="J18">
-        <v>1.008249733719861</v>
+        <v>1.008249733719862</v>
       </c>
       <c r="K18">
-        <v>1.01754795641347</v>
+        <v>1.017547956413471</v>
       </c>
       <c r="L18">
-        <v>1.005915301687728</v>
+        <v>1.005915301687729</v>
       </c>
       <c r="M18">
-        <v>1.011738542604137</v>
+        <v>1.011738542604138</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,7 +1067,7 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9809562038029238</v>
+        <v>0.9809562038029237</v>
       </c>
       <c r="D19">
         <v>1.004190764237339</v>
@@ -1076,13 +1076,13 @@
         <v>0.9923958702241185</v>
       </c>
       <c r="F19">
-        <v>0.9984009482885561</v>
+        <v>0.9984009482885559</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038889942352183</v>
+        <v>1.038889942352184</v>
       </c>
       <c r="J19">
         <v>1.008619521013453</v>
@@ -1091,7 +1091,7 @@
         <v>1.017873392257152</v>
       </c>
       <c r="L19">
-        <v>1.006281908595592</v>
+        <v>1.006281908595593</v>
       </c>
       <c r="M19">
         <v>1.012182648674984</v>
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9785752684332835</v>
+        <v>0.9785752684332845</v>
       </c>
       <c r="D20">
-        <v>1.002410217187858</v>
+        <v>1.002410217187859</v>
       </c>
       <c r="E20">
-        <v>0.9904213186941014</v>
+        <v>0.9904213186941027</v>
       </c>
       <c r="F20">
-        <v>0.9960751174683582</v>
+        <v>0.9960751174683592</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038021653575719</v>
+        <v>1.03802165357572</v>
       </c>
       <c r="J20">
-        <v>1.006957812800958</v>
+        <v>1.00695781280096</v>
       </c>
       <c r="K20">
-        <v>1.016410817815944</v>
+        <v>1.016410817815945</v>
       </c>
       <c r="L20">
-        <v>1.004634715052239</v>
+        <v>1.00463471505224</v>
       </c>
       <c r="M20">
-        <v>1.010187334086919</v>
+        <v>1.01018733408692</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9706313541715017</v>
+        <v>0.9706313541715018</v>
       </c>
       <c r="D21">
         <v>0.9964769135226391</v>
       </c>
       <c r="E21">
-        <v>0.9838458008933361</v>
+        <v>0.983845800893336</v>
       </c>
       <c r="F21">
-        <v>0.9883266964628423</v>
+        <v>0.9883266964628425</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1167,7 +1167,7 @@
         <v>1.011525340680494</v>
       </c>
       <c r="L21">
-        <v>0.9991398216082129</v>
+        <v>0.9991398216082131</v>
       </c>
       <c r="M21">
         <v>1.003532650153445</v>
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9654696967710953</v>
+        <v>0.9654696967710965</v>
       </c>
       <c r="D22">
-        <v>0.9926282147110699</v>
+        <v>0.9926282147110708</v>
       </c>
       <c r="E22">
-        <v>0.9795836212534774</v>
+        <v>0.9795836212534788</v>
       </c>
       <c r="F22">
-        <v>0.9833015769171383</v>
+        <v>0.9833015769171395</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033201750971821</v>
+        <v>1.033201750971822</v>
       </c>
       <c r="J22">
-        <v>0.9978040011012353</v>
+        <v>0.9978040011012366</v>
       </c>
       <c r="K22">
-        <v>1.008347136414247</v>
+        <v>1.008347136414248</v>
       </c>
       <c r="L22">
-        <v>0.9955706782242154</v>
+        <v>0.9955706782242166</v>
       </c>
       <c r="M22">
-        <v>0.99921125296135</v>
+        <v>0.9992112529613508</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9682225836525784</v>
+        <v>0.9682225836525775</v>
       </c>
       <c r="D23">
-        <v>0.9946801891861656</v>
+        <v>0.9946801891861651</v>
       </c>
       <c r="E23">
-        <v>0.9818557695744752</v>
+        <v>0.9818557695744742</v>
       </c>
       <c r="F23">
-        <v>0.9859807154975577</v>
+        <v>0.9859807154975567</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.034219423701198</v>
       </c>
       <c r="J23">
-        <v>0.9997275879843139</v>
+        <v>0.9997275879843133</v>
       </c>
       <c r="K23">
         <v>1.010042500219529</v>
       </c>
       <c r="L23">
-        <v>0.997474072460271</v>
+        <v>0.99747407246027</v>
       </c>
       <c r="M23">
-        <v>1.001515723100583</v>
+        <v>1.001515723100582</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9787057811340957</v>
+        <v>0.9787057811340952</v>
       </c>
       <c r="D24">
-        <v>1.002507793493594</v>
+        <v>1.002507793493593</v>
       </c>
       <c r="E24">
-        <v>0.9905295104087833</v>
+        <v>0.9905295104087828</v>
       </c>
       <c r="F24">
-        <v>0.9962025676628645</v>
+        <v>0.9962025676628644</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1295,13 +1295,13 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9902139128697652</v>
+        <v>0.9902139128697647</v>
       </c>
       <c r="D25">
         <v>1.011122903470177</v>
       </c>
       <c r="E25">
-        <v>1.000089874681873</v>
+        <v>1.000089874681872</v>
       </c>
       <c r="F25">
         <v>1.007459926538725</v>
@@ -1313,10 +1313,10 @@
         <v>1.042240866561853</v>
       </c>
       <c r="J25">
-        <v>1.015075166557509</v>
+        <v>1.015075166557508</v>
       </c>
       <c r="K25">
-        <v>1.023550970095909</v>
+        <v>1.023550970095908</v>
       </c>
       <c r="L25">
         <v>1.012686795621823</v>

--- a/Code/Results/Cases/Case_3_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_42/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.998929934320706</v>
+        <v>0.9989320593204351</v>
       </c>
       <c r="D2">
-        <v>1.017660960002048</v>
+        <v>1.017662896237941</v>
       </c>
       <c r="E2">
-        <v>1.007357640781277</v>
+        <v>1.007360083080994</v>
       </c>
       <c r="F2">
-        <v>1.016011927475562</v>
+        <v>1.016013889577031</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045353910576662</v>
+        <v>1.045355023137126</v>
       </c>
       <c r="J2">
-        <v>1.021142698039739</v>
+        <v>1.021144759293694</v>
       </c>
       <c r="K2">
-        <v>1.028879612858604</v>
+        <v>1.028881523282782</v>
       </c>
       <c r="L2">
-        <v>1.018715414906219</v>
+        <v>1.018717823803996</v>
       </c>
       <c r="M2">
-        <v>1.027252608238844</v>
+        <v>1.027254544077021</v>
+      </c>
+      <c r="N2">
+        <v>1.016173815026707</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005018871668215</v>
+        <v>1.005018218452663</v>
       </c>
       <c r="D3">
-        <v>1.02223398850253</v>
+        <v>1.022233739805557</v>
       </c>
       <c r="E3">
-        <v>1.012448740701368</v>
+        <v>1.012448736917293</v>
       </c>
       <c r="F3">
-        <v>1.022000008663158</v>
+        <v>1.021999830189385</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047500608122406</v>
+        <v>1.047500444253338</v>
       </c>
       <c r="J3">
-        <v>1.025373646005407</v>
+        <v>1.025373010356217</v>
       </c>
       <c r="K3">
-        <v>1.032590070697521</v>
+        <v>1.032589825013001</v>
       </c>
       <c r="L3">
-        <v>1.022924777373374</v>
+        <v>1.022924773636246</v>
       </c>
       <c r="M3">
-        <v>1.032358925848752</v>
+        <v>1.032358749538052</v>
+      </c>
+      <c r="N3">
+        <v>1.019092338755715</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008856345016682</v>
+        <v>1.008853964036364</v>
       </c>
       <c r="D4">
-        <v>1.025118073060998</v>
+        <v>1.025116463029544</v>
       </c>
       <c r="E4">
-        <v>1.015663279671786</v>
+        <v>1.01566175282099</v>
       </c>
       <c r="F4">
-        <v>1.02577990704073</v>
+        <v>1.025778400640593</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048840177203518</v>
+        <v>1.048839216631039</v>
       </c>
       <c r="J4">
-        <v>1.028036186016444</v>
+        <v>1.028033864508684</v>
       </c>
       <c r="K4">
-        <v>1.034922509790701</v>
+        <v>1.034920918034005</v>
       </c>
       <c r="L4">
-        <v>1.025576267966369</v>
+        <v>1.025574758847246</v>
       </c>
       <c r="M4">
-        <v>1.035576837573669</v>
+        <v>1.035575348244828</v>
+      </c>
+      <c r="N4">
+        <v>1.020927758686711</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010446237588547</v>
+        <v>1.010443145738783</v>
       </c>
       <c r="D5">
-        <v>1.026313365014951</v>
+        <v>1.0263111943434</v>
       </c>
       <c r="E5">
-        <v>1.016996443967432</v>
+        <v>1.016994290108558</v>
       </c>
       <c r="F5">
-        <v>1.027347333718964</v>
+        <v>1.027345281704341</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04939190863432</v>
+        <v>1.049390619623487</v>
       </c>
       <c r="J5">
-        <v>1.0291382939418</v>
+        <v>1.029135276899783</v>
       </c>
       <c r="K5">
-        <v>1.035887347155656</v>
+        <v>1.035885200439381</v>
       </c>
       <c r="L5">
-        <v>1.026674406612528</v>
+        <v>1.026672277062936</v>
       </c>
       <c r="M5">
-        <v>1.03690991924414</v>
+        <v>1.036907889819329</v>
+      </c>
+      <c r="N5">
+        <v>1.021687194511868</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010711848474817</v>
+        <v>1.010708638140498</v>
       </c>
       <c r="D6">
-        <v>1.026513073970733</v>
+        <v>1.026510809824759</v>
       </c>
       <c r="E6">
-        <v>1.01721924323832</v>
+        <v>1.017216984853748</v>
       </c>
       <c r="F6">
-        <v>1.027609271648279</v>
+        <v>1.027607128735702</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049483888685228</v>
+        <v>1.049482544895294</v>
       </c>
       <c r="J6">
-        <v>1.029322354138703</v>
+        <v>1.029319221060749</v>
       </c>
       <c r="K6">
-        <v>1.036048444486083</v>
+        <v>1.036046205208082</v>
       </c>
       <c r="L6">
-        <v>1.026857839360706</v>
+        <v>1.026855606342037</v>
       </c>
       <c r="M6">
-        <v>1.037132618014528</v>
+        <v>1.037130498576741</v>
+      </c>
+      <c r="N6">
+        <v>1.02181400788285</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.008877679646265</v>
+        <v>1.008875289108013</v>
       </c>
       <c r="D7">
-        <v>1.025134111123047</v>
+        <v>1.025132493555581</v>
       </c>
       <c r="E7">
-        <v>1.01568116400255</v>
+        <v>1.015679628722687</v>
       </c>
       <c r="F7">
-        <v>1.025800934775901</v>
+        <v>1.025799421036851</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048847593812054</v>
+        <v>1.048846628826074</v>
       </c>
       <c r="J7">
-        <v>1.02805097913301</v>
+        <v>1.028048648280844</v>
       </c>
       <c r="K7">
-        <v>1.034935462906661</v>
+        <v>1.034933863692653</v>
       </c>
       <c r="L7">
-        <v>1.025591005418027</v>
+        <v>1.025589487960981</v>
       </c>
       <c r="M7">
-        <v>1.035594726633952</v>
+        <v>1.035593230042773</v>
+      </c>
+      <c r="N7">
+        <v>1.020937953471386</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.001009656976834</v>
+        <v>1.001010827790804</v>
       </c>
       <c r="D8">
-        <v>1.019222440563164</v>
+        <v>1.019223626962596</v>
       </c>
       <c r="E8">
-        <v>1.009095251483687</v>
+        <v>1.009096854118134</v>
       </c>
       <c r="F8">
-        <v>1.018055910134051</v>
+        <v>1.018057136322016</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046089908614423</v>
+        <v>1.046090583429595</v>
       </c>
       <c r="J8">
-        <v>1.022588611717525</v>
+        <v>1.022589748662555</v>
       </c>
       <c r="K8">
-        <v>1.030148177846014</v>
+        <v>1.030149348924583</v>
       </c>
       <c r="L8">
-        <v>1.020153415274523</v>
+        <v>1.020154996688584</v>
       </c>
       <c r="M8">
-        <v>1.028996733319914</v>
+        <v>1.028997943627753</v>
+      </c>
+      <c r="N8">
+        <v>1.017171459791854</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9863040726308785</v>
+        <v>0.986312118170961</v>
       </c>
       <c r="D9">
-        <v>1.008193571074668</v>
+        <v>1.008200145247611</v>
       </c>
       <c r="E9">
-        <v>0.9968372504460437</v>
+        <v>0.9968448904674436</v>
       </c>
       <c r="F9">
-        <v>1.003630981089221</v>
+        <v>1.003637525879855</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04083079773208</v>
+        <v>1.040834611226341</v>
       </c>
       <c r="J9">
-        <v>1.012349915428536</v>
+        <v>1.012357665660011</v>
       </c>
       <c r="K9">
-        <v>1.021155097470176</v>
+        <v>1.021161567192214</v>
       </c>
       <c r="L9">
-        <v>1.009981850323341</v>
+        <v>1.009989365378861</v>
       </c>
       <c r="M9">
-        <v>1.016665421573452</v>
+        <v>1.016671861163664</v>
+      </c>
+      <c r="N9">
+        <v>1.010102283073272</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9758482444973148</v>
+        <v>0.9758613781086215</v>
       </c>
       <c r="D10">
-        <v>1.000372086651962</v>
+        <v>1.000382624861499</v>
       </c>
       <c r="E10">
-        <v>0.9881618731126054</v>
+        <v>0.9881739603868908</v>
       </c>
       <c r="F10">
-        <v>0.9934131914607179</v>
+        <v>0.9934236962809403</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037024182775559</v>
+        <v>1.037030296466555</v>
       </c>
       <c r="J10">
-        <v>1.005053982954271</v>
+        <v>1.005066558009743</v>
       </c>
       <c r="K10">
-        <v>1.014734626207661</v>
+        <v>1.014744974333123</v>
       </c>
       <c r="L10">
-        <v>1.002748209548677</v>
+        <v>1.002760071711284</v>
       </c>
       <c r="M10">
-        <v>1.00790239997255</v>
+        <v>1.007912711837097</v>
+      </c>
+      <c r="N10">
+        <v>1.005059410488633</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9711441051481431</v>
+        <v>0.9711595891496594</v>
       </c>
       <c r="D11">
-        <v>0.9968595267613636</v>
+        <v>0.9968718888472422</v>
       </c>
       <c r="E11">
-        <v>0.9842696448479535</v>
+        <v>0.9842837795504313</v>
       </c>
       <c r="F11">
-        <v>0.9888262916719009</v>
+        <v>0.9888386322168912</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035296544102212</v>
+        <v>1.035303713791676</v>
       </c>
       <c r="J11">
-        <v>1.001768622772414</v>
+        <v>1.001783406451728</v>
       </c>
       <c r="K11">
-        <v>1.011840911820813</v>
+        <v>1.011853038854664</v>
       </c>
       <c r="L11">
-        <v>0.9994944373034256</v>
+        <v>0.999508294147786</v>
       </c>
       <c r="M11">
-        <v>1.003962049596175</v>
+        <v>1.003974150473859</v>
+      </c>
+      <c r="N11">
+        <v>1.002787489288371</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9693681234535693</v>
+        <v>0.9693845053749574</v>
       </c>
       <c r="D12">
-        <v>0.9955345145104443</v>
+        <v>0.9955475721158528</v>
       </c>
       <c r="E12">
-        <v>0.9828019478339569</v>
+        <v>0.9828168634871906</v>
       </c>
       <c r="F12">
-        <v>0.9870961916132264</v>
+        <v>0.9871092344953255</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034642130975642</v>
+        <v>1.03464970299406</v>
       </c>
       <c r="J12">
-        <v>1.000527937366763</v>
+        <v>1.000543561443876</v>
       </c>
       <c r="K12">
-        <v>1.010747769157326</v>
+        <v>1.010760573653786</v>
       </c>
       <c r="L12">
-        <v>0.9982662228151427</v>
+        <v>0.9982808394019644</v>
       </c>
       <c r="M12">
-        <v>1.002474855303097</v>
+        <v>1.002487639649423</v>
+      </c>
+      <c r="N12">
+        <v>1.001929369340424</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9697504105689883</v>
+        <v>0.9697665987087736</v>
       </c>
       <c r="D13">
-        <v>0.9958196762478952</v>
+        <v>0.995832583811485</v>
       </c>
       <c r="E13">
-        <v>0.9831177939006482</v>
+        <v>0.9831325410741364</v>
       </c>
       <c r="F13">
-        <v>0.9874685277766162</v>
+        <v>0.9874814190383733</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034783092355165</v>
+        <v>1.034790577597478</v>
       </c>
       <c r="J13">
-        <v>1.000795013856972</v>
+        <v>1.000810456723636</v>
       </c>
       <c r="K13">
-        <v>1.010983100535332</v>
+        <v>1.010995758927495</v>
       </c>
       <c r="L13">
-        <v>0.9985305900961228</v>
+        <v>0.998545042829237</v>
       </c>
       <c r="M13">
-        <v>1.002794958661184</v>
+        <v>1.002807595506935</v>
+      </c>
+      <c r="N13">
+        <v>1.002114099266541</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9709978994891024</v>
+        <v>0.9710134571879668</v>
       </c>
       <c r="D14">
-        <v>0.9967504233166277</v>
+        <v>0.9967628425141121</v>
       </c>
       <c r="E14">
-        <v>0.9841487819130526</v>
+        <v>0.9841629807385338</v>
       </c>
       <c r="F14">
-        <v>0.988683829717258</v>
+        <v>0.9886962278856848</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035242713741612</v>
+        <v>1.03524991647527</v>
       </c>
       <c r="J14">
-        <v>1.001666491211075</v>
+        <v>1.001681343936578</v>
       </c>
       <c r="K14">
-        <v>1.011750932888808</v>
+        <v>1.011763115570359</v>
       </c>
       <c r="L14">
-        <v>0.9993933212667333</v>
+        <v>0.9994072405152847</v>
       </c>
       <c r="M14">
-        <v>1.003839608694429</v>
+        <v>1.00385176566817</v>
+      </c>
+      <c r="N14">
+        <v>1.002716852949589</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9717626546607837</v>
+        <v>0.9717778273106609</v>
       </c>
       <c r="D15">
-        <v>0.9973211545206501</v>
+        <v>0.997333275273357</v>
       </c>
       <c r="E15">
-        <v>0.9847810497153012</v>
+        <v>0.9847949134643036</v>
       </c>
       <c r="F15">
-        <v>0.9894290692430483</v>
+        <v>0.989441166386703</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035524195557036</v>
+        <v>1.035531225598618</v>
       </c>
       <c r="J15">
-        <v>1.002200695389734</v>
+        <v>1.002215187229114</v>
       </c>
       <c r="K15">
-        <v>1.012221557723321</v>
+        <v>1.012233449572686</v>
       </c>
       <c r="L15">
-        <v>0.9999222358090247</v>
+        <v>0.9999358289181169</v>
       </c>
       <c r="M15">
-        <v>1.004480076104554</v>
+        <v>1.004491939991663</v>
+      </c>
+      <c r="N15">
+        <v>1.003086313802932</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9761565450069544</v>
+        <v>0.9761695259590225</v>
       </c>
       <c r="D16">
-        <v>1.000602437639074</v>
+        <v>1.000612857224323</v>
       </c>
       <c r="E16">
-        <v>0.9884171983841331</v>
+        <v>0.9884291525193244</v>
       </c>
       <c r="F16">
-        <v>0.9937140265813414</v>
+        <v>0.993724412307702</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037137104738083</v>
+        <v>1.037143149697989</v>
       </c>
       <c r="J16">
-        <v>1.005269246914017</v>
+        <v>1.005281678077249</v>
       </c>
       <c r="K16">
-        <v>1.014924177611995</v>
+        <v>1.014934409917515</v>
       </c>
       <c r="L16">
-        <v>1.002961478027627</v>
+        <v>1.002973210337168</v>
       </c>
       <c r="M16">
-        <v>1.008160696826447</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.00817089249663</v>
+      </c>
+      <c r="N16">
+        <v>1.005208250023943</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9788639895533952</v>
+        <v>0.9788756369530974</v>
       </c>
       <c r="D17">
-        <v>1.002626080213494</v>
+        <v>1.002635462728835</v>
       </c>
       <c r="E17">
-        <v>0.990660668132903</v>
+        <v>0.9906714584390964</v>
       </c>
       <c r="F17">
-        <v>0.9963570701979554</v>
+        <v>0.9963664163067071</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038127076788205</v>
+        <v>1.038132520605257</v>
       </c>
       <c r="J17">
-        <v>1.007159344014659</v>
+        <v>1.007170515922867</v>
       </c>
       <c r="K17">
-        <v>1.01658822087352</v>
+        <v>1.016597439995203</v>
       </c>
       <c r="L17">
-        <v>1.004834455520305</v>
+        <v>1.004845051972724</v>
       </c>
       <c r="M17">
-        <v>1.010429276094568</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.010438456776166</v>
+      </c>
+      <c r="N17">
+        <v>1.00651499200477</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9804263011541667</v>
+        <v>0.9804371847133521</v>
       </c>
       <c r="D18">
-        <v>1.003794399385913</v>
+        <v>1.003803187218052</v>
       </c>
       <c r="E18">
-        <v>0.9919562631765808</v>
+        <v>0.9919663862262309</v>
       </c>
       <c r="F18">
-        <v>0.9978831695958612</v>
+        <v>0.9978919208173133</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038696910702221</v>
+        <v>1.038702009591988</v>
       </c>
       <c r="J18">
-        <v>1.008249733719862</v>
+        <v>1.008260182496096</v>
       </c>
       <c r="K18">
-        <v>1.017547956413471</v>
+        <v>1.017556594035845</v>
       </c>
       <c r="L18">
-        <v>1.005915301687729</v>
+        <v>1.005925246309342</v>
       </c>
       <c r="M18">
-        <v>1.011738542604138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.01174714193927</v>
+      </c>
+      <c r="N18">
+        <v>1.007268740192065</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9809562038029237</v>
+        <v>0.9809668292091195</v>
       </c>
       <c r="D19">
-        <v>1.004190764237339</v>
+        <v>1.004199350977961</v>
       </c>
       <c r="E19">
-        <v>0.9923958702241185</v>
+        <v>0.9924057676609961</v>
       </c>
       <c r="F19">
-        <v>0.9984009482885559</v>
+        <v>0.9984094985559828</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038889942352184</v>
+        <v>1.038894924568931</v>
       </c>
       <c r="J19">
-        <v>1.008619521013453</v>
+        <v>1.008629725090647</v>
       </c>
       <c r="K19">
-        <v>1.017873392257152</v>
+        <v>1.017881833161149</v>
       </c>
       <c r="L19">
-        <v>1.006281908595593</v>
+        <v>1.006291632719051</v>
       </c>
       <c r="M19">
-        <v>1.012182648674984</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.012191051539038</v>
+      </c>
+      <c r="N19">
+        <v>1.007524342681382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9785752684332845</v>
+        <v>0.9785870574439823</v>
       </c>
       <c r="D20">
-        <v>1.002410217187859</v>
+        <v>1.002419709900703</v>
       </c>
       <c r="E20">
-        <v>0.9904213186941027</v>
+        <v>0.9904322326552135</v>
       </c>
       <c r="F20">
-        <v>0.9960751174683592</v>
+        <v>0.9960845739128585</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03802165357572</v>
+        <v>1.038027161291928</v>
       </c>
       <c r="J20">
-        <v>1.00695781280096</v>
+        <v>1.006969118625191</v>
       </c>
       <c r="K20">
-        <v>1.016410817815945</v>
+        <v>1.016420144650937</v>
       </c>
       <c r="L20">
-        <v>1.00463471505224</v>
+        <v>1.004645432251884</v>
       </c>
       <c r="M20">
-        <v>1.01018733408692</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.01019662254852</v>
+      </c>
+      <c r="N20">
+        <v>1.006375671824447</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9706313541715018</v>
+        <v>0.9706470968084387</v>
       </c>
       <c r="D21">
-        <v>0.9964769135226391</v>
+        <v>0.9964894760167584</v>
       </c>
       <c r="E21">
-        <v>0.983845800893336</v>
+        <v>0.9838601606104043</v>
       </c>
       <c r="F21">
-        <v>0.9883266964628425</v>
+        <v>0.9883392392498879</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035107723622839</v>
+        <v>1.035115009260525</v>
       </c>
       <c r="J21">
-        <v>1.001410436767913</v>
+        <v>1.001425462704614</v>
       </c>
       <c r="K21">
-        <v>1.011525340680494</v>
+        <v>1.011537662970809</v>
       </c>
       <c r="L21">
-        <v>0.9991398216082131</v>
+        <v>0.9991538974178622</v>
       </c>
       <c r="M21">
-        <v>1.003532650153445</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.003544947896204</v>
+      </c>
+      <c r="N21">
+        <v>1.002539757946986</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9654696967710965</v>
+        <v>0.9654880708441154</v>
       </c>
       <c r="D22">
-        <v>0.9926282147110708</v>
+        <v>0.9926428128906675</v>
       </c>
       <c r="E22">
-        <v>0.9795836212534788</v>
+        <v>0.9796002670459073</v>
       </c>
       <c r="F22">
-        <v>0.9833015769171395</v>
+        <v>0.9833161800223552</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033201750971822</v>
+        <v>1.033210213449819</v>
       </c>
       <c r="J22">
-        <v>0.9978040011012366</v>
+        <v>0.9978214830811808</v>
       </c>
       <c r="K22">
-        <v>1.008347136414248</v>
+        <v>1.008361439722325</v>
       </c>
       <c r="L22">
-        <v>0.9955706782242166</v>
+        <v>0.9955869758410598</v>
       </c>
       <c r="M22">
-        <v>0.9992112529613508</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9992255536591207</v>
+      </c>
+      <c r="N22">
+        <v>1.000045102179992</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9682225836525775</v>
+        <v>0.9682395479127373</v>
       </c>
       <c r="D23">
-        <v>0.9946801891861651</v>
+        <v>0.9946936974887972</v>
       </c>
       <c r="E23">
-        <v>0.9818557695744742</v>
+        <v>0.9818711913355164</v>
       </c>
       <c r="F23">
-        <v>0.9859807154975567</v>
+        <v>0.9859942141756531</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034219423701198</v>
+        <v>1.034227256323505</v>
       </c>
       <c r="J23">
-        <v>0.9997275879843133</v>
+        <v>0.9997437561017479</v>
       </c>
       <c r="K23">
-        <v>1.010042500219529</v>
+        <v>1.010055743446578</v>
       </c>
       <c r="L23">
-        <v>0.99747407246027</v>
+        <v>0.99748918109133</v>
       </c>
       <c r="M23">
-        <v>1.001515723100582</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.001528950704605</v>
+      </c>
+      <c r="N23">
+        <v>1.001375767658116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9787057811340952</v>
+        <v>0.9787175061138285</v>
       </c>
       <c r="D24">
-        <v>1.002507793493593</v>
+        <v>1.002517236381483</v>
       </c>
       <c r="E24">
-        <v>0.9905295104087828</v>
+        <v>0.9905403684599188</v>
       </c>
       <c r="F24">
-        <v>0.9962025676628644</v>
+        <v>0.9962119742160087</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038069313216854</v>
+        <v>1.038074792042221</v>
       </c>
       <c r="J24">
-        <v>1.007048913283955</v>
+        <v>1.007060158562317</v>
       </c>
       <c r="K24">
-        <v>1.016491012131184</v>
+        <v>1.016500290266022</v>
       </c>
       <c r="L24">
-        <v>1.004725005011665</v>
+        <v>1.004735667617929</v>
       </c>
       <c r="M24">
-        <v>1.010296700276213</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.010305940003823</v>
+      </c>
+      <c r="N24">
+        <v>1.006438650666259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9902139128697647</v>
+        <v>0.9902201004243929</v>
       </c>
       <c r="D25">
-        <v>1.011122903470177</v>
+        <v>1.011128024979883</v>
       </c>
       <c r="E25">
-        <v>1.000089874681872</v>
+        <v>1.000095885994137</v>
       </c>
       <c r="F25">
-        <v>1.007459926538725</v>
+        <v>1.007465030186872</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042240866561853</v>
+        <v>1.042243835269695</v>
       </c>
       <c r="J25">
-        <v>1.015075166557508</v>
+        <v>1.015081140087339</v>
       </c>
       <c r="K25">
-        <v>1.023550970095908</v>
+        <v>1.023556014313611</v>
       </c>
       <c r="L25">
-        <v>1.012686795621823</v>
+        <v>1.012692713638352</v>
       </c>
       <c r="M25">
-        <v>1.019943530106371</v>
+        <v>1.019948556016377</v>
+      </c>
+      <c r="N25">
+        <v>1.011984893570876</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_42/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9989320593204351</v>
+        <v>1.026097828404137</v>
       </c>
       <c r="D2">
-        <v>1.017662896237941</v>
+        <v>1.043299561871854</v>
       </c>
       <c r="E2">
-        <v>1.007360083080994</v>
+        <v>1.038911682446941</v>
       </c>
       <c r="F2">
-        <v>1.016013889577031</v>
+        <v>1.050314023551729</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045355023137126</v>
+        <v>1.054264472997733</v>
       </c>
       <c r="J2">
-        <v>1.021144759293694</v>
+        <v>1.04752502406497</v>
       </c>
       <c r="K2">
-        <v>1.028881523282782</v>
+        <v>1.054186906660718</v>
       </c>
       <c r="L2">
-        <v>1.018717823803996</v>
+        <v>1.049854280464512</v>
       </c>
       <c r="M2">
-        <v>1.027254544077021</v>
+        <v>1.061114234052969</v>
       </c>
       <c r="N2">
-        <v>1.016173815026707</v>
+        <v>1.049012629751942</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005018218452663</v>
+        <v>1.032142692273043</v>
       </c>
       <c r="D3">
-        <v>1.022233739805557</v>
+        <v>1.047981267371686</v>
       </c>
       <c r="E3">
-        <v>1.012448736917293</v>
+        <v>1.043959275064273</v>
       </c>
       <c r="F3">
-        <v>1.021999830189385</v>
+        <v>1.055474250121292</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047500444253338</v>
+        <v>1.056086389899205</v>
       </c>
       <c r="J3">
-        <v>1.025373010356217</v>
+        <v>1.051793882263768</v>
       </c>
       <c r="K3">
-        <v>1.032589825013001</v>
+        <v>1.058034931581145</v>
       </c>
       <c r="L3">
-        <v>1.022924773636246</v>
+        <v>1.054058965935134</v>
       </c>
       <c r="M3">
-        <v>1.032358749538052</v>
+        <v>1.065443318422491</v>
       </c>
       <c r="N3">
-        <v>1.019092338755715</v>
+        <v>1.053287550219026</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008853964036364</v>
+        <v>1.035960096959717</v>
       </c>
       <c r="D4">
-        <v>1.025116463029544</v>
+        <v>1.050940356726184</v>
       </c>
       <c r="E4">
-        <v>1.01566175282099</v>
+        <v>1.047152482765714</v>
       </c>
       <c r="F4">
-        <v>1.025778400640593</v>
+        <v>1.05873853748584</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048839216631039</v>
+        <v>1.057226569317261</v>
       </c>
       <c r="J4">
-        <v>1.028033864508684</v>
+        <v>1.054486619737446</v>
       </c>
       <c r="K4">
-        <v>1.034920918034005</v>
+        <v>1.060460522104735</v>
       </c>
       <c r="L4">
-        <v>1.025574758847246</v>
+        <v>1.056713272096657</v>
       </c>
       <c r="M4">
-        <v>1.035575348244828</v>
+        <v>1.068176188249506</v>
       </c>
       <c r="N4">
-        <v>1.020927758686711</v>
+        <v>1.055984111688779</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010443145738783</v>
+        <v>1.037543436137588</v>
       </c>
       <c r="D5">
-        <v>1.0263111943434</v>
+        <v>1.052168226377905</v>
       </c>
       <c r="E5">
-        <v>1.016994290108558</v>
+        <v>1.048478200104943</v>
       </c>
       <c r="F5">
-        <v>1.027345281704341</v>
+        <v>1.06009371674781</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049390619623487</v>
+        <v>1.057696939984329</v>
       </c>
       <c r="J5">
-        <v>1.029135276899783</v>
+        <v>1.05560268939277</v>
       </c>
       <c r="K5">
-        <v>1.035885200439381</v>
+        <v>1.061465444134387</v>
       </c>
       <c r="L5">
-        <v>1.026672277062936</v>
+        <v>1.057813897252178</v>
       </c>
       <c r="M5">
-        <v>1.036907889819329</v>
+        <v>1.069309391516051</v>
       </c>
       <c r="N5">
-        <v>1.021687194511868</v>
+        <v>1.057101766291029</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010708638140498</v>
+        <v>1.037808053345271</v>
       </c>
       <c r="D6">
-        <v>1.026510809824759</v>
+        <v>1.052373464553893</v>
       </c>
       <c r="E6">
-        <v>1.017216984853748</v>
+        <v>1.048699835121105</v>
       </c>
       <c r="F6">
-        <v>1.027607128735702</v>
+        <v>1.060320274245705</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049482544895294</v>
+        <v>1.057775400461687</v>
       </c>
       <c r="J6">
-        <v>1.029319221060749</v>
+        <v>1.055789165668339</v>
       </c>
       <c r="K6">
-        <v>1.036046205208082</v>
+        <v>1.061633324239216</v>
       </c>
       <c r="L6">
-        <v>1.026855606342037</v>
+        <v>1.057997821294569</v>
       </c>
       <c r="M6">
-        <v>1.037130498576741</v>
+        <v>1.069498759517825</v>
       </c>
       <c r="N6">
-        <v>1.02181400788285</v>
+        <v>1.057288507384297</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.008875289108013</v>
+        <v>1.035981336795067</v>
       </c>
       <c r="D7">
-        <v>1.025132493555581</v>
+        <v>1.050956826077613</v>
       </c>
       <c r="E7">
-        <v>1.015679628722687</v>
+        <v>1.047170261754348</v>
       </c>
       <c r="F7">
-        <v>1.025799421036851</v>
+        <v>1.058756711781534</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048846628826074</v>
+        <v>1.05723288924723</v>
       </c>
       <c r="J7">
-        <v>1.028048648280844</v>
+        <v>1.054501594545704</v>
       </c>
       <c r="K7">
-        <v>1.034933863692653</v>
+        <v>1.060474007286049</v>
       </c>
       <c r="L7">
-        <v>1.025589487960981</v>
+        <v>1.056728037773011</v>
       </c>
       <c r="M7">
-        <v>1.035593230042773</v>
+        <v>1.068191390988868</v>
       </c>
       <c r="N7">
-        <v>1.020937953471386</v>
+        <v>1.055999107762983</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.001010827790804</v>
+        <v>1.028160817879779</v>
       </c>
       <c r="D8">
-        <v>1.019223626962596</v>
+        <v>1.044896752278704</v>
       </c>
       <c r="E8">
-        <v>1.009096854118134</v>
+        <v>1.0406331060785</v>
       </c>
       <c r="F8">
-        <v>1.018057136322016</v>
+        <v>1.052073892548655</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046090583429595</v>
+        <v>1.054888408845375</v>
       </c>
       <c r="J8">
-        <v>1.022589748662555</v>
+        <v>1.048982518976183</v>
       </c>
       <c r="K8">
-        <v>1.030149348924583</v>
+        <v>1.055501064114912</v>
       </c>
       <c r="L8">
-        <v>1.020154996688584</v>
+        <v>1.051289429773701</v>
       </c>
       <c r="M8">
-        <v>1.028997943627753</v>
+        <v>1.062591831848528</v>
       </c>
       <c r="N8">
-        <v>1.017171459791854</v>
+        <v>1.050472194473106</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.986312118170961</v>
+        <v>1.013610804872958</v>
       </c>
       <c r="D9">
-        <v>1.008200145247611</v>
+        <v>1.033646161654751</v>
       </c>
       <c r="E9">
-        <v>0.9968448904674436</v>
+        <v>1.028518980781509</v>
       </c>
       <c r="F9">
-        <v>1.003637525879855</v>
+        <v>1.039688744251888</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040834611226341</v>
+        <v>1.050445564854817</v>
       </c>
       <c r="J9">
-        <v>1.012357665660011</v>
+        <v>1.038691919029629</v>
       </c>
       <c r="K9">
-        <v>1.021161567192214</v>
+        <v>1.046215960195548</v>
       </c>
       <c r="L9">
-        <v>1.009989365378861</v>
+        <v>1.041165702863754</v>
       </c>
       <c r="M9">
-        <v>1.016671861163664</v>
+        <v>1.052169122117015</v>
       </c>
       <c r="N9">
-        <v>1.010102283073272</v>
+        <v>1.04016698069428</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9758613781086215</v>
+        <v>1.003318631459444</v>
       </c>
       <c r="D10">
-        <v>1.000382624861499</v>
+        <v>1.025710043518662</v>
       </c>
       <c r="E10">
-        <v>0.9881739603868908</v>
+        <v>1.019987730773674</v>
       </c>
       <c r="F10">
-        <v>0.9934236962809403</v>
+        <v>1.030966359009059</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037030296466555</v>
+        <v>1.047251345287419</v>
       </c>
       <c r="J10">
-        <v>1.005066558009743</v>
+        <v>1.031401196809969</v>
       </c>
       <c r="K10">
-        <v>1.014744974333123</v>
+        <v>1.039630109297516</v>
       </c>
       <c r="L10">
-        <v>1.002760071711284</v>
+        <v>1.034005240858907</v>
       </c>
       <c r="M10">
-        <v>1.007912711837097</v>
+        <v>1.044798143925686</v>
       </c>
       <c r="N10">
-        <v>1.005059410488633</v>
+        <v>1.03286590481281</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9711595891496594</v>
+        <v>0.9987027454622899</v>
       </c>
       <c r="D11">
-        <v>0.9968718888472422</v>
+        <v>1.022157491720831</v>
       </c>
       <c r="E11">
-        <v>0.9842837795504313</v>
+        <v>1.016171846915977</v>
       </c>
       <c r="F11">
-        <v>0.9888386322168912</v>
+        <v>1.027065036725209</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035303713791676</v>
+        <v>1.045807396442801</v>
       </c>
       <c r="J11">
-        <v>1.001783406451728</v>
+        <v>1.028129591498832</v>
       </c>
       <c r="K11">
-        <v>1.011853038854664</v>
+        <v>1.03667330746975</v>
       </c>
       <c r="L11">
-        <v>0.999508294147786</v>
+        <v>1.03079509683897</v>
       </c>
       <c r="M11">
-        <v>1.003974150473859</v>
+        <v>1.041493979677655</v>
       </c>
       <c r="N11">
-        <v>1.002787489288371</v>
+        <v>1.029589653446872</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9693845053749574</v>
+        <v>0.9969624801709115</v>
       </c>
       <c r="D12">
-        <v>0.9955475721158528</v>
+        <v>1.020819255822685</v>
       </c>
       <c r="E12">
-        <v>0.9828168634871906</v>
+        <v>1.014734854004351</v>
       </c>
       <c r="F12">
-        <v>0.9871092344953255</v>
+        <v>1.02559588823778</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03464970299406</v>
+        <v>1.045261369650291</v>
       </c>
       <c r="J12">
-        <v>1.000543561443876</v>
+        <v>1.026895951955829</v>
       </c>
       <c r="K12">
-        <v>1.010760573653786</v>
+        <v>1.03555817342047</v>
       </c>
       <c r="L12">
-        <v>0.9982808394019644</v>
+        <v>1.02958509930015</v>
       </c>
       <c r="M12">
-        <v>1.002487639649423</v>
+        <v>1.04024860906089</v>
       </c>
       <c r="N12">
-        <v>1.001929369340424</v>
+        <v>1.028354261994218</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9697665987087736</v>
+        <v>0.9973369674412923</v>
       </c>
       <c r="D13">
-        <v>0.995832583811485</v>
+        <v>1.021107177018205</v>
       </c>
       <c r="E13">
-        <v>0.9831325410741364</v>
+        <v>1.015044003284235</v>
       </c>
       <c r="F13">
-        <v>0.9874814190383733</v>
+        <v>1.02591195430295</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034790577597478</v>
+        <v>1.045378941531577</v>
       </c>
       <c r="J13">
-        <v>1.000810456723636</v>
+        <v>1.027161425728776</v>
       </c>
       <c r="K13">
-        <v>1.010995758927495</v>
+        <v>1.035798153882013</v>
       </c>
       <c r="L13">
-        <v>0.998545042829237</v>
+        <v>1.029845464105514</v>
       </c>
       <c r="M13">
-        <v>1.002807595506935</v>
+        <v>1.04051658218998</v>
       </c>
       <c r="N13">
-        <v>1.002114099266541</v>
+        <v>1.028620112770373</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9710134571879668</v>
+        <v>0.9985594302099668</v>
       </c>
       <c r="D14">
-        <v>0.9967628425141121</v>
+        <v>1.022047260772336</v>
       </c>
       <c r="E14">
-        <v>0.9841629807385338</v>
+        <v>1.016053472529306</v>
       </c>
       <c r="F14">
-        <v>0.9886962278856848</v>
+        <v>1.02694401302346</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03524991647527</v>
+        <v>1.045762462473476</v>
       </c>
       <c r="J14">
-        <v>1.001681343936578</v>
+        <v>1.028028001516566</v>
       </c>
       <c r="K14">
-        <v>1.011763115570359</v>
+        <v>1.036581480275263</v>
       </c>
       <c r="L14">
-        <v>0.9994072405152847</v>
+        <v>1.03069544421169</v>
       </c>
       <c r="M14">
-        <v>1.00385176566817</v>
+        <v>1.041391412392508</v>
       </c>
       <c r="N14">
-        <v>1.002716852949589</v>
+        <v>1.029487919195179</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9717778273106609</v>
+        <v>0.9993091653891202</v>
       </c>
       <c r="D15">
-        <v>0.997333275273357</v>
+        <v>1.022623966704638</v>
       </c>
       <c r="E15">
-        <v>0.9847949134643036</v>
+        <v>1.016672801031359</v>
       </c>
       <c r="F15">
-        <v>0.989441166386703</v>
+        <v>1.02757720344273</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035531225598618</v>
+        <v>1.045997462660763</v>
       </c>
       <c r="J15">
-        <v>1.002215187229114</v>
+        <v>1.028559449120122</v>
       </c>
       <c r="K15">
-        <v>1.012233449572686</v>
+        <v>1.037061847875679</v>
       </c>
       <c r="L15">
-        <v>0.9999358289181169</v>
+        <v>1.031216776009984</v>
       </c>
       <c r="M15">
-        <v>1.004491939991663</v>
+        <v>1.041927994954833</v>
       </c>
       <c r="N15">
-        <v>1.003086313802932</v>
+        <v>1.03002012151529</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9761695259590225</v>
+        <v>1.003621467680175</v>
       </c>
       <c r="D16">
-        <v>1.000612857224323</v>
+        <v>1.025943266732593</v>
       </c>
       <c r="E16">
-        <v>0.9884291525193244</v>
+        <v>1.020238303657288</v>
       </c>
       <c r="F16">
-        <v>0.993724412307702</v>
+        <v>1.031222544282278</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037143149697989</v>
+        <v>1.047345848769476</v>
       </c>
       <c r="J16">
-        <v>1.005281678077249</v>
+        <v>1.031615807294619</v>
       </c>
       <c r="K16">
-        <v>1.014934409917515</v>
+        <v>1.039824040384113</v>
       </c>
       <c r="L16">
-        <v>1.002973210337168</v>
+        <v>1.034215883290284</v>
       </c>
       <c r="M16">
-        <v>1.00817089249663</v>
+        <v>1.045014964184651</v>
       </c>
       <c r="N16">
-        <v>1.005208250023943</v>
+        <v>1.033080820068965</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9788756369530974</v>
+        <v>1.006282602486445</v>
       </c>
       <c r="D17">
-        <v>1.002635462728835</v>
+        <v>1.027993458237517</v>
       </c>
       <c r="E17">
-        <v>0.9906714584390964</v>
+        <v>1.022441357040194</v>
       </c>
       <c r="F17">
-        <v>0.9963664163067071</v>
+        <v>1.033474949430128</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038132520605257</v>
+        <v>1.048175003469817</v>
       </c>
       <c r="J17">
-        <v>1.007170515922867</v>
+        <v>1.033501472182794</v>
       </c>
       <c r="K17">
-        <v>1.016597439995203</v>
+        <v>1.04152783995986</v>
       </c>
       <c r="L17">
-        <v>1.004845051972724</v>
+        <v>1.036067025768616</v>
       </c>
       <c r="M17">
-        <v>1.010438456776166</v>
+        <v>1.046920439812997</v>
       </c>
       <c r="N17">
-        <v>1.00651499200477</v>
+        <v>1.034969162817569</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9804371847133521</v>
+        <v>1.007819555987218</v>
       </c>
       <c r="D18">
-        <v>1.003803187218052</v>
+        <v>1.029178179823531</v>
       </c>
       <c r="E18">
-        <v>0.9919663862262309</v>
+        <v>1.023714703610796</v>
       </c>
       <c r="F18">
-        <v>0.9978919208173133</v>
+        <v>1.034776825168957</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038702009591988</v>
+        <v>1.048652805211212</v>
       </c>
       <c r="J18">
-        <v>1.008260182496096</v>
+        <v>1.03459037038062</v>
       </c>
       <c r="K18">
-        <v>1.017556594035845</v>
+        <v>1.042511574811325</v>
       </c>
       <c r="L18">
-        <v>1.005925246309342</v>
+        <v>1.037136271785112</v>
       </c>
       <c r="M18">
-        <v>1.01174714193927</v>
+        <v>1.048021102347382</v>
       </c>
       <c r="N18">
-        <v>1.007268740192065</v>
+        <v>1.036059607375735</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9809668292091195</v>
+        <v>1.00834108365308</v>
       </c>
       <c r="D19">
-        <v>1.004199350977961</v>
+        <v>1.029580287927786</v>
       </c>
       <c r="E19">
-        <v>0.9924057676609961</v>
+        <v>1.024146942294409</v>
       </c>
       <c r="F19">
-        <v>0.9984094985559828</v>
+        <v>1.035218748515699</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038894924568931</v>
+        <v>1.048814749966273</v>
       </c>
       <c r="J19">
-        <v>1.008629725090647</v>
+        <v>1.034959828786973</v>
       </c>
       <c r="K19">
-        <v>1.017881833161149</v>
+        <v>1.042845326719747</v>
       </c>
       <c r="L19">
-        <v>1.006291632719051</v>
+        <v>1.037499109917519</v>
       </c>
       <c r="M19">
-        <v>1.012191051539038</v>
+        <v>1.048394606604383</v>
       </c>
       <c r="N19">
-        <v>1.007524342681382</v>
+        <v>1.036429590455402</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9785870574439823</v>
+        <v>1.005998676751787</v>
       </c>
       <c r="D20">
-        <v>1.002419709900703</v>
+        <v>1.02777465070371</v>
       </c>
       <c r="E20">
-        <v>0.9904322326552135</v>
+        <v>1.022206205064387</v>
       </c>
       <c r="F20">
-        <v>0.9960845739128585</v>
+        <v>1.033234529173364</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038027161291928</v>
+        <v>1.048086649806119</v>
       </c>
       <c r="J20">
-        <v>1.006969118625191</v>
+        <v>1.033300301965417</v>
       </c>
       <c r="K20">
-        <v>1.016420144650937</v>
+        <v>1.041346086546007</v>
       </c>
       <c r="L20">
-        <v>1.004645432251884</v>
+        <v>1.035869509037787</v>
       </c>
       <c r="M20">
-        <v>1.01019662254852</v>
+        <v>1.046717122238269</v>
       </c>
       <c r="N20">
-        <v>1.006375671824447</v>
+        <v>1.034767706915409</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9706470968084387</v>
+        <v>0.9982001706008857</v>
       </c>
       <c r="D21">
-        <v>0.9964894760167584</v>
+        <v>1.021770954919468</v>
       </c>
       <c r="E21">
-        <v>0.9838601606104043</v>
+        <v>1.015756761258287</v>
       </c>
       <c r="F21">
-        <v>0.9883392392498879</v>
+        <v>1.026640661457787</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035115009260525</v>
+        <v>1.045649796927828</v>
       </c>
       <c r="J21">
-        <v>1.001425462704614</v>
+        <v>1.027773335156465</v>
       </c>
       <c r="K21">
-        <v>1.011537662970809</v>
+        <v>1.03635128421836</v>
       </c>
       <c r="L21">
-        <v>0.9991538974178622</v>
+        <v>1.030445641984417</v>
       </c>
       <c r="M21">
-        <v>1.003544947896204</v>
+        <v>1.041134305009221</v>
       </c>
       <c r="N21">
-        <v>1.002539757946986</v>
+        <v>1.029232891179636</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9654880708441154</v>
+        <v>0.9931471177228935</v>
       </c>
       <c r="D22">
-        <v>0.9926428128906675</v>
+        <v>1.017887547958992</v>
       </c>
       <c r="E22">
-        <v>0.9796002670459073</v>
+        <v>1.01158757923828</v>
       </c>
       <c r="F22">
-        <v>0.9833161800223552</v>
+        <v>1.022378234939552</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033210213449819</v>
+        <v>1.044061339463624</v>
       </c>
       <c r="J22">
-        <v>0.9978214830811808</v>
+        <v>1.024191065447504</v>
       </c>
       <c r="K22">
-        <v>1.008361439722325</v>
+        <v>1.033112786879555</v>
       </c>
       <c r="L22">
-        <v>0.9955869758410598</v>
+        <v>1.026932926708454</v>
       </c>
       <c r="M22">
-        <v>0.9992255536591207</v>
+        <v>1.037519038584462</v>
       </c>
       <c r="N22">
-        <v>1.000045102179992</v>
+        <v>1.025645534236797</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9682395479127373</v>
+        <v>0.9958406812927478</v>
       </c>
       <c r="D23">
-        <v>0.9946936974887972</v>
+        <v>1.019956947775676</v>
       </c>
       <c r="E23">
-        <v>0.9818711913355164</v>
+        <v>1.013809031600026</v>
       </c>
       <c r="F23">
-        <v>0.9859942141756531</v>
+        <v>1.024649355530412</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034227256323505</v>
+        <v>1.044908942802937</v>
       </c>
       <c r="J23">
-        <v>0.9997437561017479</v>
+        <v>1.026100688428097</v>
       </c>
       <c r="K23">
-        <v>1.010055743446578</v>
+        <v>1.034839251591283</v>
       </c>
       <c r="L23">
-        <v>0.99748918109133</v>
+        <v>1.028805209953682</v>
       </c>
       <c r="M23">
-        <v>1.001528950704605</v>
+        <v>1.03944594061295</v>
       </c>
       <c r="N23">
-        <v>1.001375767658116</v>
+        <v>1.027557869101059</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9787175061138285</v>
+        <v>1.006127017538369</v>
       </c>
       <c r="D24">
-        <v>1.002517236381483</v>
+        <v>1.027873554686211</v>
       </c>
       <c r="E24">
-        <v>0.9905403684599188</v>
+        <v>1.022312496048295</v>
       </c>
       <c r="F24">
-        <v>0.9962119742160087</v>
+        <v>1.0333432014592</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038074792042221</v>
+        <v>1.048126591000573</v>
       </c>
       <c r="J24">
-        <v>1.007060158562317</v>
+        <v>1.033391235965449</v>
       </c>
       <c r="K24">
-        <v>1.016500290266022</v>
+        <v>1.041428244108616</v>
       </c>
       <c r="L24">
-        <v>1.004735667617929</v>
+        <v>1.035958790692272</v>
       </c>
       <c r="M24">
-        <v>1.010305940003823</v>
+        <v>1.046809025893126</v>
       </c>
       <c r="N24">
-        <v>1.006438650666259</v>
+        <v>1.034858770052152</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9902201004243929</v>
+        <v>1.017470812920169</v>
       </c>
       <c r="D25">
-        <v>1.011128024979883</v>
+        <v>1.036627495797185</v>
       </c>
       <c r="E25">
-        <v>1.000095885994137</v>
+        <v>1.031726665893424</v>
       </c>
       <c r="F25">
-        <v>1.007465030186872</v>
+        <v>1.042968275357812</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042243835269695</v>
+        <v>1.051633302461842</v>
       </c>
       <c r="J25">
-        <v>1.015081140087339</v>
+        <v>1.041424187748033</v>
       </c>
       <c r="K25">
-        <v>1.023556014313611</v>
+        <v>1.048682631926399</v>
       </c>
       <c r="L25">
-        <v>1.012692713638352</v>
+        <v>1.043851650302132</v>
       </c>
       <c r="M25">
-        <v>1.019948556016377</v>
+        <v>1.054934270144261</v>
       </c>
       <c r="N25">
-        <v>1.011984893570876</v>
+        <v>1.042903129547659</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_42/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026097828404137</v>
+        <v>0.9968443550432438</v>
       </c>
       <c r="D2">
-        <v>1.043299561871854</v>
+        <v>1.015147092068041</v>
       </c>
       <c r="E2">
-        <v>1.038911682446941</v>
+        <v>1.012002741944526</v>
       </c>
       <c r="F2">
-        <v>1.050314023551729</v>
+        <v>1.019591235885689</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054264472997733</v>
+        <v>1.041610824286209</v>
       </c>
       <c r="J2">
-        <v>1.04752502406497</v>
+        <v>1.019119862321381</v>
       </c>
       <c r="K2">
-        <v>1.054186906660718</v>
+        <v>1.026399361316231</v>
       </c>
       <c r="L2">
-        <v>1.049854280464512</v>
+        <v>1.023297354259976</v>
       </c>
       <c r="M2">
-        <v>1.061114234052969</v>
+        <v>1.030784217564619</v>
       </c>
       <c r="N2">
-        <v>1.049012629751942</v>
+        <v>1.009791708080813</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.032142692273043</v>
+        <v>1.00261923265796</v>
       </c>
       <c r="D3">
-        <v>1.047981267371686</v>
+        <v>1.019395587747814</v>
       </c>
       <c r="E3">
-        <v>1.043959275064273</v>
+        <v>1.016968270735877</v>
       </c>
       <c r="F3">
-        <v>1.055474250121292</v>
+        <v>1.025113112978174</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056086389899205</v>
+        <v>1.043090498127329</v>
       </c>
       <c r="J3">
-        <v>1.051793882263768</v>
+        <v>1.023038748531084</v>
       </c>
       <c r="K3">
-        <v>1.058034931581145</v>
+        <v>1.029786170315658</v>
       </c>
       <c r="L3">
-        <v>1.054058965935134</v>
+        <v>1.027388547004559</v>
       </c>
       <c r="M3">
-        <v>1.065443318422491</v>
+        <v>1.035434442066366</v>
       </c>
       <c r="N3">
-        <v>1.053287550219026</v>
+        <v>1.011148536767543</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C4">
-        <v>1.035960096959717</v>
+        <v>1.006264985393544</v>
       </c>
       <c r="D4">
-        <v>1.050940356726184</v>
+        <v>1.022079695173158</v>
       </c>
       <c r="E4">
-        <v>1.047152482765714</v>
+        <v>1.020109474941132</v>
       </c>
       <c r="F4">
-        <v>1.05873853748584</v>
+        <v>1.02860671975686</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057226569317261</v>
+        <v>1.044013325950735</v>
       </c>
       <c r="J4">
-        <v>1.054486619737446</v>
+        <v>1.025509778640127</v>
       </c>
       <c r="K4">
-        <v>1.060460522104735</v>
+        <v>1.031918745623271</v>
       </c>
       <c r="L4">
-        <v>1.056713272096657</v>
+        <v>1.029971106521797</v>
       </c>
       <c r="M4">
-        <v>1.068176188249506</v>
+        <v>1.038371723917549</v>
       </c>
       <c r="N4">
-        <v>1.055984111688779</v>
+        <v>1.012003308461775</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037543436137588</v>
+        <v>1.007776848116327</v>
       </c>
       <c r="D5">
-        <v>1.052168226377905</v>
+        <v>1.02319316169525</v>
       </c>
       <c r="E5">
-        <v>1.048478200104943</v>
+        <v>1.021413580045431</v>
       </c>
       <c r="F5">
-        <v>1.06009371674781</v>
+        <v>1.030057249353024</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057696939984329</v>
+        <v>1.044393248596184</v>
       </c>
       <c r="J5">
-        <v>1.05560268939277</v>
+        <v>1.026533720578416</v>
       </c>
       <c r="K5">
-        <v>1.061465444134387</v>
+        <v>1.032801707098496</v>
       </c>
       <c r="L5">
-        <v>1.057813897252178</v>
+        <v>1.031041954681439</v>
       </c>
       <c r="M5">
-        <v>1.069309391516051</v>
+        <v>1.039590098943563</v>
       </c>
       <c r="N5">
-        <v>1.057101766291029</v>
+        <v>1.012357312952853</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037808053345271</v>
+        <v>1.008029503128028</v>
       </c>
       <c r="D6">
-        <v>1.052373464553893</v>
+        <v>1.023379259241776</v>
       </c>
       <c r="E6">
-        <v>1.048699835121105</v>
+        <v>1.021631600581491</v>
       </c>
       <c r="F6">
-        <v>1.060320274245705</v>
+        <v>1.030299756586483</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057775400461687</v>
+        <v>1.044456575235929</v>
       </c>
       <c r="J6">
-        <v>1.055789165668339</v>
+        <v>1.026704789787003</v>
       </c>
       <c r="K6">
-        <v>1.061633324239216</v>
+        <v>1.032949179112662</v>
       </c>
       <c r="L6">
-        <v>1.057997821294569</v>
+        <v>1.031220901085782</v>
       </c>
       <c r="M6">
-        <v>1.069498759517825</v>
+        <v>1.039793724248882</v>
       </c>
       <c r="N6">
-        <v>1.057288507384297</v>
+        <v>1.012416444481313</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.035981336795067</v>
+        <v>1.006285267516863</v>
       </c>
       <c r="D7">
-        <v>1.050956826077613</v>
+        <v>1.022094631251062</v>
       </c>
       <c r="E7">
-        <v>1.047170261754348</v>
+        <v>1.020126964179705</v>
       </c>
       <c r="F7">
-        <v>1.058756711781534</v>
+        <v>1.028626172189457</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05723288924723</v>
+        <v>1.044018433739915</v>
       </c>
       <c r="J7">
-        <v>1.054501594545704</v>
+        <v>1.025523518272084</v>
       </c>
       <c r="K7">
-        <v>1.060474007286049</v>
+        <v>1.031930596451808</v>
       </c>
       <c r="L7">
-        <v>1.056728037773011</v>
+        <v>1.029985472827379</v>
       </c>
       <c r="M7">
-        <v>1.068191390988868</v>
+        <v>1.038388067663327</v>
       </c>
       <c r="N7">
-        <v>1.055999107762983</v>
+        <v>1.012008059407965</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028160817879779</v>
+        <v>0.9988154433801381</v>
       </c>
       <c r="D8">
-        <v>1.044896752278704</v>
+        <v>1.016596724441358</v>
       </c>
       <c r="E8">
-        <v>1.0406331060785</v>
+        <v>1.013696196632762</v>
       </c>
       <c r="F8">
-        <v>1.052073892548655</v>
+        <v>1.021474340306596</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054888408845375</v>
+        <v>1.042118213459918</v>
       </c>
       <c r="J8">
-        <v>1.048982518976183</v>
+        <v>1.020458062994935</v>
       </c>
       <c r="K8">
-        <v>1.055501064114912</v>
+        <v>1.027556479250257</v>
       </c>
       <c r="L8">
-        <v>1.051289429773701</v>
+        <v>1.024693785962845</v>
       </c>
       <c r="M8">
-        <v>1.062591831848528</v>
+        <v>1.032371077241211</v>
       </c>
       <c r="N8">
-        <v>1.050472194473106</v>
+        <v>1.010255186208315</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.013610804872958</v>
+        <v>0.9849088459141047</v>
       </c>
       <c r="D9">
-        <v>1.033646161654751</v>
+        <v>1.006381359547874</v>
       </c>
       <c r="E9">
-        <v>1.028518980781509</v>
+        <v>1.001778560061844</v>
       </c>
       <c r="F9">
-        <v>1.039688744251888</v>
+        <v>1.008223496405337</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050445564854817</v>
+        <v>1.038492321129646</v>
       </c>
       <c r="J9">
-        <v>1.038691919029629</v>
+        <v>1.011006002565417</v>
       </c>
       <c r="K9">
-        <v>1.046215960195548</v>
+        <v>1.019371745180939</v>
       </c>
       <c r="L9">
-        <v>1.041165702863754</v>
+        <v>1.014842847127089</v>
       </c>
       <c r="M9">
-        <v>1.052169122117015</v>
+        <v>1.021184547359241</v>
       </c>
       <c r="N9">
-        <v>1.04016698069428</v>
+        <v>1.006978659190489</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.003318631459444</v>
+        <v>0.9750659433946368</v>
       </c>
       <c r="D10">
-        <v>1.025710043518662</v>
+        <v>0.9991711320778109</v>
       </c>
       <c r="E10">
-        <v>1.019987730773674</v>
+        <v>0.9933853095974038</v>
       </c>
       <c r="F10">
-        <v>1.030966359009059</v>
+        <v>0.9988925725849039</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047251345287419</v>
+        <v>1.035869755965888</v>
       </c>
       <c r="J10">
-        <v>1.031401196809969</v>
+        <v>1.004304990823981</v>
       </c>
       <c r="K10">
-        <v>1.039630109297516</v>
+        <v>1.013555368134978</v>
       </c>
       <c r="L10">
-        <v>1.034005240858907</v>
+        <v>1.007875030277416</v>
       </c>
       <c r="M10">
-        <v>1.044798143925686</v>
+        <v>1.013281850804683</v>
       </c>
       <c r="N10">
-        <v>1.03286590481281</v>
+        <v>1.004652619361799</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9987027454622899</v>
+        <v>0.9706502271362552</v>
       </c>
       <c r="D11">
-        <v>1.022157491720831</v>
+        <v>0.9959428176314949</v>
       </c>
       <c r="E11">
-        <v>1.016171846915977</v>
+        <v>0.9896310817021022</v>
       </c>
       <c r="F11">
-        <v>1.027065036725209</v>
+        <v>0.9947190349623972</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045807396442801</v>
+        <v>1.034680770065284</v>
       </c>
       <c r="J11">
-        <v>1.028129591498832</v>
+        <v>1.001297099059595</v>
       </c>
       <c r="K11">
-        <v>1.03667330746975</v>
+        <v>1.010941654219148</v>
       </c>
       <c r="L11">
-        <v>1.03079509683897</v>
+        <v>1.004751226099692</v>
       </c>
       <c r="M11">
-        <v>1.041493979677655</v>
+        <v>1.00974123448927</v>
       </c>
       <c r="N11">
-        <v>1.029589653446872</v>
+        <v>1.003607944041931</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9969624801709115</v>
+        <v>0.9689852370479826</v>
       </c>
       <c r="D12">
-        <v>1.020819255822685</v>
+        <v>0.9947266455454753</v>
       </c>
       <c r="E12">
-        <v>1.014734854004351</v>
+        <v>0.9882172990762748</v>
       </c>
       <c r="F12">
-        <v>1.02559588823778</v>
+        <v>0.9931473446259785</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045261369650291</v>
+        <v>1.034230661256972</v>
       </c>
       <c r="J12">
-        <v>1.026895951955829</v>
+        <v>1.000162774161071</v>
       </c>
       <c r="K12">
-        <v>1.03555817342047</v>
+        <v>1.009955576887654</v>
       </c>
       <c r="L12">
-        <v>1.02958509930015</v>
+        <v>1.003573772925484</v>
       </c>
       <c r="M12">
-        <v>1.04024860906089</v>
+        <v>1.008407018918581</v>
       </c>
       <c r="N12">
-        <v>1.028354261994218</v>
+        <v>1.003213907248065</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9973369674412923</v>
+        <v>0.9693435344304505</v>
       </c>
       <c r="D13">
-        <v>1.021107177018205</v>
+        <v>0.9949883076374169</v>
       </c>
       <c r="E13">
-        <v>1.015044003284235</v>
+        <v>0.9885214553158748</v>
       </c>
       <c r="F13">
-        <v>1.02591195430295</v>
+        <v>0.993485472980031</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045378941531577</v>
+        <v>1.03432760184204</v>
       </c>
       <c r="J13">
-        <v>1.027161425728776</v>
+        <v>1.000406881313058</v>
       </c>
       <c r="K13">
-        <v>1.035798153882013</v>
+        <v>1.01016779875561</v>
       </c>
       <c r="L13">
-        <v>1.029845464105514</v>
+        <v>1.003827134812391</v>
       </c>
       <c r="M13">
-        <v>1.04051658218998</v>
+        <v>1.008694096981567</v>
       </c>
       <c r="N13">
-        <v>1.028620112770373</v>
+        <v>1.003298707156049</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9985594302099668</v>
+        <v>0.9705131148485848</v>
       </c>
       <c r="D14">
-        <v>1.022047260772336</v>
+        <v>0.9958426424725493</v>
       </c>
       <c r="E14">
-        <v>1.016053472529306</v>
+        <v>0.9895146194502729</v>
       </c>
       <c r="F14">
-        <v>1.02694401302346</v>
+        <v>0.9945895650036032</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045762462473476</v>
+        <v>1.034643739361521</v>
       </c>
       <c r="J14">
-        <v>1.028028001516566</v>
+        <v>1.00120369008842</v>
       </c>
       <c r="K14">
-        <v>1.036581480275263</v>
+        <v>1.010860461071096</v>
       </c>
       <c r="L14">
-        <v>1.03069544421169</v>
+        <v>1.00465425371881</v>
       </c>
       <c r="M14">
-        <v>1.041391412392508</v>
+        <v>1.009631344485116</v>
       </c>
       <c r="N14">
-        <v>1.029487919195179</v>
+        <v>1.003575497433369</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9993091653891202</v>
+        <v>0.9712303922471049</v>
       </c>
       <c r="D15">
-        <v>1.022623966704638</v>
+        <v>0.9963667356716224</v>
       </c>
       <c r="E15">
-        <v>1.016672801031359</v>
+        <v>0.9901239434464409</v>
       </c>
       <c r="F15">
-        <v>1.02757720344273</v>
+        <v>0.9952669443925225</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045997462660763</v>
+        <v>1.034837386235532</v>
       </c>
       <c r="J15">
-        <v>1.028559449120122</v>
+        <v>1.001692335358759</v>
       </c>
       <c r="K15">
-        <v>1.037061847875679</v>
+        <v>1.011285186160116</v>
       </c>
       <c r="L15">
-        <v>1.031216776009984</v>
+        <v>1.0051615638765</v>
       </c>
       <c r="M15">
-        <v>1.041927994954833</v>
+        <v>1.010206247167803</v>
       </c>
       <c r="N15">
-        <v>1.03002012151529</v>
+        <v>1.003745230740984</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.003621467680175</v>
+        <v>0.9753556200804983</v>
       </c>
       <c r="D16">
-        <v>1.025943266732593</v>
+        <v>0.9993830571579222</v>
       </c>
       <c r="E16">
-        <v>1.020238303657288</v>
+        <v>0.993631832532937</v>
       </c>
       <c r="F16">
-        <v>1.031222544282278</v>
+        <v>0.9991666303366917</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047345848769476</v>
+        <v>1.035947503044754</v>
       </c>
       <c r="J16">
-        <v>1.031615807294619</v>
+        <v>1.004502284311729</v>
       </c>
       <c r="K16">
-        <v>1.039824040384113</v>
+        <v>1.013726749111409</v>
       </c>
       <c r="L16">
-        <v>1.034215883290284</v>
+        <v>1.008080007090918</v>
       </c>
       <c r="M16">
-        <v>1.045014964184651</v>
+        <v>1.013514225807208</v>
       </c>
       <c r="N16">
-        <v>1.033080820068965</v>
+        <v>1.004721130781609</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.006282602486445</v>
+        <v>0.9779009680194187</v>
       </c>
       <c r="D17">
-        <v>1.027993458237517</v>
+        <v>1.001245947176824</v>
       </c>
       <c r="E17">
-        <v>1.022441357040194</v>
+        <v>0.9957992708929124</v>
       </c>
       <c r="F17">
-        <v>1.033474949430128</v>
+        <v>1.001576165452187</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048175003469817</v>
+        <v>1.036629253131932</v>
       </c>
       <c r="J17">
-        <v>1.033501472182794</v>
+        <v>1.006235692365205</v>
       </c>
       <c r="K17">
-        <v>1.04152783995986</v>
+        <v>1.015232165637103</v>
       </c>
       <c r="L17">
-        <v>1.036067025768616</v>
+        <v>1.009881357193705</v>
       </c>
       <c r="M17">
-        <v>1.046920439812997</v>
+        <v>1.015556615103449</v>
       </c>
       <c r="N17">
-        <v>1.034969162817569</v>
+        <v>1.005323003435543</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.007819555987218</v>
+        <v>0.9793709228588079</v>
       </c>
       <c r="D18">
-        <v>1.029178179823531</v>
+        <v>1.002322366361533</v>
       </c>
       <c r="E18">
-        <v>1.023714703610796</v>
+        <v>0.9970520255991981</v>
       </c>
       <c r="F18">
-        <v>1.034776825168957</v>
+        <v>1.00296886033533</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048652805211212</v>
+        <v>1.037021786417832</v>
       </c>
       <c r="J18">
-        <v>1.03459037038062</v>
+        <v>1.007236581369994</v>
       </c>
       <c r="K18">
-        <v>1.042511574811325</v>
+        <v>1.016101132786349</v>
       </c>
       <c r="L18">
-        <v>1.037136271785112</v>
+        <v>1.010921839684567</v>
       </c>
       <c r="M18">
-        <v>1.048021102347382</v>
+        <v>1.016736543409399</v>
       </c>
       <c r="N18">
-        <v>1.036059607375735</v>
+        <v>1.005670475331949</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.00834108365308</v>
+        <v>0.9798696947270501</v>
       </c>
       <c r="D19">
-        <v>1.029580287927786</v>
+        <v>1.002687702895113</v>
       </c>
       <c r="E19">
-        <v>1.024146942294409</v>
+        <v>0.9974772731657224</v>
       </c>
       <c r="F19">
-        <v>1.035218748515699</v>
+        <v>1.003441612974044</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048814749966273</v>
+        <v>1.037154774499706</v>
       </c>
       <c r="J19">
-        <v>1.034959828786973</v>
+        <v>1.007576163583519</v>
       </c>
       <c r="K19">
-        <v>1.042845326719747</v>
+        <v>1.016395908513755</v>
       </c>
       <c r="L19">
-        <v>1.037499109917519</v>
+        <v>1.011274916612413</v>
       </c>
       <c r="M19">
-        <v>1.048394606604383</v>
+        <v>1.017136976934958</v>
       </c>
       <c r="N19">
-        <v>1.036429590455402</v>
+        <v>1.005788355868674</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.005998676751787</v>
+        <v>0.9776294089542997</v>
       </c>
       <c r="D20">
-        <v>1.02777465070371</v>
+        <v>1.001047136380115</v>
       </c>
       <c r="E20">
-        <v>1.022206205064387</v>
+        <v>0.99556792111244</v>
       </c>
       <c r="F20">
-        <v>1.033234529173364</v>
+        <v>1.001318973534296</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048086649806119</v>
+        <v>1.03655664046324</v>
       </c>
       <c r="J20">
-        <v>1.033300301965417</v>
+        <v>1.006050774442292</v>
       </c>
       <c r="K20">
-        <v>1.041346086546007</v>
+        <v>1.015071598113496</v>
       </c>
       <c r="L20">
-        <v>1.035869509037787</v>
+        <v>1.009689153561279</v>
       </c>
       <c r="M20">
-        <v>1.046717122238269</v>
+        <v>1.015338669964329</v>
       </c>
       <c r="N20">
-        <v>1.034767706915409</v>
+        <v>1.005258802088219</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9982001706008857</v>
+        <v>0.9701694016297102</v>
       </c>
       <c r="D21">
-        <v>1.021770954919468</v>
+        <v>0.9955915414405687</v>
       </c>
       <c r="E21">
-        <v>1.015756761258287</v>
+        <v>0.98922270091538</v>
       </c>
       <c r="F21">
-        <v>1.026640661457787</v>
+        <v>0.9942650418920972</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045649796927828</v>
+        <v>1.034550882235528</v>
       </c>
       <c r="J21">
-        <v>1.027773335156465</v>
+        <v>1.000969529963007</v>
       </c>
       <c r="K21">
-        <v>1.03635128421836</v>
+        <v>1.010656917527418</v>
       </c>
       <c r="L21">
-        <v>1.030445641984417</v>
+        <v>1.004411170166253</v>
       </c>
       <c r="M21">
-        <v>1.041134305009221</v>
+        <v>1.00935588551306</v>
       </c>
       <c r="N21">
-        <v>1.029232891179636</v>
+        <v>1.003494158281815</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9931471177228935</v>
+        <v>0.965334562087552</v>
       </c>
       <c r="D22">
-        <v>1.017887547958992</v>
+        <v>0.9920622422599414</v>
       </c>
       <c r="E22">
-        <v>1.01158757923828</v>
+        <v>0.9851208465875992</v>
       </c>
       <c r="F22">
-        <v>1.022378234939552</v>
+        <v>0.9897050193138764</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044061339463624</v>
+        <v>1.033240546306251</v>
       </c>
       <c r="J22">
-        <v>1.024191065447504</v>
+        <v>0.9976754289462664</v>
       </c>
       <c r="K22">
-        <v>1.033112786879555</v>
+        <v>1.007792604964453</v>
       </c>
       <c r="L22">
-        <v>1.026932926708454</v>
+        <v>1.000992939495122</v>
       </c>
       <c r="M22">
-        <v>1.037519038584462</v>
+        <v>1.005483218238015</v>
       </c>
       <c r="N22">
-        <v>1.025645534236797</v>
+        <v>1.002349747261185</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9958406812927478</v>
+        <v>0.9679119083178066</v>
       </c>
       <c r="D23">
-        <v>1.019956947775676</v>
+        <v>0.9939429734361396</v>
       </c>
       <c r="E23">
-        <v>1.013809031600026</v>
+        <v>0.9873064285194484</v>
       </c>
       <c r="F23">
-        <v>1.024649355530412</v>
+        <v>0.992134734455973</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044908942802937</v>
+        <v>1.03394000672829</v>
       </c>
       <c r="J23">
-        <v>1.026100688428097</v>
+        <v>0.9994314999267417</v>
       </c>
       <c r="K23">
-        <v>1.034839251591283</v>
+        <v>1.00931976531669</v>
       </c>
       <c r="L23">
-        <v>1.028805209953682</v>
+        <v>1.002814860324669</v>
       </c>
       <c r="M23">
-        <v>1.03944594061295</v>
+        <v>1.007547164585102</v>
       </c>
       <c r="N23">
-        <v>1.027557869101059</v>
+        <v>1.002959861835181</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.006127017538369</v>
+        <v>0.9777521601187696</v>
       </c>
       <c r="D24">
-        <v>1.027873554686211</v>
+        <v>1.001137001780301</v>
       </c>
       <c r="E24">
-        <v>1.022312496048295</v>
+        <v>0.9956724934878801</v>
       </c>
       <c r="F24">
-        <v>1.0333432014592</v>
+        <v>1.001435226774448</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048126591000573</v>
+        <v>1.036589466792145</v>
       </c>
       <c r="J24">
-        <v>1.033391235965449</v>
+        <v>1.006134362266499</v>
       </c>
       <c r="K24">
-        <v>1.041428244108616</v>
+        <v>1.015144179771198</v>
       </c>
       <c r="L24">
-        <v>1.035958790692272</v>
+        <v>1.009776033594044</v>
       </c>
       <c r="M24">
-        <v>1.046809025893126</v>
+        <v>1.015437185014386</v>
       </c>
       <c r="N24">
-        <v>1.034858770052152</v>
+        <v>1.005287822981461</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.017470812920169</v>
+        <v>0.9885991859637386</v>
       </c>
       <c r="D25">
-        <v>1.036627495797185</v>
+        <v>1.009089215061907</v>
       </c>
       <c r="E25">
-        <v>1.031726665893424</v>
+        <v>1.004934287469836</v>
       </c>
       <c r="F25">
-        <v>1.042968275357812</v>
+        <v>1.01173197112765</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051633302461842</v>
+        <v>1.039464415337371</v>
       </c>
       <c r="J25">
-        <v>1.041424187748033</v>
+        <v>1.013516420310731</v>
       </c>
       <c r="K25">
-        <v>1.048682631926399</v>
+        <v>1.021548052410237</v>
       </c>
       <c r="L25">
-        <v>1.043851650302132</v>
+        <v>1.01745648486399</v>
       </c>
       <c r="M25">
-        <v>1.054934270144261</v>
+        <v>1.024150852907717</v>
       </c>
       <c r="N25">
-        <v>1.042903129547659</v>
+        <v>1.007849479867804</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_42/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9968443550432438</v>
+        <v>1.03554996892312</v>
       </c>
       <c r="D2">
-        <v>1.015147092068041</v>
+        <v>1.037993198678242</v>
       </c>
       <c r="E2">
-        <v>1.012002741944526</v>
+        <v>1.044620814953643</v>
       </c>
       <c r="F2">
-        <v>1.019591235885689</v>
+        <v>1.055707090947374</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041610824286209</v>
+        <v>1.034684832415623</v>
       </c>
       <c r="J2">
-        <v>1.019119862321381</v>
+        <v>1.040663132702154</v>
       </c>
       <c r="K2">
-        <v>1.026399361316231</v>
+        <v>1.040782499662942</v>
       </c>
       <c r="L2">
-        <v>1.023297354259976</v>
+        <v>1.04739135119426</v>
       </c>
       <c r="M2">
-        <v>1.030784217564619</v>
+        <v>1.058446809463551</v>
       </c>
       <c r="N2">
-        <v>1.009791708080813</v>
+        <v>1.017422043476474</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.00261923265796</v>
+        <v>1.036744317178569</v>
       </c>
       <c r="D3">
-        <v>1.019395587747814</v>
+        <v>1.038882382051001</v>
       </c>
       <c r="E3">
-        <v>1.016968270735877</v>
+        <v>1.045701760126028</v>
       </c>
       <c r="F3">
-        <v>1.025113112978174</v>
+        <v>1.056919383875835</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043090498127329</v>
+        <v>1.03491832844936</v>
       </c>
       <c r="J3">
-        <v>1.023038748531084</v>
+        <v>1.041499840663056</v>
       </c>
       <c r="K3">
-        <v>1.029786170315658</v>
+        <v>1.04148139530513</v>
       </c>
       <c r="L3">
-        <v>1.027388547004559</v>
+        <v>1.048282868076084</v>
       </c>
       <c r="M3">
-        <v>1.035434442066366</v>
+        <v>1.059471580434422</v>
       </c>
       <c r="N3">
-        <v>1.011148536767543</v>
+        <v>1.017706497846563</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.006264985393544</v>
+        <v>1.037516951268669</v>
       </c>
       <c r="D4">
-        <v>1.022079695173158</v>
+        <v>1.039457338508437</v>
       </c>
       <c r="E4">
-        <v>1.020109474941132</v>
+        <v>1.046401376487236</v>
       </c>
       <c r="F4">
-        <v>1.02860671975686</v>
+        <v>1.057704130960776</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044013325950735</v>
+        <v>1.035067918078169</v>
       </c>
       <c r="J4">
-        <v>1.025509778640127</v>
+        <v>1.042040553845411</v>
       </c>
       <c r="K4">
-        <v>1.031918745623271</v>
+        <v>1.041932591279214</v>
       </c>
       <c r="L4">
-        <v>1.029971106521797</v>
+        <v>1.048859318657623</v>
       </c>
       <c r="M4">
-        <v>1.038371723917549</v>
+        <v>1.060134419458266</v>
       </c>
       <c r="N4">
-        <v>1.012003308461775</v>
+        <v>1.017890148103943</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.007776848116327</v>
+        <v>1.037841723104329</v>
       </c>
       <c r="D5">
-        <v>1.02319316169525</v>
+        <v>1.039698953752248</v>
       </c>
       <c r="E5">
-        <v>1.021413580045431</v>
+        <v>1.046695537421018</v>
       </c>
       <c r="F5">
-        <v>1.030057249353024</v>
+        <v>1.058034114626011</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044393248596184</v>
+        <v>1.035130447101403</v>
       </c>
       <c r="J5">
-        <v>1.026533720578416</v>
+        <v>1.042267704655212</v>
       </c>
       <c r="K5">
-        <v>1.032801707098496</v>
+        <v>1.042122026515821</v>
       </c>
       <c r="L5">
-        <v>1.031041954681439</v>
+        <v>1.049101558671348</v>
       </c>
       <c r="M5">
-        <v>1.039590098943563</v>
+        <v>1.060413016618033</v>
       </c>
       <c r="N5">
-        <v>1.012357312952853</v>
+        <v>1.017967256519623</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.008029503128028</v>
+        <v>1.037896251222055</v>
       </c>
       <c r="D6">
-        <v>1.023379259241776</v>
+        <v>1.039739516371103</v>
       </c>
       <c r="E6">
-        <v>1.021631600581491</v>
+        <v>1.046744930838021</v>
       </c>
       <c r="F6">
-        <v>1.030299756586483</v>
+        <v>1.058089524825794</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044456575235929</v>
+        <v>1.035140924983759</v>
       </c>
       <c r="J6">
-        <v>1.026704789787003</v>
+        <v>1.042305834623979</v>
       </c>
       <c r="K6">
-        <v>1.032949179112662</v>
+        <v>1.042153819024377</v>
       </c>
       <c r="L6">
-        <v>1.031220901085782</v>
+        <v>1.04914222600721</v>
       </c>
       <c r="M6">
-        <v>1.039793724248882</v>
+        <v>1.060459790796146</v>
       </c>
       <c r="N6">
-        <v>1.012416444481313</v>
+        <v>1.0179801976114</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.006285267516863</v>
+        <v>1.037521291054726</v>
       </c>
       <c r="D7">
-        <v>1.022094631251062</v>
+        <v>1.039460567361618</v>
       </c>
       <c r="E7">
-        <v>1.020126964179705</v>
+        <v>1.04640530691302</v>
       </c>
       <c r="F7">
-        <v>1.028626172189457</v>
+        <v>1.057708539918595</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044018433739915</v>
+        <v>1.035068755002344</v>
       </c>
       <c r="J7">
-        <v>1.025523518272084</v>
+        <v>1.042043589692976</v>
       </c>
       <c r="K7">
-        <v>1.031930596451808</v>
+        <v>1.041935123494172</v>
       </c>
       <c r="L7">
-        <v>1.029985472827379</v>
+        <v>1.048862555871676</v>
       </c>
       <c r="M7">
-        <v>1.038388067663327</v>
+        <v>1.060138142323102</v>
       </c>
       <c r="N7">
-        <v>1.012008059407965</v>
+        <v>1.017891178815816</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9988154433801381</v>
+        <v>1.03595364470517</v>
       </c>
       <c r="D8">
-        <v>1.016596724441358</v>
+        <v>1.038293786401309</v>
       </c>
       <c r="E8">
-        <v>1.013696196632762</v>
+        <v>1.044986090253185</v>
       </c>
       <c r="F8">
-        <v>1.021474340306596</v>
+        <v>1.056116727023798</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042118213459918</v>
+        <v>1.034764053736911</v>
       </c>
       <c r="J8">
-        <v>1.020458062994935</v>
+        <v>1.040946046039756</v>
       </c>
       <c r="K8">
-        <v>1.027556479250257</v>
+        <v>1.041018909596197</v>
       </c>
       <c r="L8">
-        <v>1.024693785962845</v>
+        <v>1.047692731067122</v>
       </c>
       <c r="M8">
-        <v>1.032371077241211</v>
+        <v>1.058793189284555</v>
       </c>
       <c r="N8">
-        <v>1.010255186208315</v>
+        <v>1.017518261318024</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9849088459141047</v>
+        <v>1.033189725398747</v>
       </c>
       <c r="D9">
-        <v>1.006381359547874</v>
+        <v>1.036234650659496</v>
       </c>
       <c r="E9">
-        <v>1.001778560061844</v>
+        <v>1.042486529684803</v>
       </c>
       <c r="F9">
-        <v>1.008223496405337</v>
+        <v>1.053314089485722</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038492321129646</v>
+        <v>1.034215651999504</v>
       </c>
       <c r="J9">
-        <v>1.011006002565417</v>
+        <v>1.039006689251297</v>
       </c>
       <c r="K9">
-        <v>1.019371745180939</v>
+        <v>1.039396463166534</v>
       </c>
       <c r="L9">
-        <v>1.014842847127089</v>
+        <v>1.045628091752955</v>
       </c>
       <c r="M9">
-        <v>1.021184547359241</v>
+        <v>1.056421202005274</v>
       </c>
       <c r="N9">
-        <v>1.006978659190489</v>
+        <v>1.016857978970364</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9750659433946368</v>
+        <v>1.031345975155068</v>
       </c>
       <c r="D10">
-        <v>0.9991711320778109</v>
+        <v>1.034859766450972</v>
       </c>
       <c r="E10">
-        <v>0.9933853095974038</v>
+        <v>1.040820956806505</v>
       </c>
       <c r="F10">
-        <v>0.9988925725849039</v>
+        <v>1.051447160725998</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035869755965888</v>
+        <v>1.033842321908519</v>
       </c>
       <c r="J10">
-        <v>1.004304990823981</v>
+        <v>1.037710135116901</v>
       </c>
       <c r="K10">
-        <v>1.013555368134978</v>
+        <v>1.038309443898242</v>
       </c>
       <c r="L10">
-        <v>1.007875030277416</v>
+        <v>1.044249418639351</v>
       </c>
       <c r="M10">
-        <v>1.013281850804683</v>
+        <v>1.05483846132683</v>
       </c>
       <c r="N10">
-        <v>1.004652619361799</v>
+        <v>1.016415657495444</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9706502271362552</v>
+        <v>1.030547315669603</v>
       </c>
       <c r="D11">
-        <v>0.9959428176314949</v>
+        <v>1.034263914242605</v>
       </c>
       <c r="E11">
-        <v>0.9896310817021022</v>
+        <v>1.040099921080591</v>
       </c>
       <c r="F11">
-        <v>0.9947190349623972</v>
+        <v>1.050639096828466</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034680770065284</v>
+        <v>1.033678829784512</v>
       </c>
       <c r="J11">
-        <v>1.001297099059595</v>
+        <v>1.037147833979185</v>
       </c>
       <c r="K11">
-        <v>1.010941654219148</v>
+        <v>1.037837465711272</v>
       </c>
       <c r="L11">
-        <v>1.004751226099692</v>
+        <v>1.043651891795831</v>
       </c>
       <c r="M11">
-        <v>1.00974123448927</v>
+        <v>1.05415276590344</v>
       </c>
       <c r="N11">
-        <v>1.003607944041931</v>
+        <v>1.016223618299128</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9689852370479826</v>
+        <v>1.030250610089297</v>
       </c>
       <c r="D12">
-        <v>0.9947266455454753</v>
+        <v>1.034042509568874</v>
       </c>
       <c r="E12">
-        <v>0.9882172990762748</v>
+        <v>1.039832120270889</v>
       </c>
       <c r="F12">
-        <v>0.9931473446259785</v>
+        <v>1.05033899362708</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034230661256972</v>
+        <v>1.033617825119346</v>
       </c>
       <c r="J12">
-        <v>1.000162774161071</v>
+        <v>1.036938836155783</v>
       </c>
       <c r="K12">
-        <v>1.009955576887654</v>
+        <v>1.037661957081278</v>
       </c>
       <c r="L12">
-        <v>1.003573772925484</v>
+        <v>1.043429859511845</v>
       </c>
       <c r="M12">
-        <v>1.008407018918581</v>
+        <v>1.053898012837592</v>
       </c>
       <c r="N12">
-        <v>1.003213907248065</v>
+        <v>1.016152209295498</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9693435344304505</v>
+        <v>1.030314256647359</v>
       </c>
       <c r="D13">
-        <v>0.9949883076374169</v>
+        <v>1.034090005193689</v>
       </c>
       <c r="E13">
-        <v>0.9885214553158748</v>
+        <v>1.039889563390601</v>
       </c>
       <c r="F13">
-        <v>0.993485472980031</v>
+        <v>1.050403364650193</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03432760184204</v>
+        <v>1.033630923340315</v>
       </c>
       <c r="J13">
-        <v>1.000406881313058</v>
+        <v>1.036983672988589</v>
       </c>
       <c r="K13">
-        <v>1.01016779875561</v>
+        <v>1.037699613112393</v>
       </c>
       <c r="L13">
-        <v>1.003827134812391</v>
+        <v>1.043477490020988</v>
       </c>
       <c r="M13">
-        <v>1.008694096981567</v>
+        <v>1.053952660758405</v>
       </c>
       <c r="N13">
-        <v>1.003298707156049</v>
+        <v>1.016167530262948</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9705131148485848</v>
+        <v>1.030522790883948</v>
       </c>
       <c r="D14">
-        <v>0.9958426424725493</v>
+        <v>1.034245614471766</v>
       </c>
       <c r="E14">
-        <v>0.9895146194502729</v>
+        <v>1.040077784100963</v>
       </c>
       <c r="F14">
-        <v>0.9945895650036032</v>
+        <v>1.050614289240558</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034643739361521</v>
+        <v>1.033673792760368</v>
       </c>
       <c r="J14">
-        <v>1.00120369008842</v>
+        <v>1.037130560897579</v>
       </c>
       <c r="K14">
-        <v>1.010860461071096</v>
+        <v>1.03782296209438</v>
       </c>
       <c r="L14">
-        <v>1.00465425371881</v>
+        <v>1.043633540262974</v>
       </c>
       <c r="M14">
-        <v>1.009631344485116</v>
+        <v>1.054131709071015</v>
       </c>
       <c r="N14">
-        <v>1.003575497433369</v>
+        <v>1.016217717183149</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9712303922471049</v>
+        <v>1.03065126929538</v>
       </c>
       <c r="D15">
-        <v>0.9963667356716224</v>
+        <v>1.03434148004099</v>
       </c>
       <c r="E15">
-        <v>0.9901239434464409</v>
+        <v>1.040193756228294</v>
       </c>
       <c r="F15">
-        <v>0.9952669443925225</v>
+        <v>1.050744253114414</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034837386235532</v>
+        <v>1.033700169388446</v>
       </c>
       <c r="J15">
-        <v>1.001692335358759</v>
+        <v>1.037221045573714</v>
       </c>
       <c r="K15">
-        <v>1.011285186160116</v>
+        <v>1.037898935619154</v>
       </c>
       <c r="L15">
-        <v>1.0051615638765</v>
+        <v>1.043729676771809</v>
       </c>
       <c r="M15">
-        <v>1.010206247167803</v>
+        <v>1.054242019281096</v>
       </c>
       <c r="N15">
-        <v>1.003745230740984</v>
+        <v>1.016248628775789</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9753556200804983</v>
+        <v>1.031398972965371</v>
       </c>
       <c r="D16">
-        <v>0.9993830571579222</v>
+        <v>1.034899300214767</v>
       </c>
       <c r="E16">
-        <v>0.993631832532937</v>
+        <v>1.040868813006283</v>
       </c>
       <c r="F16">
-        <v>0.9991666303366917</v>
+        <v>1.051500796047079</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035947503044754</v>
+        <v>1.033853133596817</v>
       </c>
       <c r="J16">
-        <v>1.004502284311729</v>
+        <v>1.037747434447649</v>
       </c>
       <c r="K16">
-        <v>1.013726749111409</v>
+        <v>1.038340740248973</v>
       </c>
       <c r="L16">
-        <v>1.008080007090918</v>
+        <v>1.044289062786713</v>
       </c>
       <c r="M16">
-        <v>1.013514225807208</v>
+        <v>1.054883961003621</v>
       </c>
       <c r="N16">
-        <v>1.004721130781609</v>
+        <v>1.016428391710035</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9779009680194187</v>
+        <v>1.031867904858167</v>
       </c>
       <c r="D17">
-        <v>1.001245947176824</v>
+        <v>1.035249066774679</v>
       </c>
       <c r="E17">
-        <v>0.9957992708929124</v>
+        <v>1.041292302418019</v>
       </c>
       <c r="F17">
-        <v>1.001576165452187</v>
+        <v>1.051975442242019</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036629253131932</v>
+        <v>1.033948591770279</v>
       </c>
       <c r="J17">
-        <v>1.006235692365205</v>
+        <v>1.038077386565144</v>
       </c>
       <c r="K17">
-        <v>1.015232165637103</v>
+        <v>1.038617526199534</v>
       </c>
       <c r="L17">
-        <v>1.009881357193705</v>
+        <v>1.044639802121325</v>
       </c>
       <c r="M17">
-        <v>1.015556615103449</v>
+        <v>1.055286537159879</v>
       </c>
       <c r="N17">
-        <v>1.005323003435543</v>
+        <v>1.016541015199518</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9793709228588079</v>
+        <v>1.032141395774199</v>
       </c>
       <c r="D18">
-        <v>1.002322366361533</v>
+        <v>1.035453029739068</v>
       </c>
       <c r="E18">
-        <v>0.9970520255991981</v>
+        <v>1.041539332958601</v>
       </c>
       <c r="F18">
-        <v>1.00296886033533</v>
+        <v>1.052252327153258</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037021786417832</v>
+        <v>1.034004093615126</v>
       </c>
       <c r="J18">
-        <v>1.007236581369994</v>
+        <v>1.03826975678266</v>
       </c>
       <c r="K18">
-        <v>1.016101132786349</v>
+        <v>1.038778846193321</v>
       </c>
       <c r="L18">
-        <v>1.010921839684567</v>
+        <v>1.044844329238103</v>
       </c>
       <c r="M18">
-        <v>1.016736543409399</v>
+        <v>1.055521318551354</v>
       </c>
       <c r="N18">
-        <v>1.005670475331949</v>
+        <v>1.016606657285389</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9798696947270501</v>
+        <v>1.03223464423799</v>
       </c>
       <c r="D19">
-        <v>1.002687702895113</v>
+        <v>1.035522567388946</v>
       </c>
       <c r="E19">
-        <v>0.9974772731657224</v>
+        <v>1.041623566798757</v>
       </c>
       <c r="F19">
-        <v>1.003441612974044</v>
+        <v>1.052346743198705</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037154774499706</v>
+        <v>1.03402298824724</v>
       </c>
       <c r="J19">
-        <v>1.007576163583519</v>
+        <v>1.038335335629171</v>
       </c>
       <c r="K19">
-        <v>1.016395908513755</v>
+        <v>1.038833831038861</v>
       </c>
       <c r="L19">
-        <v>1.011274916612413</v>
+        <v>1.044914058712166</v>
       </c>
       <c r="M19">
-        <v>1.017136976934958</v>
+        <v>1.055601367134661</v>
       </c>
       <c r="N19">
-        <v>1.005788355868674</v>
+        <v>1.016629031189109</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9776294089542997</v>
+        <v>1.031817595934127</v>
       </c>
       <c r="D20">
-        <v>1.001047136380115</v>
+        <v>1.035211545306152</v>
       </c>
       <c r="E20">
-        <v>0.99556792111244</v>
+        <v>1.041246864333306</v>
       </c>
       <c r="F20">
-        <v>1.001318973534296</v>
+        <v>1.051924513919484</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03655664046324</v>
+        <v>1.033938368352498</v>
       </c>
       <c r="J20">
-        <v>1.006050774442292</v>
+        <v>1.038041994655265</v>
       </c>
       <c r="K20">
-        <v>1.015071598113496</v>
+        <v>1.038587842578136</v>
       </c>
       <c r="L20">
-        <v>1.009689153561279</v>
+        <v>1.044602176622918</v>
       </c>
       <c r="M20">
-        <v>1.015338669964329</v>
+        <v>1.055243348124903</v>
       </c>
       <c r="N20">
-        <v>1.005258802088219</v>
+        <v>1.016528936865806</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9701694016297102</v>
+        <v>1.030461384089225</v>
       </c>
       <c r="D21">
-        <v>0.9955915414405687</v>
+        <v>1.034199793594696</v>
       </c>
       <c r="E21">
-        <v>0.98922270091538</v>
+        <v>1.040022357142212</v>
       </c>
       <c r="F21">
-        <v>0.9942650418920972</v>
+        <v>1.050552175902164</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034550882235528</v>
+        <v>1.033661176417463</v>
       </c>
       <c r="J21">
-        <v>1.000969529963007</v>
+        <v>1.037087309782465</v>
       </c>
       <c r="K21">
-        <v>1.010656917527418</v>
+        <v>1.037786644281138</v>
       </c>
       <c r="L21">
-        <v>1.004411170166253</v>
+        <v>1.043587589690687</v>
       </c>
       <c r="M21">
-        <v>1.00935588551306</v>
+        <v>1.054078985342425</v>
       </c>
       <c r="N21">
-        <v>1.003494158281815</v>
+        <v>1.016202940516756</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.965334562087552</v>
+        <v>1.029608401674994</v>
       </c>
       <c r="D22">
-        <v>0.9920622422599414</v>
+        <v>1.033563209804986</v>
       </c>
       <c r="E22">
-        <v>0.9851208465875992</v>
+        <v>1.03925259885356</v>
       </c>
       <c r="F22">
-        <v>0.9897050193138764</v>
+        <v>1.049689607730646</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033240546306251</v>
+        <v>1.033485295462683</v>
       </c>
       <c r="J22">
-        <v>0.9976754289462664</v>
+        <v>1.036486284777942</v>
       </c>
       <c r="K22">
-        <v>1.007792604964453</v>
+        <v>1.037281770957603</v>
       </c>
       <c r="L22">
-        <v>1.000992939495122</v>
+        <v>1.042949190793606</v>
       </c>
       <c r="M22">
-        <v>1.005483218238015</v>
+        <v>1.05334658384837</v>
       </c>
       <c r="N22">
-        <v>1.002349747261185</v>
+        <v>1.015997527466184</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9679119083178066</v>
+        <v>1.030060610929644</v>
       </c>
       <c r="D23">
-        <v>0.9939429734361396</v>
+        <v>1.033900718335064</v>
       </c>
       <c r="E23">
-        <v>0.9873064285194484</v>
+        <v>1.039660649651514</v>
       </c>
       <c r="F23">
-        <v>0.992134734455973</v>
+        <v>1.050146845906336</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03394000672829</v>
+        <v>1.033578684992448</v>
       </c>
       <c r="J23">
-        <v>0.9994314999267417</v>
+        <v>1.036804973544343</v>
       </c>
       <c r="K23">
-        <v>1.00931976531669</v>
+        <v>1.037549521082655</v>
       </c>
       <c r="L23">
-        <v>1.002814860324669</v>
+        <v>1.043287664781412</v>
       </c>
       <c r="M23">
-        <v>1.007547164585102</v>
+        <v>1.053734874586694</v>
       </c>
       <c r="N23">
-        <v>1.002959861835181</v>
+        <v>1.016106463210854</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9777521601187696</v>
+        <v>1.031840328461404</v>
       </c>
       <c r="D24">
-        <v>1.001137001780301</v>
+        <v>1.035228499797176</v>
       </c>
       <c r="E24">
-        <v>0.9956724934878801</v>
+        <v>1.041267395797585</v>
       </c>
       <c r="F24">
-        <v>1.001435226774448</v>
+        <v>1.051947526138058</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036589466792145</v>
+        <v>1.033942988422791</v>
       </c>
       <c r="J24">
-        <v>1.006134362266499</v>
+        <v>1.038057986999465</v>
       </c>
       <c r="K24">
-        <v>1.015144179771198</v>
+        <v>1.038601255713922</v>
       </c>
       <c r="L24">
-        <v>1.009776033594044</v>
+        <v>1.044619178130557</v>
       </c>
       <c r="M24">
-        <v>1.015437185014386</v>
+        <v>1.055262863497362</v>
       </c>
       <c r="N24">
-        <v>1.005287822981461</v>
+        <v>1.016534394697248</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9885991859637386</v>
+        <v>1.033904457092182</v>
       </c>
       <c r="D25">
-        <v>1.009089215061907</v>
+        <v>1.036767359271846</v>
       </c>
       <c r="E25">
-        <v>1.004934287469836</v>
+        <v>1.043132580431483</v>
       </c>
       <c r="F25">
-        <v>1.01173197112765</v>
+        <v>1.054038369074772</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039464415337371</v>
+        <v>1.03435878846002</v>
       </c>
       <c r="J25">
-        <v>1.013516420310731</v>
+        <v>1.039508698603677</v>
       </c>
       <c r="K25">
-        <v>1.021548052410237</v>
+        <v>1.039816851520411</v>
       </c>
       <c r="L25">
-        <v>1.01745648486399</v>
+        <v>1.04616224241508</v>
       </c>
       <c r="M25">
-        <v>1.024150852907717</v>
+        <v>1.057034662298065</v>
       </c>
       <c r="N25">
-        <v>1.007849479867804</v>
+        <v>1.017029052849228</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_42/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.03554996892312</v>
+        <v>0.9968443550432434</v>
       </c>
       <c r="D2">
-        <v>1.037993198678242</v>
+        <v>1.01514709206804</v>
       </c>
       <c r="E2">
-        <v>1.044620814953643</v>
+        <v>1.012002741944526</v>
       </c>
       <c r="F2">
-        <v>1.055707090947374</v>
+        <v>1.019591235885689</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034684832415623</v>
+        <v>1.041610824286208</v>
       </c>
       <c r="J2">
-        <v>1.040663132702154</v>
+        <v>1.019119862321381</v>
       </c>
       <c r="K2">
-        <v>1.040782499662942</v>
+        <v>1.026399361316231</v>
       </c>
       <c r="L2">
-        <v>1.04739135119426</v>
+        <v>1.023297354259976</v>
       </c>
       <c r="M2">
-        <v>1.058446809463551</v>
+        <v>1.030784217564618</v>
       </c>
       <c r="N2">
-        <v>1.017422043476474</v>
+        <v>1.009791708080813</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036744317178569</v>
+        <v>1.002619232657959</v>
       </c>
       <c r="D3">
-        <v>1.038882382051001</v>
+        <v>1.019395587747813</v>
       </c>
       <c r="E3">
-        <v>1.045701760126028</v>
+        <v>1.016968270735876</v>
       </c>
       <c r="F3">
-        <v>1.056919383875835</v>
+        <v>1.025113112978173</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03491832844936</v>
+        <v>1.043090498127329</v>
       </c>
       <c r="J3">
-        <v>1.041499840663056</v>
+        <v>1.023038748531083</v>
       </c>
       <c r="K3">
-        <v>1.04148139530513</v>
+        <v>1.029786170315657</v>
       </c>
       <c r="L3">
-        <v>1.048282868076084</v>
+        <v>1.027388547004559</v>
       </c>
       <c r="M3">
-        <v>1.059471580434422</v>
+        <v>1.035434442066365</v>
       </c>
       <c r="N3">
-        <v>1.017706497846563</v>
+        <v>1.011148536767543</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C4">
-        <v>1.037516951268669</v>
+        <v>1.006264985393543</v>
       </c>
       <c r="D4">
-        <v>1.039457338508437</v>
+        <v>1.022079695173157</v>
       </c>
       <c r="E4">
-        <v>1.046401376487236</v>
+        <v>1.020109474941131</v>
       </c>
       <c r="F4">
-        <v>1.057704130960776</v>
+        <v>1.028606719756859</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035067918078169</v>
+        <v>1.044013325950734</v>
       </c>
       <c r="J4">
-        <v>1.042040553845411</v>
+        <v>1.025509778640125</v>
       </c>
       <c r="K4">
-        <v>1.041932591279214</v>
+        <v>1.031918745623269</v>
       </c>
       <c r="L4">
-        <v>1.048859318657623</v>
+        <v>1.029971106521796</v>
       </c>
       <c r="M4">
-        <v>1.060134419458266</v>
+        <v>1.038371723917548</v>
       </c>
       <c r="N4">
-        <v>1.017890148103943</v>
+        <v>1.012003308461775</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037841723104329</v>
+        <v>1.007776848116328</v>
       </c>
       <c r="D5">
-        <v>1.039698953752248</v>
+        <v>1.023193161695251</v>
       </c>
       <c r="E5">
-        <v>1.046695537421018</v>
+        <v>1.021413580045432</v>
       </c>
       <c r="F5">
-        <v>1.058034114626011</v>
+        <v>1.030057249353024</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035130447101403</v>
+        <v>1.044393248596185</v>
       </c>
       <c r="J5">
-        <v>1.042267704655212</v>
+        <v>1.026533720578418</v>
       </c>
       <c r="K5">
-        <v>1.042122026515821</v>
+        <v>1.032801707098497</v>
       </c>
       <c r="L5">
-        <v>1.049101558671348</v>
+        <v>1.03104195468144</v>
       </c>
       <c r="M5">
-        <v>1.060413016618033</v>
+        <v>1.039590098943564</v>
       </c>
       <c r="N5">
-        <v>1.017967256519623</v>
+        <v>1.012357312952853</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037896251222055</v>
+        <v>1.008029503128028</v>
       </c>
       <c r="D6">
-        <v>1.039739516371103</v>
+        <v>1.023379259241776</v>
       </c>
       <c r="E6">
-        <v>1.046744930838021</v>
+        <v>1.02163160058149</v>
       </c>
       <c r="F6">
-        <v>1.058089524825794</v>
+        <v>1.030299756586482</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035140924983759</v>
+        <v>1.044456575235929</v>
       </c>
       <c r="J6">
-        <v>1.042305834623979</v>
+        <v>1.026704789787003</v>
       </c>
       <c r="K6">
-        <v>1.042153819024377</v>
+        <v>1.032949179112662</v>
       </c>
       <c r="L6">
-        <v>1.04914222600721</v>
+        <v>1.031220901085782</v>
       </c>
       <c r="M6">
-        <v>1.060459790796146</v>
+        <v>1.039793724248881</v>
       </c>
       <c r="N6">
-        <v>1.0179801976114</v>
+        <v>1.012416444481313</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.037521291054726</v>
+        <v>1.006285267516863</v>
       </c>
       <c r="D7">
-        <v>1.039460567361618</v>
+        <v>1.022094631251062</v>
       </c>
       <c r="E7">
-        <v>1.04640530691302</v>
+        <v>1.020126964179705</v>
       </c>
       <c r="F7">
-        <v>1.057708539918595</v>
+        <v>1.028626172189457</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035068755002344</v>
+        <v>1.044018433739915</v>
       </c>
       <c r="J7">
-        <v>1.042043589692976</v>
+        <v>1.025523518272084</v>
       </c>
       <c r="K7">
-        <v>1.041935123494172</v>
+        <v>1.031930596451808</v>
       </c>
       <c r="L7">
-        <v>1.048862555871676</v>
+        <v>1.029985472827379</v>
       </c>
       <c r="M7">
-        <v>1.060138142323102</v>
+        <v>1.038388067663327</v>
       </c>
       <c r="N7">
-        <v>1.017891178815816</v>
+        <v>1.012008059407965</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.03595364470517</v>
+        <v>0.9988154433801382</v>
       </c>
       <c r="D8">
-        <v>1.038293786401309</v>
+        <v>1.016596724441358</v>
       </c>
       <c r="E8">
-        <v>1.044986090253185</v>
+        <v>1.013696196632763</v>
       </c>
       <c r="F8">
-        <v>1.056116727023798</v>
+        <v>1.021474340306596</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034764053736911</v>
+        <v>1.042118213459918</v>
       </c>
       <c r="J8">
-        <v>1.040946046039756</v>
+        <v>1.020458062994936</v>
       </c>
       <c r="K8">
-        <v>1.041018909596197</v>
+        <v>1.027556479250258</v>
       </c>
       <c r="L8">
-        <v>1.047692731067122</v>
+        <v>1.024693785962845</v>
       </c>
       <c r="M8">
-        <v>1.058793189284555</v>
+        <v>1.032371077241211</v>
       </c>
       <c r="N8">
-        <v>1.017518261318024</v>
+        <v>1.010255186208315</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.033189725398747</v>
+        <v>0.9849088459141032</v>
       </c>
       <c r="D9">
-        <v>1.036234650659496</v>
+        <v>1.006381359547873</v>
       </c>
       <c r="E9">
-        <v>1.042486529684803</v>
+        <v>1.001778560061842</v>
       </c>
       <c r="F9">
-        <v>1.053314089485722</v>
+        <v>1.008223496405336</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034215651999504</v>
+        <v>1.038492321129645</v>
       </c>
       <c r="J9">
-        <v>1.039006689251297</v>
+        <v>1.011006002565415</v>
       </c>
       <c r="K9">
-        <v>1.039396463166534</v>
+        <v>1.019371745180938</v>
       </c>
       <c r="L9">
-        <v>1.045628091752955</v>
+        <v>1.014842847127088</v>
       </c>
       <c r="M9">
-        <v>1.056421202005274</v>
+        <v>1.02118454735924</v>
       </c>
       <c r="N9">
-        <v>1.016857978970364</v>
+        <v>1.006978659190488</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.031345975155068</v>
+        <v>0.9750659433946364</v>
       </c>
       <c r="D10">
-        <v>1.034859766450972</v>
+        <v>0.9991711320778104</v>
       </c>
       <c r="E10">
-        <v>1.040820956806505</v>
+        <v>0.9933853095974031</v>
       </c>
       <c r="F10">
-        <v>1.051447160725998</v>
+        <v>0.9988925725849035</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033842321908519</v>
+        <v>1.035869755965888</v>
       </c>
       <c r="J10">
-        <v>1.037710135116901</v>
+        <v>1.00430499082398</v>
       </c>
       <c r="K10">
-        <v>1.038309443898242</v>
+        <v>1.013555368134977</v>
       </c>
       <c r="L10">
-        <v>1.044249418639351</v>
+        <v>1.007875030277416</v>
       </c>
       <c r="M10">
-        <v>1.05483846132683</v>
+        <v>1.013281850804683</v>
       </c>
       <c r="N10">
-        <v>1.016415657495444</v>
+        <v>1.004652619361799</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.030547315669603</v>
+        <v>0.9706502271362536</v>
       </c>
       <c r="D11">
-        <v>1.034263914242605</v>
+        <v>0.9959428176314936</v>
       </c>
       <c r="E11">
-        <v>1.040099921080591</v>
+        <v>0.9896310817021003</v>
       </c>
       <c r="F11">
-        <v>1.050639096828466</v>
+        <v>0.9947190349623958</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033678829784512</v>
+        <v>1.034680770065283</v>
       </c>
       <c r="J11">
-        <v>1.037147833979185</v>
+        <v>1.001297099059594</v>
       </c>
       <c r="K11">
-        <v>1.037837465711272</v>
+        <v>1.010941654219147</v>
       </c>
       <c r="L11">
-        <v>1.043651891795831</v>
+        <v>1.00475122609969</v>
       </c>
       <c r="M11">
-        <v>1.05415276590344</v>
+        <v>1.009741234489268</v>
       </c>
       <c r="N11">
-        <v>1.016223618299128</v>
+        <v>1.003607944041931</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.030250610089297</v>
+        <v>0.9689852370479812</v>
       </c>
       <c r="D12">
-        <v>1.034042509568874</v>
+        <v>0.9947266455454743</v>
       </c>
       <c r="E12">
-        <v>1.039832120270889</v>
+        <v>0.9882172990762739</v>
       </c>
       <c r="F12">
-        <v>1.05033899362708</v>
+        <v>0.9931473446259778</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033617825119346</v>
+        <v>1.034230661256971</v>
       </c>
       <c r="J12">
-        <v>1.036938836155783</v>
+        <v>1.00016277416107</v>
       </c>
       <c r="K12">
-        <v>1.037661957081278</v>
+        <v>1.009955576887653</v>
       </c>
       <c r="L12">
-        <v>1.043429859511845</v>
+        <v>1.003573772925483</v>
       </c>
       <c r="M12">
-        <v>1.053898012837592</v>
+        <v>1.00840701891858</v>
       </c>
       <c r="N12">
-        <v>1.016152209295498</v>
+        <v>1.003213907248064</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.030314256647359</v>
+        <v>0.9693435344304503</v>
       </c>
       <c r="D13">
-        <v>1.034090005193689</v>
+        <v>0.9949883076374169</v>
       </c>
       <c r="E13">
-        <v>1.039889563390601</v>
+        <v>0.9885214553158744</v>
       </c>
       <c r="F13">
-        <v>1.050403364650193</v>
+        <v>0.9934854729800309</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033630923340315</v>
+        <v>1.03432760184204</v>
       </c>
       <c r="J13">
-        <v>1.036983672988589</v>
+        <v>1.000406881313058</v>
       </c>
       <c r="K13">
-        <v>1.037699613112393</v>
+        <v>1.01016779875561</v>
       </c>
       <c r="L13">
-        <v>1.043477490020988</v>
+        <v>1.00382713481239</v>
       </c>
       <c r="M13">
-        <v>1.053952660758405</v>
+        <v>1.008694096981567</v>
       </c>
       <c r="N13">
-        <v>1.016167530262948</v>
+        <v>1.003298707156049</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.030522790883948</v>
+        <v>0.9705131148485849</v>
       </c>
       <c r="D14">
-        <v>1.034245614471766</v>
+        <v>0.9958426424725495</v>
       </c>
       <c r="E14">
-        <v>1.040077784100963</v>
+        <v>0.9895146194502727</v>
       </c>
       <c r="F14">
-        <v>1.050614289240558</v>
+        <v>0.9945895650036031</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033673792760368</v>
+        <v>1.034643739361521</v>
       </c>
       <c r="J14">
-        <v>1.037130560897579</v>
+        <v>1.00120369008842</v>
       </c>
       <c r="K14">
-        <v>1.03782296209438</v>
+        <v>1.010860461071096</v>
       </c>
       <c r="L14">
-        <v>1.043633540262974</v>
+        <v>1.00465425371881</v>
       </c>
       <c r="M14">
-        <v>1.054131709071015</v>
+        <v>1.009631344485116</v>
       </c>
       <c r="N14">
-        <v>1.016217717183149</v>
+        <v>1.003575497433369</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.03065126929538</v>
+        <v>0.9712303922471045</v>
       </c>
       <c r="D15">
-        <v>1.03434148004099</v>
+        <v>0.996366735671622</v>
       </c>
       <c r="E15">
-        <v>1.040193756228294</v>
+        <v>0.9901239434464404</v>
       </c>
       <c r="F15">
-        <v>1.050744253114414</v>
+        <v>0.9952669443925219</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033700169388446</v>
+        <v>1.034837386235532</v>
       </c>
       <c r="J15">
-        <v>1.037221045573714</v>
+        <v>1.001692335358759</v>
       </c>
       <c r="K15">
-        <v>1.037898935619154</v>
+        <v>1.011285186160116</v>
       </c>
       <c r="L15">
-        <v>1.043729676771809</v>
+        <v>1.005161563876499</v>
       </c>
       <c r="M15">
-        <v>1.054242019281096</v>
+        <v>1.010206247167803</v>
       </c>
       <c r="N15">
-        <v>1.016248628775789</v>
+        <v>1.003745230740983</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.031398972965371</v>
+        <v>0.9753556200804996</v>
       </c>
       <c r="D16">
-        <v>1.034899300214767</v>
+        <v>0.9993830571579234</v>
       </c>
       <c r="E16">
-        <v>1.040868813006283</v>
+        <v>0.9936318325329384</v>
       </c>
       <c r="F16">
-        <v>1.051500796047079</v>
+        <v>0.9991666303366932</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033853133596817</v>
+        <v>1.035947503044754</v>
       </c>
       <c r="J16">
-        <v>1.037747434447649</v>
+        <v>1.00450228431173</v>
       </c>
       <c r="K16">
-        <v>1.038340740248973</v>
+        <v>1.013726749111411</v>
       </c>
       <c r="L16">
-        <v>1.044289062786713</v>
+        <v>1.008080007090919</v>
       </c>
       <c r="M16">
-        <v>1.054883961003621</v>
+        <v>1.01351422580721</v>
       </c>
       <c r="N16">
-        <v>1.016428391710035</v>
+        <v>1.004721130781609</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.031867904858167</v>
+        <v>0.9779009680194179</v>
       </c>
       <c r="D17">
-        <v>1.035249066774679</v>
+        <v>1.001245947176823</v>
       </c>
       <c r="E17">
-        <v>1.041292302418019</v>
+        <v>0.9957992708929112</v>
       </c>
       <c r="F17">
-        <v>1.051975442242019</v>
+        <v>1.001576165452186</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033948591770279</v>
+        <v>1.036629253131932</v>
       </c>
       <c r="J17">
-        <v>1.038077386565144</v>
+        <v>1.006235692365205</v>
       </c>
       <c r="K17">
-        <v>1.038617526199534</v>
+        <v>1.015232165637102</v>
       </c>
       <c r="L17">
-        <v>1.044639802121325</v>
+        <v>1.009881357193704</v>
       </c>
       <c r="M17">
-        <v>1.055286537159879</v>
+        <v>1.015556615103448</v>
       </c>
       <c r="N17">
-        <v>1.016541015199518</v>
+        <v>1.005323003435543</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.032141395774199</v>
+        <v>0.9793709228588082</v>
       </c>
       <c r="D18">
-        <v>1.035453029739068</v>
+        <v>1.002322366361533</v>
       </c>
       <c r="E18">
-        <v>1.041539332958601</v>
+        <v>0.9970520255991983</v>
       </c>
       <c r="F18">
-        <v>1.052252327153258</v>
+        <v>1.00296886033533</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034004093615126</v>
+        <v>1.037021786417833</v>
       </c>
       <c r="J18">
-        <v>1.03826975678266</v>
+        <v>1.007236581369995</v>
       </c>
       <c r="K18">
-        <v>1.038778846193321</v>
+        <v>1.016101132786349</v>
       </c>
       <c r="L18">
-        <v>1.044844329238103</v>
+        <v>1.010921839684567</v>
       </c>
       <c r="M18">
-        <v>1.055521318551354</v>
+        <v>1.0167365434094</v>
       </c>
       <c r="N18">
-        <v>1.016606657285389</v>
+        <v>1.005670475331949</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.03223464423799</v>
+        <v>0.979869694727049</v>
       </c>
       <c r="D19">
-        <v>1.035522567388946</v>
+        <v>1.002687702895112</v>
       </c>
       <c r="E19">
-        <v>1.041623566798757</v>
+        <v>0.9974772731657211</v>
       </c>
       <c r="F19">
-        <v>1.052346743198705</v>
+        <v>1.003441612974043</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03402298824724</v>
+        <v>1.037154774499705</v>
       </c>
       <c r="J19">
-        <v>1.038335335629171</v>
+        <v>1.007576163583518</v>
       </c>
       <c r="K19">
-        <v>1.038833831038861</v>
+        <v>1.016395908513754</v>
       </c>
       <c r="L19">
-        <v>1.044914058712166</v>
+        <v>1.011274916612412</v>
       </c>
       <c r="M19">
-        <v>1.055601367134661</v>
+        <v>1.017136976934957</v>
       </c>
       <c r="N19">
-        <v>1.016629031189109</v>
+        <v>1.005788355868673</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.031817595934127</v>
+        <v>0.9776294089543005</v>
       </c>
       <c r="D20">
-        <v>1.035211545306152</v>
+        <v>1.001047136380116</v>
       </c>
       <c r="E20">
-        <v>1.041246864333306</v>
+        <v>0.9955679211124407</v>
       </c>
       <c r="F20">
-        <v>1.051924513919484</v>
+        <v>1.001318973534297</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033938368352498</v>
+        <v>1.036556640463241</v>
       </c>
       <c r="J20">
-        <v>1.038041994655265</v>
+        <v>1.006050774442293</v>
       </c>
       <c r="K20">
-        <v>1.038587842578136</v>
+        <v>1.015071598113497</v>
       </c>
       <c r="L20">
-        <v>1.044602176622918</v>
+        <v>1.00968915356128</v>
       </c>
       <c r="M20">
-        <v>1.055243348124903</v>
+        <v>1.01533866996433</v>
       </c>
       <c r="N20">
-        <v>1.016528936865806</v>
+        <v>1.00525880208822</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.030461384089225</v>
+        <v>0.9701694016297105</v>
       </c>
       <c r="D21">
-        <v>1.034199793594696</v>
+        <v>0.9955915414405692</v>
       </c>
       <c r="E21">
-        <v>1.040022357142212</v>
+        <v>0.9892227009153799</v>
       </c>
       <c r="F21">
-        <v>1.050552175902164</v>
+        <v>0.994265041892097</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033661176417463</v>
+        <v>1.034550882235528</v>
       </c>
       <c r="J21">
-        <v>1.037087309782465</v>
+        <v>1.000969529963008</v>
       </c>
       <c r="K21">
-        <v>1.037786644281138</v>
+        <v>1.010656917527418</v>
       </c>
       <c r="L21">
-        <v>1.043587589690687</v>
+        <v>1.004411170166253</v>
       </c>
       <c r="M21">
-        <v>1.054078985342425</v>
+        <v>1.00935588551306</v>
       </c>
       <c r="N21">
-        <v>1.016202940516756</v>
+        <v>1.003494158281815</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.029608401674994</v>
+        <v>0.9653345620875524</v>
       </c>
       <c r="D22">
-        <v>1.033563209804986</v>
+        <v>0.9920622422599417</v>
       </c>
       <c r="E22">
-        <v>1.03925259885356</v>
+        <v>0.9851208465875995</v>
       </c>
       <c r="F22">
-        <v>1.049689607730646</v>
+        <v>0.9897050193138768</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033485295462683</v>
+        <v>1.033240546306251</v>
       </c>
       <c r="J22">
-        <v>1.036486284777942</v>
+        <v>0.9976754289462667</v>
       </c>
       <c r="K22">
-        <v>1.037281770957603</v>
+        <v>1.007792604964454</v>
       </c>
       <c r="L22">
-        <v>1.042949190793606</v>
+        <v>1.000992939495122</v>
       </c>
       <c r="M22">
-        <v>1.05334658384837</v>
+        <v>1.005483218238015</v>
       </c>
       <c r="N22">
-        <v>1.015997527466184</v>
+        <v>1.002349747261185</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.030060610929644</v>
+        <v>0.9679119083178065</v>
       </c>
       <c r="D23">
-        <v>1.033900718335064</v>
+        <v>0.9939429734361394</v>
       </c>
       <c r="E23">
-        <v>1.039660649651514</v>
+        <v>0.9873064285194481</v>
       </c>
       <c r="F23">
-        <v>1.050146845906336</v>
+        <v>0.9921347344559724</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033578684992448</v>
+        <v>1.03394000672829</v>
       </c>
       <c r="J23">
-        <v>1.036804973544343</v>
+        <v>0.9994314999267414</v>
       </c>
       <c r="K23">
-        <v>1.037549521082655</v>
+        <v>1.009319765316689</v>
       </c>
       <c r="L23">
-        <v>1.043287664781412</v>
+        <v>1.002814860324669</v>
       </c>
       <c r="M23">
-        <v>1.053734874586694</v>
+        <v>1.007547164585101</v>
       </c>
       <c r="N23">
-        <v>1.016106463210854</v>
+        <v>1.002959861835181</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.031840328461404</v>
+        <v>0.9777521601187698</v>
       </c>
       <c r="D24">
-        <v>1.035228499797176</v>
+        <v>1.001137001780301</v>
       </c>
       <c r="E24">
-        <v>1.041267395797585</v>
+        <v>0.9956724934878805</v>
       </c>
       <c r="F24">
-        <v>1.051947526138058</v>
+        <v>1.001435226774448</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033942988422791</v>
+        <v>1.036589466792145</v>
       </c>
       <c r="J24">
-        <v>1.038057986999465</v>
+        <v>1.006134362266499</v>
       </c>
       <c r="K24">
-        <v>1.038601255713922</v>
+        <v>1.015144179771197</v>
       </c>
       <c r="L24">
-        <v>1.044619178130557</v>
+        <v>1.009776033594045</v>
       </c>
       <c r="M24">
-        <v>1.055262863497362</v>
+        <v>1.015437185014386</v>
       </c>
       <c r="N24">
-        <v>1.016534394697248</v>
+        <v>1.005287822981461</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.033904457092182</v>
+        <v>0.9885991859637389</v>
       </c>
       <c r="D25">
-        <v>1.036767359271846</v>
+        <v>1.009089215061908</v>
       </c>
       <c r="E25">
-        <v>1.043132580431483</v>
+        <v>1.004934287469836</v>
       </c>
       <c r="F25">
-        <v>1.054038369074772</v>
+        <v>1.01173197112765</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03435878846002</v>
+        <v>1.039464415337371</v>
       </c>
       <c r="J25">
-        <v>1.039508698603677</v>
+        <v>1.013516420310731</v>
       </c>
       <c r="K25">
-        <v>1.039816851520411</v>
+        <v>1.021548052410237</v>
       </c>
       <c r="L25">
-        <v>1.04616224241508</v>
+        <v>1.01745648486399</v>
       </c>
       <c r="M25">
-        <v>1.057034662298065</v>
+        <v>1.024150852907718</v>
       </c>
       <c r="N25">
-        <v>1.017029052849228</v>
+        <v>1.007849479867804</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_42/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9968443550432434</v>
+        <v>1.015920304289518</v>
       </c>
       <c r="D2">
-        <v>1.01514709206804</v>
+        <v>1.035712484333017</v>
       </c>
       <c r="E2">
-        <v>1.012002741944526</v>
+        <v>1.030796475488026</v>
       </c>
       <c r="F2">
-        <v>1.019591235885689</v>
+        <v>1.043041453465642</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041610824286208</v>
+        <v>1.05105752021731</v>
       </c>
       <c r="J2">
-        <v>1.019119862321381</v>
+        <v>1.03763504944167</v>
       </c>
       <c r="K2">
-        <v>1.026399361316231</v>
+        <v>1.046695736058612</v>
       </c>
       <c r="L2">
-        <v>1.023297354259976</v>
+        <v>1.041842812413927</v>
       </c>
       <c r="M2">
-        <v>1.030784217564618</v>
+        <v>1.053932032371711</v>
       </c>
       <c r="N2">
-        <v>1.009791708080813</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.016384763382085</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.051255897690741</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.04408820065815</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,81 +486,105 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002619232657959</v>
+        <v>1.019035280074027</v>
       </c>
       <c r="D3">
-        <v>1.019395587747813</v>
+        <v>1.037764345190195</v>
       </c>
       <c r="E3">
-        <v>1.016968270735876</v>
+        <v>1.033159193067388</v>
       </c>
       <c r="F3">
-        <v>1.025113112978173</v>
+        <v>1.045303641045425</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043090498127329</v>
+        <v>1.051700584808145</v>
       </c>
       <c r="J3">
-        <v>1.023038748531083</v>
+        <v>1.039020140243607</v>
       </c>
       <c r="K3">
-        <v>1.029786170315657</v>
+        <v>1.047935792293615</v>
       </c>
       <c r="L3">
-        <v>1.027388547004559</v>
+        <v>1.043384672266245</v>
       </c>
       <c r="M3">
-        <v>1.035434442066365</v>
+        <v>1.055387898691171</v>
       </c>
       <c r="N3">
-        <v>1.011148536767543</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.016852968198105</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.052408100522774</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.044962368185833</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006264985393543</v>
+        <v>1.021021148334724</v>
       </c>
       <c r="D4">
-        <v>1.022079695173157</v>
+        <v>1.039076770314141</v>
       </c>
       <c r="E4">
-        <v>1.020109474941131</v>
+        <v>1.034671230358061</v>
       </c>
       <c r="F4">
-        <v>1.028606719756859</v>
+        <v>1.046752020643539</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044013325950734</v>
+        <v>1.052104022185757</v>
       </c>
       <c r="J4">
-        <v>1.025509778640125</v>
+        <v>1.039901998953868</v>
       </c>
       <c r="K4">
-        <v>1.031918745623269</v>
+        <v>1.048725383857742</v>
       </c>
       <c r="L4">
-        <v>1.029971106521796</v>
+        <v>1.04436846518781</v>
       </c>
       <c r="M4">
-        <v>1.038371723917548</v>
+        <v>1.056317125890744</v>
       </c>
       <c r="N4">
-        <v>1.012003308461775</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.017151052894872</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.053143509298473</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.045521556941368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.007776848116328</v>
+        <v>1.021851481085915</v>
       </c>
       <c r="D5">
-        <v>1.023193161695251</v>
+        <v>1.039628366784445</v>
       </c>
       <c r="E5">
-        <v>1.021413580045432</v>
+        <v>1.035305217502965</v>
       </c>
       <c r="F5">
-        <v>1.030057249353024</v>
+        <v>1.047359656681463</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044393248596185</v>
+        <v>1.052272399803842</v>
       </c>
       <c r="J5">
-        <v>1.026533720578418</v>
+        <v>1.040271711189714</v>
       </c>
       <c r="K5">
-        <v>1.032801707098497</v>
+        <v>1.04905771236421</v>
       </c>
       <c r="L5">
-        <v>1.03104195468144</v>
+        <v>1.044781023920166</v>
       </c>
       <c r="M5">
-        <v>1.039590098943564</v>
+        <v>1.056707083386885</v>
       </c>
       <c r="N5">
-        <v>1.012357312952853</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.017276216302023</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.053452129156392</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.045763652442911</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008029503128028</v>
+        <v>1.021993438566532</v>
       </c>
       <c r="D6">
-        <v>1.023379259241776</v>
+        <v>1.039724955285038</v>
       </c>
       <c r="E6">
-        <v>1.02163160058149</v>
+        <v>1.035414190758862</v>
       </c>
       <c r="F6">
-        <v>1.030299756586482</v>
+        <v>1.047464329134572</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044456575235929</v>
+        <v>1.052302655298811</v>
       </c>
       <c r="J6">
-        <v>1.026704789787003</v>
+        <v>1.040336465750342</v>
       </c>
       <c r="K6">
-        <v>1.032949179112662</v>
+        <v>1.049117473216163</v>
       </c>
       <c r="L6">
-        <v>1.031220901085782</v>
+        <v>1.044852827456352</v>
       </c>
       <c r="M6">
-        <v>1.039793724248881</v>
+        <v>1.056775211324312</v>
       </c>
       <c r="N6">
-        <v>1.012416444481313</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.017298378617907</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.053506046902633</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.045814584809816</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006285267516863</v>
+        <v>1.021040182898456</v>
       </c>
       <c r="D7">
-        <v>1.022094631251062</v>
+        <v>1.0390953654982</v>
       </c>
       <c r="E7">
-        <v>1.020126964179705</v>
+        <v>1.034687115872657</v>
       </c>
       <c r="F7">
-        <v>1.028626172189457</v>
+        <v>1.046767822969553</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044018433739915</v>
+        <v>1.052112080803917</v>
       </c>
       <c r="J7">
-        <v>1.025523518272084</v>
+        <v>1.039914673523439</v>
       </c>
       <c r="K7">
-        <v>1.031930596451808</v>
+        <v>1.048740923917761</v>
       </c>
       <c r="L7">
-        <v>1.029985472827379</v>
+        <v>1.044381307303788</v>
       </c>
       <c r="M7">
-        <v>1.038388067663327</v>
+        <v>1.056329934597468</v>
       </c>
       <c r="N7">
-        <v>1.012008059407965</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.017155996984746</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.053153646357178</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.04555250154884</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9988154433801382</v>
+        <v>1.016989164188117</v>
       </c>
       <c r="D8">
-        <v>1.016596724441358</v>
+        <v>1.036422991288115</v>
       </c>
       <c r="E8">
-        <v>1.013696196632763</v>
+        <v>1.031607732740942</v>
       </c>
       <c r="F8">
-        <v>1.021474340306596</v>
+        <v>1.043818727880187</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042118213459918</v>
+        <v>1.051284690260744</v>
       </c>
       <c r="J8">
-        <v>1.020458062994936</v>
+        <v>1.03811576840361</v>
       </c>
       <c r="K8">
-        <v>1.027556479250258</v>
+        <v>1.047131196582847</v>
       </c>
       <c r="L8">
-        <v>1.024693785962845</v>
+        <v>1.0423759240293</v>
       </c>
       <c r="M8">
-        <v>1.032371077241211</v>
+        <v>1.054436140570163</v>
       </c>
       <c r="N8">
-        <v>1.010255186208315</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.016548114359112</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.051654859585404</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.04441883577908</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9849088459141032</v>
+        <v>1.009602281831708</v>
       </c>
       <c r="D9">
-        <v>1.006381359547873</v>
+        <v>1.03157584768043</v>
       </c>
       <c r="E9">
-        <v>1.001778560061842</v>
+        <v>1.026036860089944</v>
       </c>
       <c r="F9">
-        <v>1.008223496405336</v>
+        <v>1.038488186045404</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038492321129645</v>
+        <v>1.049718964208081</v>
       </c>
       <c r="J9">
-        <v>1.011006002565415</v>
+        <v>1.034820456617433</v>
       </c>
       <c r="K9">
-        <v>1.019371745180938</v>
+        <v>1.044176590193354</v>
       </c>
       <c r="L9">
-        <v>1.014842847127088</v>
+        <v>1.038721173620253</v>
       </c>
       <c r="M9">
-        <v>1.02118454735924</v>
+        <v>1.050986225065147</v>
       </c>
       <c r="N9">
-        <v>1.006978659190488</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.015433429448572</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.048924519200843</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.042326617760945</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9750659433946364</v>
+        <v>1.004549040559122</v>
       </c>
       <c r="D10">
-        <v>0.9991711320778104</v>
+        <v>1.02830479358712</v>
       </c>
       <c r="E10">
-        <v>0.9933853095974031</v>
+        <v>1.022282553448977</v>
       </c>
       <c r="F10">
-        <v>0.9988925725849035</v>
+        <v>1.034936290274237</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035869755965888</v>
+        <v>1.048634740826089</v>
       </c>
       <c r="J10">
-        <v>1.00430499082398</v>
+        <v>1.032583328183668</v>
       </c>
       <c r="K10">
-        <v>1.013555368134977</v>
+        <v>1.042181134591197</v>
       </c>
       <c r="L10">
-        <v>1.007875030277416</v>
+        <v>1.036260816159722</v>
       </c>
       <c r="M10">
-        <v>1.013281850804683</v>
+        <v>1.048702164356989</v>
       </c>
       <c r="N10">
-        <v>1.004652619361799</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.014679865622377</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.047167758585391</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.040932416931507</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9706502271362536</v>
+        <v>1.00264347343255</v>
       </c>
       <c r="D11">
-        <v>0.9959428176314936</v>
+        <v>1.027223862344069</v>
       </c>
       <c r="E11">
-        <v>0.9896310817021003</v>
+        <v>1.021062309089289</v>
       </c>
       <c r="F11">
-        <v>0.9947190349623958</v>
+        <v>1.034074898443003</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034680770065283</v>
+        <v>1.048366663037832</v>
       </c>
       <c r="J11">
-        <v>1.001297099059594</v>
+        <v>1.031906692823316</v>
       </c>
       <c r="K11">
-        <v>1.010941654219147</v>
+        <v>1.041650011756952</v>
       </c>
       <c r="L11">
-        <v>1.00475122609969</v>
+        <v>1.035597659625716</v>
       </c>
       <c r="M11">
-        <v>1.009741234489268</v>
+        <v>1.048381603583541</v>
       </c>
       <c r="N11">
-        <v>1.003607944041931</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.014477574665089</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.047345862407</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.040589496012993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9689852370479812</v>
+        <v>1.002045729432768</v>
       </c>
       <c r="D12">
-        <v>0.9947266455454743</v>
+        <v>1.026943049664897</v>
       </c>
       <c r="E12">
-        <v>0.9882172990762739</v>
+        <v>1.020759465931947</v>
       </c>
       <c r="F12">
-        <v>0.9931473446259778</v>
+        <v>1.03400419970144</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034230661256971</v>
+        <v>1.048342058927821</v>
       </c>
       <c r="J12">
-        <v>1.00016277416107</v>
+        <v>1.031763761953465</v>
       </c>
       <c r="K12">
-        <v>1.009955576887653</v>
+        <v>1.041571648519463</v>
       </c>
       <c r="L12">
-        <v>1.003573772925483</v>
+        <v>1.03549946911933</v>
       </c>
       <c r="M12">
-        <v>1.00840701891858</v>
+        <v>1.048507695612499</v>
       </c>
       <c r="N12">
-        <v>1.003213907248064</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.014449863156873</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.047768973146325</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.040534091446836</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9693435344304503</v>
+        <v>1.002424317727372</v>
       </c>
       <c r="D13">
-        <v>0.9949883076374169</v>
+        <v>1.027273323966383</v>
       </c>
       <c r="E13">
-        <v>0.9885214553158744</v>
+        <v>1.021152608257062</v>
       </c>
       <c r="F13">
-        <v>0.9934854729800309</v>
+        <v>1.034555548342574</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03432760184204</v>
+        <v>1.048514725838096</v>
       </c>
       <c r="J13">
-        <v>1.000406881313058</v>
+        <v>1.032034182157648</v>
       </c>
       <c r="K13">
-        <v>1.01016779875561</v>
+        <v>1.041853676631924</v>
       </c>
       <c r="L13">
-        <v>1.00382713481239</v>
+        <v>1.035842763706106</v>
       </c>
       <c r="M13">
-        <v>1.008694096981567</v>
+        <v>1.049007453461698</v>
       </c>
       <c r="N13">
-        <v>1.003298707156049</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.0145596552237</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.048438526935829</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.040731017914213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9705131148485849</v>
+        <v>1.003133196867316</v>
       </c>
       <c r="D14">
-        <v>0.9958426424725495</v>
+        <v>1.027783284439935</v>
       </c>
       <c r="E14">
-        <v>0.9895146194502727</v>
+        <v>1.021744029924452</v>
       </c>
       <c r="F14">
-        <v>0.9945895650036031</v>
+        <v>1.035224450549246</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034643739361521</v>
+        <v>1.04872554126304</v>
       </c>
       <c r="J14">
-        <v>1.00120369008842</v>
+        <v>1.032411678264912</v>
       </c>
       <c r="K14">
-        <v>1.010860461071096</v>
+        <v>1.042215911043923</v>
       </c>
       <c r="L14">
-        <v>1.00465425371881</v>
+        <v>1.036283661281478</v>
       </c>
       <c r="M14">
-        <v>1.009631344485116</v>
+        <v>1.049527453558309</v>
       </c>
       <c r="N14">
-        <v>1.003575497433369</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.014699235379923</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.049021661922866</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.040988539635631</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9712303922471045</v>
+        <v>1.003521907500302</v>
       </c>
       <c r="D15">
-        <v>0.996366735671622</v>
+        <v>1.028046981253094</v>
       </c>
       <c r="E15">
-        <v>0.9901239434464404</v>
+        <v>1.022046017432826</v>
       </c>
       <c r="F15">
-        <v>0.9952669443925219</v>
+        <v>1.035534492389031</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034837386235532</v>
+        <v>1.04882363775184</v>
       </c>
       <c r="J15">
-        <v>1.001692335358759</v>
+        <v>1.032598694579941</v>
       </c>
       <c r="K15">
-        <v>1.011285186160116</v>
+        <v>1.042389569381437</v>
       </c>
       <c r="L15">
-        <v>1.005161563876499</v>
+        <v>1.036494131665782</v>
       </c>
       <c r="M15">
-        <v>1.010206247167803</v>
+        <v>1.049747629958567</v>
       </c>
       <c r="N15">
-        <v>1.003745230740983</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.014765115920928</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.049232981857093</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.041117146170933</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9753556200804996</v>
+        <v>1.005584068438456</v>
       </c>
       <c r="D16">
-        <v>0.9993830571579234</v>
+        <v>1.029370284520193</v>
       </c>
       <c r="E16">
-        <v>0.9936318325329384</v>
+        <v>1.023560269257131</v>
       </c>
       <c r="F16">
-        <v>0.9991666303366932</v>
+        <v>1.036955001403209</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035947503044754</v>
+        <v>1.049263504354318</v>
       </c>
       <c r="J16">
-        <v>1.00450228431173</v>
+        <v>1.03350179187896</v>
       </c>
       <c r="K16">
-        <v>1.013726749111411</v>
+        <v>1.043193570778296</v>
       </c>
       <c r="L16">
-        <v>1.008080007090919</v>
+        <v>1.037481309967855</v>
       </c>
       <c r="M16">
-        <v>1.01351422580721</v>
+        <v>1.050652793101362</v>
       </c>
       <c r="N16">
-        <v>1.004721130781609</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.015066040388378</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.049909963088764</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.041688740606277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9779009680194179</v>
+        <v>1.006797083684295</v>
       </c>
       <c r="D17">
-        <v>1.001245947176823</v>
+        <v>1.030119971882183</v>
       </c>
       <c r="E17">
-        <v>0.9957992708929112</v>
+        <v>1.024413737014972</v>
       </c>
       <c r="F17">
-        <v>1.001576165452186</v>
+        <v>1.037691459446382</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036629253131932</v>
+        <v>1.049488480716361</v>
       </c>
       <c r="J17">
-        <v>1.006235692365205</v>
+        <v>1.03399654277271</v>
       </c>
       <c r="K17">
-        <v>1.015232165637102</v>
+        <v>1.04361972445978</v>
       </c>
       <c r="L17">
-        <v>1.009881357193704</v>
+        <v>1.038006830314471</v>
       </c>
       <c r="M17">
-        <v>1.015556615103448</v>
+        <v>1.051069391259566</v>
       </c>
       <c r="N17">
-        <v>1.005323003435543</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.015223567237935</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.050111120521121</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.04199261332364</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9793709228588082</v>
+        <v>1.007384895202849</v>
       </c>
       <c r="D18">
-        <v>1.002322366361533</v>
+        <v>1.030427593272655</v>
       </c>
       <c r="E18">
-        <v>0.9970520255991983</v>
+        <v>1.024758452208466</v>
       </c>
       <c r="F18">
-        <v>1.00296886033533</v>
+        <v>1.037871489683807</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037021786417833</v>
+        <v>1.049539908258208</v>
       </c>
       <c r="J18">
-        <v>1.007236581369995</v>
+        <v>1.034171784170072</v>
       </c>
       <c r="K18">
-        <v>1.016101132786349</v>
+        <v>1.043740992805885</v>
       </c>
       <c r="L18">
-        <v>1.010921839684567</v>
+        <v>1.038163082393452</v>
       </c>
       <c r="M18">
-        <v>1.0167365434094</v>
+        <v>1.051067034636151</v>
       </c>
       <c r="N18">
-        <v>1.005670475331949</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.015266716556019</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.049873449895422</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.042066805602993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.979869694727049</v>
+        <v>1.007416241182177</v>
       </c>
       <c r="D19">
-        <v>1.002687702895112</v>
+        <v>1.030349516247521</v>
       </c>
       <c r="E19">
-        <v>0.9974772731657211</v>
+        <v>1.024649375187032</v>
       </c>
       <c r="F19">
-        <v>1.003441612974043</v>
+        <v>1.037554451637327</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037154774499705</v>
+        <v>1.049443983850081</v>
       </c>
       <c r="J19">
-        <v>1.007576163583518</v>
+        <v>1.034068962940453</v>
       </c>
       <c r="K19">
-        <v>1.016395908513754</v>
+        <v>1.043602314877633</v>
       </c>
       <c r="L19">
-        <v>1.011274916612412</v>
+        <v>1.03799343606808</v>
       </c>
       <c r="M19">
-        <v>1.017136976934957</v>
+        <v>1.050693730118451</v>
       </c>
       <c r="N19">
-        <v>1.005788355868673</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.015212642012336</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.049255708377304</v>
+      </c>
+      <c r="Q19">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R19">
+        <v>1.041975103815781</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9776294089543005</v>
+        <v>1.005876623722163</v>
       </c>
       <c r="D20">
-        <v>1.001047136380116</v>
+        <v>1.029177797093275</v>
       </c>
       <c r="E20">
-        <v>0.9955679211124407</v>
+        <v>1.023271375349389</v>
       </c>
       <c r="F20">
-        <v>1.001318973534297</v>
+        <v>1.035874734632675</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036556640463241</v>
+        <v>1.048933005702688</v>
       </c>
       <c r="J20">
-        <v>1.006050774442293</v>
+        <v>1.03318287594195</v>
       </c>
       <c r="K20">
-        <v>1.015071598113497</v>
+        <v>1.042726285374794</v>
       </c>
       <c r="L20">
-        <v>1.00968915356128</v>
+        <v>1.036917006603474</v>
       </c>
       <c r="M20">
-        <v>1.01533866996433</v>
+        <v>1.049314797365594</v>
       </c>
       <c r="N20">
-        <v>1.00525880208822</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.014883859046588</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.047642148219659</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.041359615091267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9701694016297105</v>
+        <v>1.002033580063855</v>
       </c>
       <c r="D21">
-        <v>0.9955915414405692</v>
+        <v>1.026668792721058</v>
       </c>
       <c r="E21">
-        <v>0.9892227009153799</v>
+        <v>1.020391284399859</v>
       </c>
       <c r="F21">
-        <v>0.994265041892097</v>
+        <v>1.033094204732697</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034550882235528</v>
+        <v>1.048067695311734</v>
       </c>
       <c r="J21">
-        <v>1.000969529963008</v>
+        <v>1.031446523498319</v>
       </c>
       <c r="K21">
-        <v>1.010656917527418</v>
+        <v>1.041161938605843</v>
       </c>
       <c r="L21">
-        <v>1.004411170166253</v>
+        <v>1.034996368692289</v>
       </c>
       <c r="M21">
-        <v>1.00935588551306</v>
+        <v>1.047474598758919</v>
       </c>
       <c r="N21">
-        <v>1.003494158281815</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.014294185407118</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.046145329203658</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.040256776225029</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9653345620875524</v>
+        <v>0.9995893542723516</v>
       </c>
       <c r="D22">
-        <v>0.9920622422599417</v>
+        <v>1.025082017048294</v>
       </c>
       <c r="E22">
-        <v>0.9851208465875995</v>
+        <v>1.018577161825142</v>
       </c>
       <c r="F22">
-        <v>0.9897050193138768</v>
+        <v>1.031361491822162</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033240546306251</v>
+        <v>1.047515908410157</v>
       </c>
       <c r="J22">
-        <v>0.9976754289462667</v>
+        <v>1.03034758144441</v>
       </c>
       <c r="K22">
-        <v>1.007792604964454</v>
+        <v>1.040172448692773</v>
       </c>
       <c r="L22">
-        <v>1.000992939495122</v>
+        <v>1.03378937118506</v>
       </c>
       <c r="M22">
-        <v>1.005483218238015</v>
+        <v>1.046336262135323</v>
       </c>
       <c r="N22">
-        <v>1.002349747261185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.013921635071187</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.0452444185212</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.039543762839806</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9679119083178065</v>
+        <v>1.000881509034331</v>
       </c>
       <c r="D23">
-        <v>0.9939429734361394</v>
+        <v>1.025915077779365</v>
       </c>
       <c r="E23">
-        <v>0.9873064285194481</v>
+        <v>1.019534086115683</v>
       </c>
       <c r="F23">
-        <v>0.9921347344559724</v>
+        <v>1.032274994809402</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03394000672829</v>
+        <v>1.047804583268424</v>
       </c>
       <c r="J23">
-        <v>0.9994314999267414</v>
+        <v>1.030924831427577</v>
       </c>
       <c r="K23">
-        <v>1.009319765316689</v>
+        <v>1.040688715858978</v>
       </c>
       <c r="L23">
-        <v>1.002814860324669</v>
+        <v>1.03442416506753</v>
       </c>
       <c r="M23">
-        <v>1.007547164585101</v>
+        <v>1.046934435946538</v>
       </c>
       <c r="N23">
-        <v>1.002959861835181</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.014116619012188</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.045717829744326</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.039899216288428</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9777521601187698</v>
+        <v>1.005897391384044</v>
       </c>
       <c r="D24">
-        <v>1.001137001780301</v>
+        <v>1.029169176712279</v>
       </c>
       <c r="E24">
-        <v>0.9956724934878805</v>
+        <v>1.023266344136336</v>
       </c>
       <c r="F24">
-        <v>1.001435226774448</v>
+        <v>1.035840379367638</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036589466792145</v>
+        <v>1.048917817078702</v>
       </c>
       <c r="J24">
-        <v>1.006134362266499</v>
+        <v>1.033170300871295</v>
       </c>
       <c r="K24">
-        <v>1.015144179771197</v>
+        <v>1.042702706551972</v>
       </c>
       <c r="L24">
-        <v>1.009776033594045</v>
+        <v>1.036896835344534</v>
       </c>
       <c r="M24">
-        <v>1.015437185014386</v>
+        <v>1.049266032525654</v>
       </c>
       <c r="N24">
-        <v>1.005287822981461</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.014876295305074</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.047563116563148</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.041315739132923</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9885991859637389</v>
+        <v>1.011553725580851</v>
       </c>
       <c r="D25">
-        <v>1.009089215061908</v>
+        <v>1.032861215329404</v>
       </c>
       <c r="E25">
-        <v>1.004934287469836</v>
+        <v>1.027505195960795</v>
       </c>
       <c r="F25">
-        <v>1.01173197112765</v>
+        <v>1.039893288874949</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039464415337371</v>
+        <v>1.050144783410447</v>
       </c>
       <c r="J25">
-        <v>1.013516420310731</v>
+        <v>1.035698420210716</v>
       </c>
       <c r="K25">
-        <v>1.021548052410237</v>
+        <v>1.044969955128775</v>
       </c>
       <c r="L25">
-        <v>1.01745648486399</v>
+        <v>1.039691023221797</v>
       </c>
       <c r="M25">
-        <v>1.024150852907718</v>
+        <v>1.051902341614895</v>
       </c>
       <c r="N25">
-        <v>1.007849479867804</v>
+        <v>1.015731541109404</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.04964955532704</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.042915938402023</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_42/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_42/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.015920304289518</v>
+        <v>1.015129720248892</v>
       </c>
       <c r="D2">
-        <v>1.035712484333017</v>
+        <v>1.034288691873572</v>
       </c>
       <c r="E2">
-        <v>1.030796475488026</v>
+        <v>1.030052558008148</v>
       </c>
       <c r="F2">
-        <v>1.043041453465642</v>
+        <v>1.042138928128986</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.05105752021731</v>
+        <v>1.050428384159839</v>
       </c>
       <c r="J2">
-        <v>1.03763504944167</v>
+        <v>1.03686713264814</v>
       </c>
       <c r="K2">
-        <v>1.046695736058612</v>
+        <v>1.045290137461822</v>
       </c>
       <c r="L2">
-        <v>1.041842812413927</v>
+        <v>1.041108506964841</v>
       </c>
       <c r="M2">
-        <v>1.053932032371711</v>
+        <v>1.053040831450534</v>
       </c>
       <c r="N2">
-        <v>1.016384763382085</v>
+        <v>1.01693159947566</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.051255897690741</v>
+        <v>1.050550581904886</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.04408820065815</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.043103046326282</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024052129314732</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.019035280074027</v>
+        <v>1.018156963096005</v>
       </c>
       <c r="D3">
-        <v>1.037764345190195</v>
+        <v>1.036220942958154</v>
       </c>
       <c r="E3">
-        <v>1.033159193067388</v>
+        <v>1.032335909179512</v>
       </c>
       <c r="F3">
-        <v>1.045303641045425</v>
+        <v>1.044319238657614</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.051700584808145</v>
+        <v>1.051011081633172</v>
       </c>
       <c r="J3">
-        <v>1.039020140243607</v>
+        <v>1.038164598336466</v>
       </c>
       <c r="K3">
-        <v>1.047935792293615</v>
+        <v>1.046410432543834</v>
       </c>
       <c r="L3">
-        <v>1.043384672266245</v>
+        <v>1.042571110848361</v>
       </c>
       <c r="M3">
-        <v>1.055387898691171</v>
+        <v>1.054414792363088</v>
       </c>
       <c r="N3">
-        <v>1.016852968198105</v>
+        <v>1.01727991302068</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.052408100522774</v>
+        <v>1.051637964166919</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.044962368185833</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.043892260625832</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024255399455187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021021148334724</v>
+        <v>1.0200873585232</v>
       </c>
       <c r="D4">
-        <v>1.039076770314141</v>
+        <v>1.037457375272075</v>
       </c>
       <c r="E4">
-        <v>1.034671230358061</v>
+        <v>1.033797695525275</v>
       </c>
       <c r="F4">
-        <v>1.046752020643539</v>
+        <v>1.04571569692057</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.052104022185757</v>
+        <v>1.051376146889262</v>
       </c>
       <c r="J4">
-        <v>1.039901998953868</v>
+        <v>1.038990820504779</v>
       </c>
       <c r="K4">
-        <v>1.048725383857742</v>
+        <v>1.047123802117742</v>
       </c>
       <c r="L4">
-        <v>1.04436846518781</v>
+        <v>1.043504631583365</v>
       </c>
       <c r="M4">
-        <v>1.056317125890744</v>
+        <v>1.055291989796877</v>
       </c>
       <c r="N4">
-        <v>1.017151052894872</v>
+        <v>1.017501741639725</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.053143509298473</v>
+        <v>1.052332196286918</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.045521556941368</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.044397638543899</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024382653259625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021851481085915</v>
+        <v>1.020894616179641</v>
       </c>
       <c r="D5">
-        <v>1.039628366784445</v>
+        <v>1.037977322162752</v>
       </c>
       <c r="E5">
-        <v>1.035305217502965</v>
+        <v>1.034410770015226</v>
       </c>
       <c r="F5">
-        <v>1.047359656681463</v>
+        <v>1.046301719272565</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.052272399803842</v>
+        <v>1.051528528381029</v>
       </c>
       <c r="J5">
-        <v>1.040271711189714</v>
+        <v>1.03933733899906</v>
       </c>
       <c r="K5">
-        <v>1.04905771236421</v>
+        <v>1.047424355531228</v>
       </c>
       <c r="L5">
-        <v>1.044781023920166</v>
+        <v>1.043896248509114</v>
       </c>
       <c r="M5">
-        <v>1.056707083386885</v>
+        <v>1.055660268207151</v>
       </c>
       <c r="N5">
-        <v>1.017276216302023</v>
+        <v>1.017594938971043</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.053452129156392</v>
+        <v>1.052623659216582</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.045763652442911</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.044617977118053</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024436169381134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021993438566532</v>
+        <v>1.021032651326106</v>
       </c>
       <c r="D6">
-        <v>1.039724955285038</v>
+        <v>1.038068579947933</v>
       </c>
       <c r="E6">
-        <v>1.035414190758862</v>
+        <v>1.034516193253314</v>
       </c>
       <c r="F6">
-        <v>1.047464329134572</v>
+        <v>1.046402737941476</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.052302655298811</v>
+        <v>1.051556076061045</v>
       </c>
       <c r="J6">
-        <v>1.040336465750342</v>
+        <v>1.039398149801828</v>
       </c>
       <c r="K6">
-        <v>1.049117473216163</v>
+        <v>1.047478763136862</v>
       </c>
       <c r="L6">
-        <v>1.044852827456352</v>
+        <v>1.043964496477499</v>
       </c>
       <c r="M6">
-        <v>1.056775211324312</v>
+        <v>1.055724730575791</v>
       </c>
       <c r="N6">
-        <v>1.017298378617907</v>
+        <v>1.017611485415921</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.053506046902633</v>
+        <v>1.052674676018054</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.045814584809816</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.044665991631806</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024446351415626</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021040182898456</v>
+        <v>1.020112010893567</v>
       </c>
       <c r="D7">
-        <v>1.0390953654982</v>
+        <v>1.037479729555318</v>
       </c>
       <c r="E7">
-        <v>1.034687115872657</v>
+        <v>1.033818139156813</v>
       </c>
       <c r="F7">
-        <v>1.046767822969553</v>
+        <v>1.045734938597898</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.052112080803917</v>
+        <v>1.051386813782301</v>
       </c>
       <c r="J7">
-        <v>1.039914673523439</v>
+        <v>1.039008967375368</v>
       </c>
       <c r="K7">
-        <v>1.048740923917761</v>
+        <v>1.047143053153306</v>
       </c>
       <c r="L7">
-        <v>1.044381307303788</v>
+        <v>1.043521977564141</v>
       </c>
       <c r="M7">
-        <v>1.056329934597468</v>
+        <v>1.055308196565621</v>
       </c>
       <c r="N7">
-        <v>1.017155996984746</v>
+        <v>1.017532816670919</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.053153646357178</v>
+        <v>1.05234502265154</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.04555250154884</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.044433202263242</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024388031907119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016989164188117</v>
+        <v>1.01618716146003</v>
       </c>
       <c r="D8">
-        <v>1.036422991288115</v>
+        <v>1.034971520161871</v>
       </c>
       <c r="E8">
-        <v>1.031607732740942</v>
+        <v>1.030851886173983</v>
       </c>
       <c r="F8">
-        <v>1.043818727880187</v>
+        <v>1.042899973830963</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.051284690260744</v>
+        <v>1.050643841828564</v>
       </c>
       <c r="J8">
-        <v>1.03811576840361</v>
+        <v>1.037336006391415</v>
       </c>
       <c r="K8">
-        <v>1.047131196582847</v>
+        <v>1.045697733926262</v>
       </c>
       <c r="L8">
-        <v>1.0423759240293</v>
+        <v>1.041629556860693</v>
       </c>
       <c r="M8">
-        <v>1.054436140570163</v>
+        <v>1.053528578388247</v>
       </c>
       <c r="N8">
-        <v>1.016548114359112</v>
+        <v>1.017136171037719</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.051654859585404</v>
+        <v>1.050936595518426</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.04441883577908</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.043416243824551</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024129891742886</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.009602281831708</v>
+        <v>1.009013834749242</v>
       </c>
       <c r="D9">
-        <v>1.03157584768043</v>
+        <v>1.030411320374307</v>
       </c>
       <c r="E9">
-        <v>1.026036860089944</v>
+        <v>1.02547348748014</v>
       </c>
       <c r="F9">
-        <v>1.038488186045404</v>
+        <v>1.037766933802261</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.049718964208081</v>
+        <v>1.04922318584545</v>
       </c>
       <c r="J9">
-        <v>1.034820456617433</v>
+        <v>1.034252257876052</v>
       </c>
       <c r="K9">
-        <v>1.044176590193354</v>
+        <v>1.043029538063895</v>
       </c>
       <c r="L9">
-        <v>1.038721173620253</v>
+        <v>1.038166365527827</v>
       </c>
       <c r="M9">
-        <v>1.050986225065147</v>
+        <v>1.050275607968767</v>
       </c>
       <c r="N9">
-        <v>1.015433429448572</v>
+        <v>1.016317268802958</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.048924519200843</v>
+        <v>1.048362119675253</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.042326617760945</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.041526247868844</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023632268218044</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.004549040559122</v>
+        <v>1.004134472185362</v>
       </c>
       <c r="D10">
-        <v>1.02830479358712</v>
+        <v>1.027354776107466</v>
       </c>
       <c r="E10">
-        <v>1.022282553448977</v>
+        <v>1.021873010022757</v>
       </c>
       <c r="F10">
-        <v>1.034936290274237</v>
+        <v>1.03436718429693</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.048634740826089</v>
+        <v>1.048250334866182</v>
       </c>
       <c r="J10">
-        <v>1.032583328183668</v>
+        <v>1.032185007593787</v>
       </c>
       <c r="K10">
-        <v>1.042181134591197</v>
+        <v>1.041247093037004</v>
       </c>
       <c r="L10">
-        <v>1.036260816159722</v>
+        <v>1.035858260288013</v>
       </c>
       <c r="M10">
-        <v>1.048702164356989</v>
+        <v>1.048142466984598</v>
       </c>
       <c r="N10">
-        <v>1.014679865622377</v>
+        <v>1.01588054537097</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.047167758585391</v>
+        <v>1.046724826612534</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.040932416931507</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.040284328466331</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023295918746818</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.00264347343255</v>
+        <v>1.00232000505371</v>
       </c>
       <c r="D11">
-        <v>1.027223862344069</v>
+        <v>1.026364719442287</v>
       </c>
       <c r="E11">
-        <v>1.021062309089289</v>
+        <v>1.020729120206846</v>
       </c>
       <c r="F11">
-        <v>1.034074898443003</v>
+        <v>1.033575479586558</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048366663037832</v>
+        <v>1.048032424168096</v>
       </c>
       <c r="J11">
-        <v>1.031906692823316</v>
+        <v>1.031596586587011</v>
       </c>
       <c r="K11">
-        <v>1.041650011756952</v>
+        <v>1.04080599344796</v>
       </c>
       <c r="L11">
-        <v>1.035597659625716</v>
+        <v>1.035270424637752</v>
       </c>
       <c r="M11">
-        <v>1.048381603583541</v>
+        <v>1.047890822609516</v>
       </c>
       <c r="N11">
-        <v>1.014477574665089</v>
+        <v>1.015968259832976</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.047345862407</v>
+        <v>1.046957660795976</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.040589496012993</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.040008267206704</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023250739121327</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.002045729432768</v>
+        <v>1.001748675704464</v>
       </c>
       <c r="D12">
-        <v>1.026943049664897</v>
+        <v>1.02610709465166</v>
       </c>
       <c r="E12">
-        <v>1.020759465931947</v>
+        <v>1.020447138227269</v>
       </c>
       <c r="F12">
-        <v>1.03400419970144</v>
+        <v>1.033523357554305</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.048342058927821</v>
+        <v>1.048020481543683</v>
       </c>
       <c r="J12">
-        <v>1.031763761953465</v>
+        <v>1.031479212374033</v>
       </c>
       <c r="K12">
-        <v>1.041571648519463</v>
+        <v>1.040750652241849</v>
       </c>
       <c r="L12">
-        <v>1.03549946911933</v>
+        <v>1.035192814958565</v>
       </c>
       <c r="M12">
-        <v>1.048507695612499</v>
+        <v>1.048035302281506</v>
       </c>
       <c r="N12">
-        <v>1.014449863156873</v>
+        <v>1.016052237464114</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.047768973146325</v>
+        <v>1.047395440110101</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.040534091446836</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.039969140484575</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023267427333584</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.002424317727372</v>
+        <v>1.00209676342867</v>
       </c>
       <c r="D13">
-        <v>1.027273323966383</v>
+        <v>1.026403631831854</v>
       </c>
       <c r="E13">
-        <v>1.021152608257062</v>
+        <v>1.020812692707228</v>
       </c>
       <c r="F13">
-        <v>1.034555548342574</v>
+        <v>1.034049584760244</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.048514725838096</v>
+        <v>1.048173663602907</v>
       </c>
       <c r="J13">
-        <v>1.032034182157648</v>
+        <v>1.031720351310743</v>
       </c>
       <c r="K13">
-        <v>1.041853676631924</v>
+        <v>1.040999482741457</v>
       </c>
       <c r="L13">
-        <v>1.035842763706106</v>
+        <v>1.035508996269532</v>
       </c>
       <c r="M13">
-        <v>1.049007453461698</v>
+        <v>1.048510338559785</v>
       </c>
       <c r="N13">
-        <v>1.0145596552237</v>
+        <v>1.016107355727824</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.048438526935829</v>
+        <v>1.048045543219635</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.040731017914213</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.040142349878586</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023337171106476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.003133196867316</v>
+        <v>1.002758940093793</v>
       </c>
       <c r="D14">
-        <v>1.027783284439935</v>
+        <v>1.026864582121571</v>
       </c>
       <c r="E14">
-        <v>1.021744029924452</v>
+        <v>1.021363311356162</v>
       </c>
       <c r="F14">
-        <v>1.035224450549246</v>
+        <v>1.034681482429541</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.04872554126304</v>
+        <v>1.048356608255903</v>
       </c>
       <c r="J14">
-        <v>1.032411678264912</v>
+        <v>1.032052883361781</v>
       </c>
       <c r="K14">
-        <v>1.042215911043923</v>
+        <v>1.041313381246513</v>
       </c>
       <c r="L14">
-        <v>1.036283661281478</v>
+        <v>1.035909743422968</v>
       </c>
       <c r="M14">
-        <v>1.049527453558309</v>
+        <v>1.048993862261821</v>
       </c>
       <c r="N14">
-        <v>1.014699235379923</v>
+        <v>1.016134352497946</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.049021661922866</v>
+        <v>1.048599898862198</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.040988539635631</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.040365831251011</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023410618935898</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.003521907500302</v>
+        <v>1.00312431403498</v>
       </c>
       <c r="D15">
-        <v>1.028046981253094</v>
+        <v>1.027104149189076</v>
       </c>
       <c r="E15">
-        <v>1.022046017432826</v>
+        <v>1.021645182478209</v>
       </c>
       <c r="F15">
-        <v>1.035534492389031</v>
+        <v>1.034973252799842</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.04882363775184</v>
+        <v>1.048441129405587</v>
       </c>
       <c r="J15">
-        <v>1.032598694579941</v>
+        <v>1.032217387077906</v>
       </c>
       <c r="K15">
-        <v>1.042389569381437</v>
+        <v>1.041463211121397</v>
       </c>
       <c r="L15">
-        <v>1.036494131665782</v>
+        <v>1.03610040264181</v>
       </c>
       <c r="M15">
-        <v>1.049747629958567</v>
+        <v>1.049196009638039</v>
       </c>
       <c r="N15">
-        <v>1.014765115920928</v>
+        <v>1.016138980048573</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.049232981857093</v>
+        <v>1.048796979622608</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.041117146170933</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.040478159110831</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023442236514247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.005584068438456</v>
+        <v>1.005078374954325</v>
       </c>
       <c r="D16">
-        <v>1.029370284520193</v>
+        <v>1.028314642852732</v>
       </c>
       <c r="E16">
-        <v>1.023560269257131</v>
+        <v>1.023067065021317</v>
       </c>
       <c r="F16">
-        <v>1.036955001403209</v>
+        <v>1.036308903137102</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.049263504354318</v>
+        <v>1.048818815388486</v>
       </c>
       <c r="J16">
-        <v>1.03350179187896</v>
+        <v>1.033015799254632</v>
       </c>
       <c r="K16">
-        <v>1.043193570778296</v>
+        <v>1.042155584610147</v>
       </c>
       <c r="L16">
-        <v>1.037481309967855</v>
+        <v>1.036996469969182</v>
       </c>
       <c r="M16">
-        <v>1.050652793101362</v>
+        <v>1.050017292948028</v>
       </c>
       <c r="N16">
-        <v>1.015066040388378</v>
+        <v>1.016145063340015</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.049909963088764</v>
+        <v>1.049407647920182</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.041688740606277</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.04097112998259</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023569663452901</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.006797083684295</v>
+        <v>1.006239731868125</v>
       </c>
       <c r="D17">
-        <v>1.030119971882183</v>
+        <v>1.02900821385795</v>
       </c>
       <c r="E17">
-        <v>1.024413737014972</v>
+        <v>1.023876459824437</v>
       </c>
       <c r="F17">
-        <v>1.037691459446382</v>
+        <v>1.037003853290538</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.049488480716361</v>
+        <v>1.049013747890585</v>
       </c>
       <c r="J17">
-        <v>1.03399654277271</v>
+        <v>1.03346022027126</v>
       </c>
       <c r="K17">
-        <v>1.04361972445978</v>
+        <v>1.042526047886399</v>
       </c>
       <c r="L17">
-        <v>1.038006830314471</v>
+        <v>1.037478410682373</v>
       </c>
       <c r="M17">
-        <v>1.051069391259566</v>
+        <v>1.050392754140003</v>
       </c>
       <c r="N17">
-        <v>1.015223567237935</v>
+        <v>1.016163976818658</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.050111120521121</v>
+        <v>1.049576237059015</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.04199261332364</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.041235876068681</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02362934349588</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.007384895202849</v>
+        <v>1.006811714630422</v>
       </c>
       <c r="D18">
-        <v>1.030427593272655</v>
+        <v>1.029298145154307</v>
       </c>
       <c r="E18">
-        <v>1.024758452208466</v>
+        <v>1.024208199095465</v>
       </c>
       <c r="F18">
-        <v>1.037871489683807</v>
+        <v>1.037170980461378</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.049539908258208</v>
+        <v>1.049056436594175</v>
       </c>
       <c r="J18">
-        <v>1.034171784170072</v>
+        <v>1.033619830737192</v>
       </c>
       <c r="K18">
-        <v>1.043740992805885</v>
+        <v>1.042629617530557</v>
       </c>
       <c r="L18">
-        <v>1.038163082393452</v>
+        <v>1.037621753281998</v>
       </c>
       <c r="M18">
-        <v>1.051067034636151</v>
+        <v>1.050377523874716</v>
       </c>
       <c r="N18">
-        <v>1.015266716556019</v>
+        <v>1.016154599451425</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.049873449895422</v>
+        <v>1.049328277832367</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.042066805602993</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.041296421494996</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023629254914011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.007416241182177</v>
+        <v>1.006854351561995</v>
       </c>
       <c r="D19">
-        <v>1.030349516247521</v>
+        <v>1.029233490853064</v>
       </c>
       <c r="E19">
-        <v>1.024649375187032</v>
+        <v>1.0241099653572</v>
       </c>
       <c r="F19">
-        <v>1.037554451637327</v>
+        <v>1.036863598881158</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.049443983850081</v>
+        <v>1.048968533808806</v>
       </c>
       <c r="J19">
-        <v>1.034068962940453</v>
+        <v>1.033527758721014</v>
       </c>
       <c r="K19">
-        <v>1.043602314877633</v>
+        <v>1.042504055639426</v>
       </c>
       <c r="L19">
-        <v>1.03799343606808</v>
+        <v>1.037462730005694</v>
       </c>
       <c r="M19">
-        <v>1.050693730118451</v>
+        <v>1.050013674905346</v>
       </c>
       <c r="N19">
-        <v>1.015212642012336</v>
+        <v>1.016104575661234</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.049255708377304</v>
+        <v>1.04871783981285</v>
       </c>
       <c r="Q19">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.041975103815781</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.041214617302564</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023579804246174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.005876623722163</v>
+        <v>1.005399232635805</v>
       </c>
       <c r="D20">
-        <v>1.029177797093275</v>
+        <v>1.028159650311234</v>
       </c>
       <c r="E20">
-        <v>1.023271375349389</v>
+        <v>1.022807398129761</v>
       </c>
       <c r="F20">
-        <v>1.035874734632675</v>
+        <v>1.035254888291861</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.048933005702688</v>
+        <v>1.048511195398127</v>
       </c>
       <c r="J20">
-        <v>1.03318287594195</v>
+        <v>1.032723597869322</v>
       </c>
       <c r="K20">
-        <v>1.042726285374794</v>
+        <v>1.041724781716234</v>
       </c>
       <c r="L20">
-        <v>1.036917006603474</v>
+        <v>1.036460721612941</v>
       </c>
       <c r="M20">
-        <v>1.049314797365594</v>
+        <v>1.048704910957423</v>
       </c>
       <c r="N20">
-        <v>1.014883859046588</v>
+        <v>1.015928581928937</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.047642148219659</v>
+        <v>1.047159492013867</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.041359615091267</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.040667926616659</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023388980870663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.002033580063855</v>
+        <v>1.001774688966676</v>
       </c>
       <c r="D21">
-        <v>1.026668792721058</v>
+        <v>1.025876346728462</v>
       </c>
       <c r="E21">
-        <v>1.020391284399859</v>
+        <v>1.020115449203895</v>
       </c>
       <c r="F21">
-        <v>1.033094204732697</v>
+        <v>1.032645737112564</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.048067695311734</v>
+        <v>1.047772669053315</v>
       </c>
       <c r="J21">
-        <v>1.031446523498319</v>
+        <v>1.031198398100123</v>
       </c>
       <c r="K21">
-        <v>1.041161938605843</v>
+        <v>1.040383525226086</v>
       </c>
       <c r="L21">
-        <v>1.034996368692289</v>
+        <v>1.034725493157897</v>
       </c>
       <c r="M21">
-        <v>1.047474598758919</v>
+        <v>1.047033941782657</v>
       </c>
       <c r="N21">
-        <v>1.014294185407118</v>
+        <v>1.015931331308164</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.046145329203658</v>
+        <v>1.045796581373017</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.040256776225029</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.039723144646202</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023131816977629</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9995893542723516</v>
+        <v>0.9994677007531654</v>
       </c>
       <c r="D22">
-        <v>1.025082017048294</v>
+        <v>1.024431508714713</v>
       </c>
       <c r="E22">
-        <v>1.018577161825142</v>
+        <v>1.018419566012993</v>
       </c>
       <c r="F22">
-        <v>1.031361491822162</v>
+        <v>1.031020967671053</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.047515908410157</v>
+        <v>1.047300623795607</v>
       </c>
       <c r="J22">
-        <v>1.03034758144441</v>
+        <v>1.030231274626508</v>
       </c>
       <c r="K22">
-        <v>1.040172448692773</v>
+        <v>1.039534027772929</v>
       </c>
       <c r="L22">
-        <v>1.03378937118506</v>
+        <v>1.03363475095464</v>
       </c>
       <c r="M22">
-        <v>1.046336262135323</v>
+        <v>1.046001963042315</v>
       </c>
       <c r="N22">
-        <v>1.013921635071187</v>
+        <v>1.015926704013067</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.0452444185212</v>
+        <v>1.044979844881974</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.039543762839806</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.0391078098994</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022967742568656</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.000881509034331</v>
+        <v>1.000677439017818</v>
       </c>
       <c r="D23">
-        <v>1.025915077779365</v>
+        <v>1.025182330903068</v>
       </c>
       <c r="E23">
-        <v>1.019534086115683</v>
+        <v>1.019305837050903</v>
       </c>
       <c r="F23">
-        <v>1.032274994809402</v>
+        <v>1.031871003357197</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.047804583268424</v>
+        <v>1.047542304347014</v>
       </c>
       <c r="J23">
-        <v>1.030924831427577</v>
+        <v>1.030729473107827</v>
       </c>
       <c r="K23">
-        <v>1.040688715858978</v>
+        <v>1.039969244386852</v>
       </c>
       <c r="L23">
-        <v>1.03442416506753</v>
+        <v>1.034200116299926</v>
       </c>
       <c r="M23">
-        <v>1.046934435946538</v>
+        <v>1.046537644099778</v>
       </c>
       <c r="N23">
-        <v>1.014116619012188</v>
+        <v>1.015885507597735</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.045717829744326</v>
+        <v>1.04540379778642</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.039899216288428</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.039405016801945</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023049949656726</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.005897391384044</v>
+        <v>1.005420429849565</v>
       </c>
       <c r="D24">
-        <v>1.029169176712279</v>
+        <v>1.028151535148603</v>
       </c>
       <c r="E24">
-        <v>1.023266344136336</v>
+        <v>1.022802882085698</v>
       </c>
       <c r="F24">
-        <v>1.035840379367638</v>
+        <v>1.035220925622115</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.048917817078702</v>
+        <v>1.048496425816445</v>
       </c>
       <c r="J24">
-        <v>1.033170300871295</v>
+        <v>1.032711409612359</v>
       </c>
       <c r="K24">
-        <v>1.042702706551972</v>
+        <v>1.041701678929351</v>
       </c>
       <c r="L24">
-        <v>1.036896835344534</v>
+        <v>1.036441047233059</v>
       </c>
       <c r="M24">
-        <v>1.049266032525654</v>
+        <v>1.048656520542824</v>
       </c>
       <c r="N24">
-        <v>1.014876295305074</v>
+        <v>1.0159189253382</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.047563116563148</v>
+        <v>1.047080733204647</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.041315739132923</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.040621717337873</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.02337929102854</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.011553725580851</v>
+        <v>1.010900965638484</v>
       </c>
       <c r="D25">
-        <v>1.032861215329404</v>
+        <v>1.031615639110018</v>
       </c>
       <c r="E25">
-        <v>1.027505195960795</v>
+        <v>1.026884575799591</v>
       </c>
       <c r="F25">
-        <v>1.039893288874949</v>
+        <v>1.03911498039214</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.050144783410447</v>
+        <v>1.049607067948071</v>
       </c>
       <c r="J25">
-        <v>1.035698420210716</v>
+        <v>1.035066956709915</v>
       </c>
       <c r="K25">
-        <v>1.044969955128775</v>
+        <v>1.043742215643219</v>
       </c>
       <c r="L25">
-        <v>1.039691023221797</v>
+        <v>1.039079401355921</v>
       </c>
       <c r="M25">
-        <v>1.051902341614895</v>
+        <v>1.051134982572607</v>
       </c>
       <c r="N25">
-        <v>1.015731541109404</v>
+        <v>1.016504302731727</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.04964955532704</v>
+        <v>1.049042249429606</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.042915938402023</v>
+        <v>1.042061320243168</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023768633804691</v>
       </c>
     </row>
   </sheetData>
